--- a/code/total_df_n46.xlsx
+++ b/code/total_df_n46.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-mid-clean/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB1AB5D-EBCA-B749-845E-937ED71418CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47427523-8FDB-9F43-97DD-7BB05900516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="16580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="199">
   <si>
     <t>Sub</t>
   </si>
@@ -606,6 +606,33 @@
   </si>
   <si>
     <t>zstat_DMN_VS_LG_minus_LL</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>SG-N</t>
+  </si>
+  <si>
+    <t>SL_N</t>
+  </si>
+  <si>
+    <t>LG-SG</t>
+  </si>
+  <si>
+    <t>LL_SL</t>
   </si>
 </sst>
 </file>
@@ -1026,13 +1053,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CT47"/>
+  <dimension ref="A1:DG47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CP14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CL1" sqref="CL1:CL1048576"/>
+      <selection pane="bottomRight" activeCell="DH26" sqref="DH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1047,7 +1074,7 @@
     <col min="94" max="96" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" ht="42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:111" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1342,8 +1369,47 @@
       <c r="CT1" s="9" t="s">
         <v>183</v>
       </c>
+      <c r="CU1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>2</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>3</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="2" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -1656,8 +1722,47 @@
       <c r="CT2" s="2">
         <v>-0.85166682329999999</v>
       </c>
+      <c r="CU2">
+        <v>0.305434638867154</v>
+      </c>
+      <c r="CV2">
+        <v>0.32050712750060401</v>
+      </c>
+      <c r="CW2">
+        <v>0.332187023188453</v>
+      </c>
+      <c r="CX2">
+        <v>0.362249740224797</v>
+      </c>
+      <c r="CY2">
+        <v>0.30837125348625699</v>
+      </c>
+      <c r="CZ2">
+        <v>-8.5370806711060794E-3</v>
+      </c>
+      <c r="DA2">
+        <v>-2.6752384321298402E-2</v>
+      </c>
+      <c r="DB2">
+        <v>-1.16798956878483E-2</v>
+      </c>
+      <c r="DC2">
+        <v>-2.38157697021961E-2</v>
+      </c>
+      <c r="DD2">
+        <v>3.0062717036344101E-2</v>
+      </c>
+      <c r="DE2">
+        <v>-2.9366146191023199E-3</v>
+      </c>
+      <c r="DF2">
+        <v>-1.50724886334501E-2</v>
+      </c>
+      <c r="DG2">
+        <v>-5.3878486738540197E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1970,8 +2075,47 @@
       <c r="CT3" s="2">
         <v>0.1026903936</v>
       </c>
+      <c r="CU3">
+        <v>0.37713703014014699</v>
+      </c>
+      <c r="CV3">
+        <v>0.34409770040656401</v>
+      </c>
+      <c r="CW3">
+        <v>0.32311334281985099</v>
+      </c>
+      <c r="CX3">
+        <v>0.389765408923267</v>
+      </c>
+      <c r="CY3">
+        <v>0.30858965820516399</v>
+      </c>
+      <c r="CZ3">
+        <v>-6.1688701992225795E-4</v>
+      </c>
+      <c r="DA3">
+        <v>5.40236873202957E-2</v>
+      </c>
+      <c r="DB3">
+        <v>2.09843575867125E-2</v>
+      </c>
+      <c r="DC3">
+        <v>-1.4523684614687201E-2</v>
+      </c>
+      <c r="DD3">
+        <v>6.6652066103415494E-2</v>
+      </c>
+      <c r="DE3">
+        <v>6.8547371934982906E-2</v>
+      </c>
+      <c r="DF3">
+        <v>3.3039329733583103E-2</v>
+      </c>
+      <c r="DG3">
+        <v>-8.1175750718102693E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -2284,8 +2428,47 @@
       <c r="CT4" s="2">
         <v>0.54129364430000004</v>
       </c>
+      <c r="CU4">
+        <v>0.34347991854883703</v>
+      </c>
+      <c r="CV4">
+        <v>0.33897643524687698</v>
+      </c>
+      <c r="CW4">
+        <v>0.32272362557705397</v>
+      </c>
+      <c r="CX4">
+        <v>0.34278606483712698</v>
+      </c>
+      <c r="CY4">
+        <v>0.302930305479094</v>
+      </c>
+      <c r="CZ4">
+        <v>-2.4563787987322799E-3</v>
+      </c>
+      <c r="DA4">
+        <v>2.07562929717823E-2</v>
+      </c>
+      <c r="DB4">
+        <v>1.6252809669822399E-2</v>
+      </c>
+      <c r="DC4">
+        <v>-1.97933200979605E-2</v>
+      </c>
+      <c r="DD4">
+        <v>2.0062439260072999E-2</v>
+      </c>
+      <c r="DE4">
+        <v>4.0549613069742897E-2</v>
+      </c>
+      <c r="DF4">
+        <v>4.5034833019599301E-3</v>
+      </c>
+      <c r="DG4">
+        <v>-3.9855759358033503E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2781,47 @@
       <c r="CT5" s="2">
         <v>0.65709044309999998</v>
       </c>
+      <c r="CU5">
+        <v>0.271466309786774</v>
+      </c>
+      <c r="CV5">
+        <v>0.27853118465282001</v>
+      </c>
+      <c r="CW5">
+        <v>0.294866868120152</v>
+      </c>
+      <c r="CX5">
+        <v>0.29255829763133001</v>
+      </c>
+      <c r="CY5">
+        <v>0.271871120959986</v>
+      </c>
+      <c r="CZ5">
+        <v>-5.2963112164953899E-3</v>
+      </c>
+      <c r="DA5">
+        <v>-2.3400558333378198E-2</v>
+      </c>
+      <c r="DB5">
+        <v>-1.6335683467332201E-2</v>
+      </c>
+      <c r="DC5">
+        <v>-2.2995747160166499E-2</v>
+      </c>
+      <c r="DD5">
+        <v>-2.3085704888217099E-3</v>
+      </c>
+      <c r="DE5">
+        <v>-4.0481117321178301E-4</v>
+      </c>
+      <c r="DF5">
+        <v>-7.0648748660460097E-3</v>
+      </c>
+      <c r="DG5">
+        <v>-2.06871766713447E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -2912,8 +3134,47 @@
       <c r="CT6" s="2">
         <v>-0.74139154389999995</v>
       </c>
+      <c r="CU6">
+        <v>0.27033338195178602</v>
+      </c>
+      <c r="CV6">
+        <v>0.27706846105866101</v>
+      </c>
+      <c r="CW6">
+        <v>0.28496288182213902</v>
+      </c>
+      <c r="CX6">
+        <v>0.27218974754214198</v>
+      </c>
+      <c r="CY6">
+        <v>0.277509949752129</v>
+      </c>
+      <c r="CZ6">
+        <v>-1.6783792026607001E-3</v>
+      </c>
+      <c r="DA6">
+        <v>-1.46294998703524E-2</v>
+      </c>
+      <c r="DB6">
+        <v>-7.8944207634776796E-3</v>
+      </c>
+      <c r="DC6">
+        <v>-7.4529320700094104E-3</v>
+      </c>
+      <c r="DD6">
+        <v>-1.2773134279996099E-2</v>
+      </c>
+      <c r="DE6">
+        <v>-7.1765678003430297E-3</v>
+      </c>
+      <c r="DF6">
+        <v>-6.7350791068747596E-3</v>
+      </c>
+      <c r="DG6">
+        <v>5.3202022099867402E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -3226,8 +3487,47 @@
       <c r="CT7" s="2">
         <v>-0.35477407439999997</v>
       </c>
+      <c r="CU7">
+        <v>0.28031748597277301</v>
+      </c>
+      <c r="CV7">
+        <v>0.31086552736814999</v>
+      </c>
+      <c r="CW7">
+        <v>0.295282690494786</v>
+      </c>
+      <c r="CX7">
+        <v>0.318008447065949</v>
+      </c>
+      <c r="CY7">
+        <v>0.29928748914971898</v>
+      </c>
+      <c r="CZ7">
+        <v>-4.3021003699063101E-3</v>
+      </c>
+      <c r="DA7">
+        <v>-1.49652045220136E-2</v>
+      </c>
+      <c r="DB7">
+        <v>1.55828368733637E-2</v>
+      </c>
+      <c r="DC7">
+        <v>4.0047986549325201E-3</v>
+      </c>
+      <c r="DD7">
+        <v>2.2725756571162398E-2</v>
+      </c>
+      <c r="DE7">
+        <v>-1.8970003176946099E-2</v>
+      </c>
+      <c r="DF7">
+        <v>-3.0548041395377298E-2</v>
+      </c>
+      <c r="DG7">
+        <v>-1.8720957916229901E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
@@ -3540,8 +3840,47 @@
       <c r="CT8" s="2">
         <v>-0.39519033980000001</v>
       </c>
+      <c r="CU8">
+        <v>0.260252866370137</v>
+      </c>
+      <c r="CV8">
+        <v>0.29065276565961501</v>
+      </c>
+      <c r="CW8">
+        <v>0.302461104583926</v>
+      </c>
+      <c r="CX8">
+        <v>0.28393655980471499</v>
+      </c>
+      <c r="CY8">
+        <v>0.27895491209346801</v>
+      </c>
+      <c r="CZ8">
+        <v>-7.22114126464084E-3</v>
+      </c>
+      <c r="DA8">
+        <v>-4.2208238213788697E-2</v>
+      </c>
+      <c r="DB8">
+        <v>-1.18083389243111E-2</v>
+      </c>
+      <c r="DC8">
+        <v>-2.3506192490458402E-2</v>
+      </c>
+      <c r="DD8">
+        <v>-1.8524544779211199E-2</v>
+      </c>
+      <c r="DE8">
+        <v>-1.8702045723330198E-2</v>
+      </c>
+      <c r="DF8">
+        <v>-3.0399899289477599E-2</v>
+      </c>
+      <c r="DG8">
+        <v>-4.9816477112471997E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -3854,8 +4193,47 @@
       <c r="CT9" s="2">
         <v>-0.61659799680000005</v>
       </c>
+      <c r="CU9">
+        <v>0.33834768389351599</v>
+      </c>
+      <c r="CV9">
+        <v>0.31042992940638198</v>
+      </c>
+      <c r="CW9">
+        <v>0.36112862802110601</v>
+      </c>
+      <c r="CX9">
+        <v>0.33093400194775302</v>
+      </c>
+      <c r="CY9">
+        <v>0.30117361911106799</v>
+      </c>
+      <c r="CZ9">
+        <v>-6.0413272419412101E-3</v>
+      </c>
+      <c r="DA9">
+        <v>-2.2780944127589398E-2</v>
+      </c>
+      <c r="DB9">
+        <v>-5.0698698614723897E-2</v>
+      </c>
+      <c r="DC9">
+        <v>-5.9955008910037501E-2</v>
+      </c>
+      <c r="DD9">
+        <v>-3.0194626073352899E-2</v>
+      </c>
+      <c r="DE9">
+        <v>3.7174064782448099E-2</v>
+      </c>
+      <c r="DF9">
+        <v>2.7917754487134499E-2</v>
+      </c>
+      <c r="DG9">
+        <v>-2.9760382836684501E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -4168,8 +4546,47 @@
       <c r="CT10" s="2">
         <v>0.19609320699999999</v>
       </c>
+      <c r="CU10">
+        <v>0.270464802962123</v>
+      </c>
+      <c r="CV10">
+        <v>0.27610288557389101</v>
+      </c>
+      <c r="CW10">
+        <v>0.28752696858191401</v>
+      </c>
+      <c r="CX10">
+        <v>0.29879739821717499</v>
+      </c>
+      <c r="CY10">
+        <v>0.26873461768263901</v>
+      </c>
+      <c r="CZ10">
+        <v>-5.1110985475263798E-3</v>
+      </c>
+      <c r="DA10">
+        <v>-1.70621656197909E-2</v>
+      </c>
+      <c r="DB10">
+        <v>-1.1424083008023399E-2</v>
+      </c>
+      <c r="DC10">
+        <v>-1.8792350899275299E-2</v>
+      </c>
+      <c r="DD10">
+        <v>1.1270429635260299E-2</v>
+      </c>
+      <c r="DE10">
+        <v>1.7301852794844299E-3</v>
+      </c>
+      <c r="DF10">
+        <v>-5.6380826117674501E-3</v>
+      </c>
+      <c r="DG10">
+        <v>-3.0062780534535701E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
@@ -4482,8 +4899,47 @@
       <c r="CT11" s="2">
         <v>-0.46680769779999998</v>
       </c>
+      <c r="CU11">
+        <v>0.28478656522929602</v>
+      </c>
+      <c r="CV11">
+        <v>0.322761286923196</v>
+      </c>
+      <c r="CW11">
+        <v>0.29669485258636902</v>
+      </c>
+      <c r="CX11">
+        <v>0.33304927079007002</v>
+      </c>
+      <c r="CY11">
+        <v>0.28506881650537202</v>
+      </c>
+      <c r="CZ11">
+        <v>-7.8206785297620096E-3</v>
+      </c>
+      <c r="DA11">
+        <v>-1.1908287357073199E-2</v>
+      </c>
+      <c r="DB11">
+        <v>2.6066434336826198E-2</v>
+      </c>
+      <c r="DC11">
+        <v>-1.1626036080997401E-2</v>
+      </c>
+      <c r="DD11">
+        <v>3.6354418203700299E-2</v>
+      </c>
+      <c r="DE11">
+        <v>-2.8225127607584E-4</v>
+      </c>
+      <c r="DF11">
+        <v>-3.7974721693899399E-2</v>
+      </c>
+      <c r="DG11">
+        <v>-4.7980454284697702E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4796,8 +5252,47 @@
       <c r="CT12" s="2">
         <v>-0.22571641079999999</v>
       </c>
+      <c r="CU12">
+        <v>0.24546278372872599</v>
+      </c>
+      <c r="CV12">
+        <v>0.25314377364702501</v>
+      </c>
+      <c r="CW12">
+        <v>0.25403052347246502</v>
+      </c>
+      <c r="CX12">
+        <v>0.25497810076922101</v>
+      </c>
+      <c r="CY12">
+        <v>0.249503193655982</v>
+      </c>
+      <c r="CZ12">
+        <v>-1.8750690422685899E-3</v>
+      </c>
+      <c r="DA12">
+        <v>-8.5677397437393596E-3</v>
+      </c>
+      <c r="DB12">
+        <v>-8.8674982544034698E-4</v>
+      </c>
+      <c r="DC12">
+        <v>-4.5273298164829603E-3</v>
+      </c>
+      <c r="DD12">
+        <v>9.4757729675620697E-4</v>
+      </c>
+      <c r="DE12">
+        <v>-4.0404099272564001E-3</v>
+      </c>
+      <c r="DF12">
+        <v>-7.6809899182990098E-3</v>
+      </c>
+      <c r="DG12">
+        <v>-5.4749071132391596E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -5110,8 +5605,47 @@
       <c r="CT13" s="2">
         <v>0.75431486729999997</v>
       </c>
+      <c r="CU13">
+        <v>0.29833598533878097</v>
+      </c>
+      <c r="CV13">
+        <v>0.34576657786965298</v>
+      </c>
+      <c r="CW13">
+        <v>0.315847488935105</v>
+      </c>
+      <c r="CX13">
+        <v>0.33085254079196602</v>
+      </c>
+      <c r="CY13">
+        <v>0.298982144508045</v>
+      </c>
+      <c r="CZ13">
+        <v>-8.1198454884412793E-3</v>
+      </c>
+      <c r="DA13">
+        <v>-1.7511503596324401E-2</v>
+      </c>
+      <c r="DB13">
+        <v>2.9919088934548199E-2</v>
+      </c>
+      <c r="DC13">
+        <v>-1.6865344427060301E-2</v>
+      </c>
+      <c r="DD13">
+        <v>1.5005051856860499E-2</v>
+      </c>
+      <c r="DE13">
+        <v>-6.4615916926413699E-4</v>
+      </c>
+      <c r="DF13">
+        <v>-4.7430592530872603E-2</v>
+      </c>
+      <c r="DG13">
+        <v>-3.1870396283920799E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -5424,8 +5958,47 @@
       <c r="CT14" s="2">
         <v>0.4275285996</v>
       </c>
+      <c r="CU14">
+        <v>0.55924635590054095</v>
+      </c>
+      <c r="CV14">
+        <v>0.52810588863212604</v>
+      </c>
+      <c r="CW14">
+        <v>0.48599444975843598</v>
+      </c>
+      <c r="CX14">
+        <v>0.57096491596894305</v>
+      </c>
+      <c r="CY14">
+        <v>0.478740440797992</v>
+      </c>
+      <c r="CZ14">
+        <v>3.5099209136602E-4</v>
+      </c>
+      <c r="DA14">
+        <v>7.3251906142104403E-2</v>
+      </c>
+      <c r="DB14">
+        <v>4.2111438873689601E-2</v>
+      </c>
+      <c r="DC14">
+        <v>-7.2540089604444802E-3</v>
+      </c>
+      <c r="DD14">
+        <v>8.4970466210506801E-2</v>
+      </c>
+      <c r="DE14">
+        <v>8.0505915102548897E-2</v>
+      </c>
+      <c r="DF14">
+        <v>3.1140467268414702E-2</v>
+      </c>
+      <c r="DG14">
+        <v>-9.2224475170951295E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -5738,8 +6311,47 @@
       <c r="CT15" s="2">
         <v>-0.2368191976</v>
       </c>
+      <c r="CU15">
+        <v>0.27883449981891301</v>
+      </c>
+      <c r="CV15">
+        <v>0.25725000037527901</v>
+      </c>
+      <c r="CW15">
+        <v>0.29304862715798602</v>
+      </c>
+      <c r="CX15">
+        <v>0.34862338516904801</v>
+      </c>
+      <c r="CY15">
+        <v>0.305491818497102</v>
+      </c>
+      <c r="CZ15">
+        <v>-1.66557165916207E-3</v>
+      </c>
+      <c r="DA15">
+        <v>-1.42141273390734E-2</v>
+      </c>
+      <c r="DB15">
+        <v>-3.5798626782707198E-2</v>
+      </c>
+      <c r="DC15">
+        <v>1.24431913391163E-2</v>
+      </c>
+      <c r="DD15">
+        <v>5.5574758011061903E-2</v>
+      </c>
+      <c r="DE15">
+        <v>-2.6657318678189702E-2</v>
+      </c>
+      <c r="DF15">
+        <v>2.15844994436338E-2</v>
+      </c>
+      <c r="DG15">
+        <v>-4.31315666719456E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -6052,8 +6664,47 @@
       <c r="CT16" s="2">
         <v>0.65512747930000004</v>
       </c>
+      <c r="CU16">
+        <v>0.26968774611941598</v>
+      </c>
+      <c r="CV16">
+        <v>0.29450151343735298</v>
+      </c>
+      <c r="CW16">
+        <v>0.28823237660981199</v>
+      </c>
+      <c r="CX16">
+        <v>0.268033032094535</v>
+      </c>
+      <c r="CY16">
+        <v>0.28180007770151799</v>
+      </c>
+      <c r="CZ16">
+        <v>-2.57311793640319E-3</v>
+      </c>
+      <c r="DA16">
+        <v>-1.8544630490396199E-2</v>
+      </c>
+      <c r="DB16">
+        <v>6.2691368275409297E-3</v>
+      </c>
+      <c r="DC16">
+        <v>-6.4322989082938797E-3</v>
+      </c>
+      <c r="DD16">
+        <v>-2.01993445152766E-2</v>
+      </c>
+      <c r="DE16">
+        <v>-1.2112331582102299E-2</v>
+      </c>
+      <c r="DF16">
+        <v>-2.4813767317937101E-2</v>
+      </c>
+      <c r="DG16">
+        <v>1.3767045606982701E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -6366,8 +7017,47 @@
       <c r="CT17" s="2">
         <v>0.33876507109999998</v>
       </c>
+      <c r="CU17">
+        <v>0.29193674297130201</v>
+      </c>
+      <c r="CV17">
+        <v>0.29208420826762399</v>
+      </c>
+      <c r="CW17">
+        <v>0.32701431243913198</v>
+      </c>
+      <c r="CX17">
+        <v>0.29602516900922599</v>
+      </c>
+      <c r="CY17">
+        <v>0.33810273605922703</v>
+      </c>
+      <c r="CZ17">
+        <v>1.2814968504244299E-3</v>
+      </c>
+      <c r="DA17">
+        <v>-3.5077569467830402E-2</v>
+      </c>
+      <c r="DB17">
+        <v>-3.4930104171507902E-2</v>
+      </c>
+      <c r="DC17">
+        <v>1.10884236200945E-2</v>
+      </c>
+      <c r="DD17">
+        <v>-3.0989143429906101E-2</v>
+      </c>
+      <c r="DE17">
+        <v>-4.6165993087925003E-2</v>
+      </c>
+      <c r="DF17">
+        <v>-1.47465296322479E-4</v>
+      </c>
+      <c r="DG17">
+        <v>4.2077567050000597E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
@@ -6680,8 +7370,47 @@
       <c r="CT18" s="2">
         <v>0.26996217700000003</v>
       </c>
+      <c r="CU18">
+        <v>0.21253948134835801</v>
+      </c>
+      <c r="CV18">
+        <v>0.227537484490312</v>
+      </c>
+      <c r="CW18">
+        <v>0.25585869397036698</v>
+      </c>
+      <c r="CX18">
+        <v>0.21015316783450499</v>
+      </c>
+      <c r="CY18">
+        <v>0.22880022309254799</v>
+      </c>
+      <c r="CZ18">
+        <v>-4.7663308131242199E-3</v>
+      </c>
+      <c r="DA18">
+        <v>-4.3319212622009197E-2</v>
+      </c>
+      <c r="DB18">
+        <v>-2.83212094800546E-2</v>
+      </c>
+      <c r="DC18">
+        <v>-2.7058470877818701E-2</v>
+      </c>
+      <c r="DD18">
+        <v>-4.5705526135861797E-2</v>
+      </c>
+      <c r="DE18">
+        <v>-1.6260741744190399E-2</v>
+      </c>
+      <c r="DF18">
+        <v>-1.49980031419545E-2</v>
+      </c>
+      <c r="DG18">
+        <v>1.86470552580431E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -6994,8 +7723,47 @@
       <c r="CT19" s="2">
         <v>-0.1961861452</v>
       </c>
+      <c r="CU19">
+        <v>0.30696640536189002</v>
+      </c>
+      <c r="CV19">
+        <v>0.29056982032488998</v>
+      </c>
+      <c r="CW19">
+        <v>0.30336897366214499</v>
+      </c>
+      <c r="CX19">
+        <v>0.30574245750904</v>
+      </c>
+      <c r="CY19">
+        <v>0.30899363989010398</v>
+      </c>
+      <c r="CZ19">
+        <v>2.06213323898347E-3</v>
+      </c>
+      <c r="DA19">
+        <v>3.5974316997453501E-3</v>
+      </c>
+      <c r="DB19">
+        <v>-1.2799153337255099E-2</v>
+      </c>
+      <c r="DC19">
+        <v>5.6246662279590904E-3</v>
+      </c>
+      <c r="DD19">
+        <v>2.3734838468953902E-3</v>
+      </c>
+      <c r="DE19">
+        <v>-2.0272345282137299E-3</v>
+      </c>
+      <c r="DF19">
+        <v>1.6396585037000401E-2</v>
+      </c>
+      <c r="DG19">
+        <v>3.2511823810636902E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -7308,8 +8076,47 @@
       <c r="CT20" s="2">
         <v>0.54866761310000001</v>
       </c>
+      <c r="CU20">
+        <v>0.23650924318644601</v>
+      </c>
+      <c r="CV20">
+        <v>0.23949521486974801</v>
+      </c>
+      <c r="CW20">
+        <v>0.26371218028361898</v>
+      </c>
+      <c r="CX20">
+        <v>0.255010404034692</v>
+      </c>
+      <c r="CY20">
+        <v>0.24415008858522899</v>
+      </c>
+      <c r="CZ20">
+        <v>-4.3293797091662001E-3</v>
+      </c>
+      <c r="DA20">
+        <v>-2.7202937097172201E-2</v>
+      </c>
+      <c r="DB20">
+        <v>-2.4216965413870601E-2</v>
+      </c>
+      <c r="DC20">
+        <v>-1.9562091698389801E-2</v>
+      </c>
+      <c r="DD20">
+        <v>-8.7017762489267608E-3</v>
+      </c>
+      <c r="DE20">
+        <v>-7.6408453987823997E-3</v>
+      </c>
+      <c r="DF20">
+        <v>-2.9859716833016102E-3</v>
+      </c>
+      <c r="DG20">
+        <v>-1.0860315449463E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -7622,8 +8429,47 @@
       <c r="CT21" s="2">
         <v>-0.53163988539999996</v>
       </c>
+      <c r="CU21">
+        <v>0.31192951760749499</v>
+      </c>
+      <c r="CV21">
+        <v>0.316161317030491</v>
+      </c>
+      <c r="CW21">
+        <v>0.30807536066276903</v>
+      </c>
+      <c r="CX21">
+        <v>0.30272618021990599</v>
+      </c>
+      <c r="CY21">
+        <v>0.31385727528686402</v>
+      </c>
+      <c r="CZ21">
+        <v>1.1810976580558701E-3</v>
+      </c>
+      <c r="DA21">
+        <v>3.8541569447261199E-3</v>
+      </c>
+      <c r="DB21">
+        <v>8.0859563677222399E-3</v>
+      </c>
+      <c r="DC21">
+        <v>5.7819146240944896E-3</v>
+      </c>
+      <c r="DD21">
+        <v>-5.3491804428631396E-3</v>
+      </c>
+      <c r="DE21">
+        <v>-1.92775767936836E-3</v>
+      </c>
+      <c r="DF21">
+        <v>-4.23179942299611E-3</v>
+      </c>
+      <c r="DG21">
+        <v>1.11310950669576E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -7936,8 +8782,47 @@
       <c r="CT22" s="2">
         <v>-9.2139182639999997E-2</v>
       </c>
+      <c r="CU22">
+        <v>0.276945968158543</v>
+      </c>
+      <c r="CV22">
+        <v>0.27892927033826698</v>
+      </c>
+      <c r="CW22">
+        <v>0.27071501815225901</v>
+      </c>
+      <c r="CX22">
+        <v>0.27823677496053201</v>
+      </c>
+      <c r="CY22">
+        <v>0.29237708583241301</v>
+      </c>
+      <c r="CZ22">
+        <v>2.8607161698996002E-3</v>
+      </c>
+      <c r="DA22">
+        <v>6.2309500062838197E-3</v>
+      </c>
+      <c r="DB22">
+        <v>8.2142521860077908E-3</v>
+      </c>
+      <c r="DC22">
+        <v>2.1662067680153899E-2</v>
+      </c>
+      <c r="DD22">
+        <v>7.5217568082734899E-3</v>
+      </c>
+      <c r="DE22">
+        <v>-1.54311176738701E-2</v>
+      </c>
+      <c r="DF22">
+        <v>-1.9833021797239698E-3</v>
+      </c>
+      <c r="DG22">
+        <v>1.41403108718805E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -8250,8 +9135,47 @@
       <c r="CT23" s="2">
         <v>-0.1148453153</v>
       </c>
+      <c r="CU23">
+        <v>0.31653699734078999</v>
+      </c>
+      <c r="CV23">
+        <v>0.29115420039033701</v>
+      </c>
+      <c r="CW23">
+        <v>0.28149277151260299</v>
+      </c>
+      <c r="CX23">
+        <v>0.31675721331794099</v>
+      </c>
+      <c r="CY23">
+        <v>0.31341367367713202</v>
+      </c>
+      <c r="CZ23">
+        <v>6.3574560930256801E-3</v>
+      </c>
+      <c r="DA23">
+        <v>3.5044225828187302E-2</v>
+      </c>
+      <c r="DB23">
+        <v>9.6614288777345791E-3</v>
+      </c>
+      <c r="DC23">
+        <v>3.1920902164529197E-2</v>
+      </c>
+      <c r="DD23">
+        <v>3.5264441805338699E-2</v>
+      </c>
+      <c r="DE23">
+        <v>3.1233236636580802E-3</v>
+      </c>
+      <c r="DF23">
+        <v>2.5382796950452698E-2</v>
+      </c>
+      <c r="DG23">
+        <v>-3.3435396408094602E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -8564,8 +9488,47 @@
       <c r="CT24" s="2">
         <v>0.71654977040000001</v>
       </c>
+      <c r="CU24">
+        <v>0.29694211028981898</v>
+      </c>
+      <c r="CV24">
+        <v>0.239452081179479</v>
+      </c>
+      <c r="CW24">
+        <v>0.219973833620315</v>
+      </c>
+      <c r="CX24">
+        <v>0.22913358637015299</v>
+      </c>
+      <c r="CY24">
+        <v>0.25394911135663201</v>
+      </c>
+      <c r="CZ24">
+        <v>1.38035077501886E-2</v>
+      </c>
+      <c r="DA24">
+        <v>7.6968276669504093E-2</v>
+      </c>
+      <c r="DB24">
+        <v>1.9478247559163699E-2</v>
+      </c>
+      <c r="DC24">
+        <v>3.3975277736317297E-2</v>
+      </c>
+      <c r="DD24">
+        <v>9.1597527498379298E-3</v>
+      </c>
+      <c r="DE24">
+        <v>4.2992998933186699E-2</v>
+      </c>
+      <c r="DF24">
+        <v>5.7490029110340402E-2</v>
+      </c>
+      <c r="DG24">
+        <v>2.48155249864794E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -8878,8 +9841,47 @@
       <c r="CT25" s="2">
         <v>-0.2174714345</v>
       </c>
+      <c r="CU25">
+        <v>0.33442128088790901</v>
+      </c>
+      <c r="CV25">
+        <v>0.31636660569347402</v>
+      </c>
+      <c r="CW25">
+        <v>0.26959392149001299</v>
+      </c>
+      <c r="CX25">
+        <v>0.31192002794705298</v>
+      </c>
+      <c r="CY25">
+        <v>0.32269746973179197</v>
+      </c>
+      <c r="CZ25">
+        <v>1.04830731870606E-2</v>
+      </c>
+      <c r="DA25">
+        <v>6.4827359397895606E-2</v>
+      </c>
+      <c r="DB25">
+        <v>4.6772684203460799E-2</v>
+      </c>
+      <c r="DC25">
+        <v>5.3103548241779201E-2</v>
+      </c>
+      <c r="DD25">
+        <v>4.23261064570397E-2</v>
+      </c>
+      <c r="DE25">
+        <v>1.17238111561164E-2</v>
+      </c>
+      <c r="DF25">
+        <v>1.8054675194434801E-2</v>
+      </c>
+      <c r="DG25">
+        <v>1.0777441784739401E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
@@ -9192,8 +10194,47 @@
       <c r="CT26" s="2">
         <v>-0.30770898070000002</v>
       </c>
+      <c r="CU26">
+        <v>0.35309921624138901</v>
+      </c>
+      <c r="CV26">
+        <v>0.38635392149444597</v>
+      </c>
+      <c r="CW26">
+        <v>0.370830671745352</v>
+      </c>
+      <c r="CX26">
+        <v>0.38956117839552401</v>
+      </c>
+      <c r="CY26">
+        <v>0.38565342366928201</v>
+      </c>
+      <c r="CZ26">
+        <v>-2.8622259685237698E-3</v>
+      </c>
+      <c r="DA26">
+        <v>-1.7731455503962899E-2</v>
+      </c>
+      <c r="DB26">
+        <v>1.5523249749094199E-2</v>
+      </c>
+      <c r="DC26">
+        <v>1.48227519239299E-2</v>
+      </c>
+      <c r="DD26">
+        <v>1.8730506650172101E-2</v>
+      </c>
+      <c r="DE26">
+        <v>-3.2554207427892799E-2</v>
+      </c>
+      <c r="DF26">
+        <v>-3.3254705253057099E-2</v>
+      </c>
+      <c r="DG26">
+        <v>-3.9077547262422697E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
@@ -9506,8 +10547,47 @@
       <c r="CT27" s="2">
         <v>1.1090153789999999</v>
       </c>
+      <c r="CU27">
+        <v>0.309480648895259</v>
+      </c>
+      <c r="CV27">
+        <v>0.32675396429840398</v>
+      </c>
+      <c r="CW27">
+        <v>0.308012943074572</v>
+      </c>
+      <c r="CX27">
+        <v>0.32442380778957097</v>
+      </c>
+      <c r="CY27">
+        <v>0.30053509975550602</v>
+      </c>
+      <c r="CZ27">
+        <v>-3.36944006682772E-3</v>
+      </c>
+      <c r="DA27">
+        <v>1.46770582068711E-3</v>
+      </c>
+      <c r="DB27">
+        <v>1.8741021223831901E-2</v>
+      </c>
+      <c r="DC27">
+        <v>-7.4778433190658602E-3</v>
+      </c>
+      <c r="DD27">
+        <v>1.64108647149987E-2</v>
+      </c>
+      <c r="DE27">
+        <v>8.9455491397529806E-3</v>
+      </c>
+      <c r="DF27">
+        <v>-1.72733154031448E-2</v>
+      </c>
+      <c r="DG27">
+        <v>-2.38887080340646E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -9820,8 +10900,47 @@
       <c r="CT28" s="2">
         <v>-0.41720973849999998</v>
       </c>
+      <c r="CU28">
+        <v>0.31061711788061003</v>
+      </c>
+      <c r="CV28">
+        <v>0.327592697198269</v>
+      </c>
+      <c r="CW28">
+        <v>0.31018091001897102</v>
+      </c>
+      <c r="CX28">
+        <v>0.25669941294472598</v>
+      </c>
+      <c r="CY28">
+        <v>0.31103491142857798</v>
+      </c>
+      <c r="CZ28">
+        <v>2.7607234598170599E-3</v>
+      </c>
+      <c r="DA28">
+        <v>4.36207861639559E-4</v>
+      </c>
+      <c r="DB28">
+        <v>1.7411787179298699E-2</v>
+      </c>
+      <c r="DC28">
+        <v>8.5400140960700799E-4</v>
+      </c>
+      <c r="DD28">
+        <v>-5.3481497074244502E-2</v>
+      </c>
+      <c r="DE28">
+        <v>-4.1779354796744802E-4</v>
+      </c>
+      <c r="DF28">
+        <v>-1.6975579317659101E-2</v>
+      </c>
+      <c r="DG28">
+        <v>5.4335498483851503E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -10134,8 +11253,47 @@
       <c r="CT29" s="2">
         <v>-9.8361420590000002E-3</v>
       </c>
+      <c r="CU29">
+        <v>0.24043969999911399</v>
+      </c>
+      <c r="CV29">
+        <v>0.26800750000256801</v>
+      </c>
+      <c r="CW29">
+        <v>0.27326109999921699</v>
+      </c>
+      <c r="CX29">
+        <v>0.28887400000166902</v>
+      </c>
+      <c r="CY29">
+        <v>0.258038300002226</v>
+      </c>
+      <c r="CZ29">
+        <v>-7.6034071428564103E-3</v>
+      </c>
+      <c r="DA29">
+        <v>-3.2821400000102502E-2</v>
+      </c>
+      <c r="DB29">
+        <v>-5.2535999966494204E-3</v>
+      </c>
+      <c r="DC29">
+        <v>-1.52227999969909E-2</v>
+      </c>
+      <c r="DD29">
+        <v>1.5612900002451999E-2</v>
+      </c>
+      <c r="DE29">
+        <v>-1.75986000031116E-2</v>
+      </c>
+      <c r="DF29">
+        <v>-2.7567800003453099E-2</v>
+      </c>
+      <c r="DG29">
+        <v>-3.0835699999443002E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -10448,8 +11606,47 @@
       <c r="CT30" s="2">
         <v>-0.63191312550000001</v>
       </c>
+      <c r="CU30">
+        <v>0.30175958454492502</v>
+      </c>
+      <c r="CV30">
+        <v>0.276141779846511</v>
+      </c>
+      <c r="CW30">
+        <v>0.29592167254304502</v>
+      </c>
+      <c r="CX30">
+        <v>0.285913090308895</v>
+      </c>
+      <c r="CY30">
+        <v>0.27923204848775601</v>
+      </c>
+      <c r="CZ30">
+        <v>5.7750363027611704E-4</v>
+      </c>
+      <c r="DA30">
+        <v>5.8379120018798797E-3</v>
+      </c>
+      <c r="DB30">
+        <v>-1.97798926965333E-2</v>
+      </c>
+      <c r="DC30">
+        <v>-1.6689624055288701E-2</v>
+      </c>
+      <c r="DD30">
+        <v>-1.00085822341497E-2</v>
+      </c>
+      <c r="DE30">
+        <v>2.25275360571686E-2</v>
+      </c>
+      <c r="DF30">
+        <v>2.56178046984132E-2</v>
+      </c>
+      <c r="DG30">
+        <v>-6.6810418211389298E-3</v>
+      </c>
     </row>
-    <row r="31" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
@@ -10762,8 +11959,47 @@
       <c r="CT31" s="2">
         <v>0.19399214949999999</v>
       </c>
+      <c r="CU31">
+        <v>0.24958635913208099</v>
+      </c>
+      <c r="CV31">
+        <v>0.25142989447340303</v>
+      </c>
+      <c r="CW31">
+        <v>0.25946936244145002</v>
+      </c>
+      <c r="CX31">
+        <v>0.237753561581484</v>
+      </c>
+      <c r="CY31">
+        <v>0.25313970015849901</v>
+      </c>
+      <c r="CZ31">
+        <v>-1.9071873975918101E-4</v>
+      </c>
+      <c r="DA31">
+        <v>-9.8830033093690803E-3</v>
+      </c>
+      <c r="DB31">
+        <v>-8.03946796804666E-3</v>
+      </c>
+      <c r="DC31">
+        <v>-6.3296622829511701E-3</v>
+      </c>
+      <c r="DD31">
+        <v>-2.1715800859965301E-2</v>
+      </c>
+      <c r="DE31">
+        <v>-3.5533410264179102E-3</v>
+      </c>
+      <c r="DF31">
+        <v>-1.8435353413224201E-3</v>
+      </c>
+      <c r="DG31">
+        <v>1.5386138577014199E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -11076,8 +12312,47 @@
       <c r="CT32" s="2">
         <v>-0.93062408340000002</v>
       </c>
+      <c r="CU32">
+        <v>0.40755706885829501</v>
+      </c>
+      <c r="CV32">
+        <v>0.41934548062272298</v>
+      </c>
+      <c r="CW32">
+        <v>0.43431985168717802</v>
+      </c>
+      <c r="CX32">
+        <v>0.373613651841878</v>
+      </c>
+      <c r="CY32">
+        <v>0.32261203974485397</v>
+      </c>
+      <c r="CZ32">
+        <v>-1.43757584737613E-2</v>
+      </c>
+      <c r="DA32">
+        <v>-2.6762782828882298E-2</v>
+      </c>
+      <c r="DB32">
+        <v>-1.49743710644543E-2</v>
+      </c>
+      <c r="DC32">
+        <v>-0.111707811942324</v>
+      </c>
+      <c r="DD32">
+        <v>-6.0706199845299097E-2</v>
+      </c>
+      <c r="DE32">
+        <v>8.4945029113441706E-2</v>
+      </c>
+      <c r="DF32">
+        <v>-1.1788411764428E-2</v>
+      </c>
+      <c r="DG32">
+        <v>-5.1001612097024897E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
@@ -11390,8 +12665,47 @@
       <c r="CT33" s="2">
         <v>-0.30071019450000003</v>
       </c>
+      <c r="CU33">
+        <v>0.29532931579160498</v>
+      </c>
+      <c r="CV33">
+        <v>0.31495051832462101</v>
+      </c>
+      <c r="CW33">
+        <v>0.35074371173686802</v>
+      </c>
+      <c r="CX33">
+        <v>0.29348909223335701</v>
+      </c>
+      <c r="CY33">
+        <v>0.28530619526281897</v>
+      </c>
+      <c r="CZ33">
+        <v>-1.0618286565919E-2</v>
+      </c>
+      <c r="DA33">
+        <v>-5.5414395945262998E-2</v>
+      </c>
+      <c r="DB33">
+        <v>-3.5793193412246099E-2</v>
+      </c>
+      <c r="DC33">
+        <v>-6.5437516474048593E-2</v>
+      </c>
+      <c r="DD33">
+        <v>-5.7254619503510101E-2</v>
+      </c>
+      <c r="DE33">
+        <v>1.00231205287855E-2</v>
+      </c>
+      <c r="DF33">
+        <v>-1.9621202533016899E-2</v>
+      </c>
+      <c r="DG33">
+        <v>-8.1828969705384207E-3</v>
+      </c>
     </row>
-    <row r="34" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -11704,8 +13018,47 @@
       <c r="CT34" s="2">
         <v>-0.28935340040000002</v>
       </c>
+      <c r="CU34">
+        <v>0.25569203210761698</v>
+      </c>
+      <c r="CV34">
+        <v>0.27452464896487</v>
+      </c>
+      <c r="CW34">
+        <v>0.31919694674434101</v>
+      </c>
+      <c r="CX34">
+        <v>0.21977720604627299</v>
+      </c>
+      <c r="CY34">
+        <v>0.27808915924106198</v>
+      </c>
+      <c r="CZ34">
+        <v>-4.6523832716047599E-3</v>
+      </c>
+      <c r="DA34">
+        <v>-6.3504914636723697E-2</v>
+      </c>
+      <c r="DB34">
+        <v>-4.4672297779470599E-2</v>
+      </c>
+      <c r="DC34">
+        <v>-4.11077875032788E-2</v>
+      </c>
+      <c r="DD34">
+        <v>-9.9419740698067402E-2</v>
+      </c>
+      <c r="DE34">
+        <v>-2.23971271334448E-2</v>
+      </c>
+      <c r="DF34">
+        <v>-1.8832616857253001E-2</v>
+      </c>
+      <c r="DG34">
+        <v>5.8311953194788602E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -12018,8 +13371,47 @@
       <c r="CT35" s="2">
         <v>0.2381286635</v>
       </c>
+      <c r="CU35">
+        <v>0.27095711999572802</v>
+      </c>
+      <c r="CV35">
+        <v>0.26093404786661201</v>
+      </c>
+      <c r="CW35">
+        <v>0.32185583957470898</v>
+      </c>
+      <c r="CX35">
+        <v>0.29167764727026202</v>
+      </c>
+      <c r="CY35">
+        <v>0.31236949667800201</v>
+      </c>
+      <c r="CZ35">
+        <v>-2.11929578134524E-3</v>
+      </c>
+      <c r="DA35">
+        <v>-5.08987195789814E-2</v>
+      </c>
+      <c r="DB35">
+        <v>-6.0921791708096799E-2</v>
+      </c>
+      <c r="DC35">
+        <v>-9.4863428967073508E-3</v>
+      </c>
+      <c r="DD35">
+        <v>-3.01781923044472E-2</v>
+      </c>
+      <c r="DE35">
+        <v>-4.1412376682274002E-2</v>
+      </c>
+      <c r="DF35">
+        <v>1.00230721291154E-2</v>
+      </c>
+      <c r="DG35">
+        <v>2.0691849407739899E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
@@ -12332,8 +13724,47 @@
       <c r="CT36" s="2">
         <v>-0.72131246559999995</v>
       </c>
+      <c r="CU36">
+        <v>0.32115699999849301</v>
+      </c>
+      <c r="CV36">
+        <v>0.32137630000943301</v>
+      </c>
+      <c r="CW36">
+        <v>0.31825130000652202</v>
+      </c>
+      <c r="CX36">
+        <v>0.33935379999456899</v>
+      </c>
+      <c r="CY36">
+        <v>0.32835140000679502</v>
+      </c>
+      <c r="CZ36">
+        <v>1.2743571382348899E-4</v>
+      </c>
+      <c r="DA36">
+        <v>2.90569999197032E-3</v>
+      </c>
+      <c r="DB36">
+        <v>3.12500000291038E-3</v>
+      </c>
+      <c r="DC36">
+        <v>1.01001000002725E-2</v>
+      </c>
+      <c r="DD36">
+        <v>2.1102499988046398E-2</v>
+      </c>
+      <c r="DE36">
+        <v>-7.1944000083021802E-3</v>
+      </c>
+      <c r="DF36">
+        <v>-2.1930001094005999E-4</v>
+      </c>
+      <c r="DG36">
+        <v>-1.10023999877739E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
@@ -12646,8 +14077,47 @@
       <c r="CT37" s="2">
         <v>0.27465553729999997</v>
       </c>
+      <c r="CU37">
+        <v>0.330868997305515</v>
+      </c>
+      <c r="CV37">
+        <v>0.34617498883744702</v>
+      </c>
+      <c r="CW37">
+        <v>0.32600145443575401</v>
+      </c>
+      <c r="CX37">
+        <v>0.32111776137025999</v>
+      </c>
+      <c r="CY37">
+        <v>0.33702493194141397</v>
+      </c>
+      <c r="CZ37">
+        <v>1.1780142439030499E-3</v>
+      </c>
+      <c r="DA37">
+        <v>4.8675428697606497E-3</v>
+      </c>
+      <c r="DB37">
+        <v>2.0173534401692401E-2</v>
+      </c>
+      <c r="DC37">
+        <v>1.10234775056596E-2</v>
+      </c>
+      <c r="DD37">
+        <v>-4.8836930654942903E-3</v>
+      </c>
+      <c r="DE37">
+        <v>-6.1559346358990297E-3</v>
+      </c>
+      <c r="DF37">
+        <v>-1.53059915319317E-2</v>
+      </c>
+      <c r="DG37">
+        <v>1.59071705711539E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -12960,8 +14430,47 @@
       <c r="CT38" s="2">
         <v>0.34599991299999999</v>
       </c>
+      <c r="CU38">
+        <v>0.26031169999623599</v>
+      </c>
+      <c r="CV38">
+        <v>0.24865109997335799</v>
+      </c>
+      <c r="CW38">
+        <v>0.36765630001900701</v>
+      </c>
+      <c r="CX38">
+        <v>0.25837260001571799</v>
+      </c>
+      <c r="CY38">
+        <v>0.27290470001753397</v>
+      </c>
+      <c r="CZ38">
+        <v>-1.25645357142535E-2</v>
+      </c>
+      <c r="DA38">
+        <v>-0.10734460002277001</v>
+      </c>
+      <c r="DB38">
+        <v>-0.119005200045648</v>
+      </c>
+      <c r="DC38">
+        <v>-9.4751600001472897E-2</v>
+      </c>
+      <c r="DD38">
+        <v>-0.10928370000328801</v>
+      </c>
+      <c r="DE38">
+        <v>-1.25930000212974E-2</v>
+      </c>
+      <c r="DF38">
+        <v>1.1660600022878401E-2</v>
+      </c>
+      <c r="DG38">
+        <v>1.45321000018157E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -13274,8 +14783,47 @@
       <c r="CT39" s="2">
         <v>-0.12923029820000001</v>
       </c>
+      <c r="CU39">
+        <v>0.29838525387458498</v>
+      </c>
+      <c r="CV39">
+        <v>0.26985317224171002</v>
+      </c>
+      <c r="CW39">
+        <v>0.28624831972410902</v>
+      </c>
+      <c r="CX39">
+        <v>0.30872106592869297</v>
+      </c>
+      <c r="CY39">
+        <v>0.28544971602968799</v>
+      </c>
+      <c r="CZ39">
+        <v>1.18564729928038E-3</v>
+      </c>
+      <c r="DA39">
+        <v>1.2136934150476E-2</v>
+      </c>
+      <c r="DB39">
+        <v>-1.63951474823988E-2</v>
+      </c>
+      <c r="DC39">
+        <v>-7.9860369442030701E-4</v>
+      </c>
+      <c r="DD39">
+        <v>2.2472746204584799E-2</v>
+      </c>
+      <c r="DE39">
+        <v>1.2935537844896299E-2</v>
+      </c>
+      <c r="DF39">
+        <v>2.8532081632874899E-2</v>
+      </c>
+      <c r="DG39">
+        <v>-2.32713498990051E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>24</v>
       </c>
@@ -13588,8 +15136,47 @@
       <c r="CT40" s="2">
         <v>-0.36050643989999998</v>
       </c>
+      <c r="CU40">
+        <v>0.26389229999767799</v>
+      </c>
+      <c r="CV40">
+        <v>0.25869560000137398</v>
+      </c>
+      <c r="CW40">
+        <v>0.27253230000496798</v>
+      </c>
+      <c r="CX40">
+        <v>0.27097800000046801</v>
+      </c>
+      <c r="CY40">
+        <v>0.262517000002844</v>
+      </c>
+      <c r="CZ40">
+        <v>-1.5656857150523501E-3</v>
+      </c>
+      <c r="DA40">
+        <v>-8.6400000072899205E-3</v>
+      </c>
+      <c r="DB40">
+        <v>-1.3836700003594099E-2</v>
+      </c>
+      <c r="DC40">
+        <v>-1.0015300002123599E-2</v>
+      </c>
+      <c r="DD40">
+        <v>-1.5543000044999601E-3</v>
+      </c>
+      <c r="DE40">
+        <v>1.37529999483376E-3</v>
+      </c>
+      <c r="DF40">
+        <v>5.19669999630423E-3</v>
+      </c>
+      <c r="DG40">
+        <v>-8.4609999976237305E-3</v>
+      </c>
     </row>
-    <row r="41" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -13902,8 +15489,47 @@
       <c r="CT41" s="2">
         <v>0.59186078990000002</v>
       </c>
+      <c r="CU41">
+        <v>0.27478430001065102</v>
+      </c>
+      <c r="CV41">
+        <v>0.30509630002779797</v>
+      </c>
+      <c r="CW41">
+        <v>0.42112389998510402</v>
+      </c>
+      <c r="CX41">
+        <v>0.43343699997058099</v>
+      </c>
+      <c r="CY41">
+        <v>0.34199659997830101</v>
+      </c>
+      <c r="CZ41">
+        <v>-2.4801378570762998E-2</v>
+      </c>
+      <c r="DA41">
+        <v>-0.14633959997445301</v>
+      </c>
+      <c r="DB41">
+        <v>-0.11602759995730499</v>
+      </c>
+      <c r="DC41">
+        <v>-7.9127300006803097E-2</v>
+      </c>
+      <c r="DD41">
+        <v>1.23130999854765E-2</v>
+      </c>
+      <c r="DE41">
+        <v>-6.7212299967650296E-2</v>
+      </c>
+      <c r="DF41">
+        <v>-3.0312000017147501E-2</v>
+      </c>
+      <c r="DG41">
+        <v>-9.1440399992279695E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
@@ -14216,8 +15842,47 @@
       <c r="CT42" s="2">
         <v>-0.2406223552</v>
       </c>
+      <c r="CU42">
+        <v>0.25526109989732498</v>
+      </c>
+      <c r="CV42">
+        <v>0.32960830000229102</v>
+      </c>
+      <c r="CW42">
+        <v>0.50983945000916697</v>
+      </c>
+      <c r="CX42">
+        <v>0.31709309993311702</v>
+      </c>
+      <c r="CY42">
+        <v>0.32746299984864802</v>
+      </c>
+      <c r="CZ42">
+        <v>-3.5780864318699701E-2</v>
+      </c>
+      <c r="DA42">
+        <v>-0.25457835011184199</v>
+      </c>
+      <c r="DB42">
+        <v>-0.18023115000687501</v>
+      </c>
+      <c r="DC42">
+        <v>-0.18237645016051801</v>
+      </c>
+      <c r="DD42">
+        <v>-0.19274635007604901</v>
+      </c>
+      <c r="DE42">
+        <v>-7.2201899951323797E-2</v>
+      </c>
+      <c r="DF42">
+        <v>-7.4347200104966704E-2</v>
+      </c>
+      <c r="DG42">
+        <v>1.03698999155312E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
@@ -14530,8 +16195,47 @@
       <c r="CT43" s="2">
         <v>-0.28642412070000001</v>
       </c>
+      <c r="CU43">
+        <v>0.25166589999571398</v>
+      </c>
+      <c r="CV43">
+        <v>0.26142870000330698</v>
+      </c>
+      <c r="CW43">
+        <v>0.26647029997548</v>
+      </c>
+      <c r="CX43">
+        <v>0.25061879999702702</v>
+      </c>
+      <c r="CY43">
+        <v>0.240791800024453</v>
+      </c>
+      <c r="CZ43">
+        <v>-4.2909071364972103E-3</v>
+      </c>
+      <c r="DA43">
+        <v>-1.4804399979766399E-2</v>
+      </c>
+      <c r="DB43">
+        <v>-5.0415999721735699E-3</v>
+      </c>
+      <c r="DC43">
+        <v>-2.5678499951027299E-2</v>
+      </c>
+      <c r="DD43">
+        <v>-1.58514999784529E-2</v>
+      </c>
+      <c r="DE43">
+        <v>1.0874099971260799E-2</v>
+      </c>
+      <c r="DF43">
+        <v>-9.7628000075928797E-3</v>
+      </c>
+      <c r="DG43">
+        <v>-9.8269999725744094E-3</v>
+      </c>
     </row>
-    <row r="44" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
@@ -14844,8 +16548,47 @@
       <c r="CT44" s="2">
         <v>0.4606249322</v>
       </c>
+      <c r="CU44">
+        <v>0.309154100017622</v>
+      </c>
+      <c r="CV44">
+        <v>0.35540389991365301</v>
+      </c>
+      <c r="CW44">
+        <v>0.44437369983643199</v>
+      </c>
+      <c r="CX44">
+        <v>0.38728519994765498</v>
+      </c>
+      <c r="CY44">
+        <v>0.32651179982349199</v>
+      </c>
+      <c r="CZ44">
+        <v>-2.5721764275138899E-2</v>
+      </c>
+      <c r="DA44">
+        <v>-0.13521959981880999</v>
+      </c>
+      <c r="DB44">
+        <v>-8.8969799922779202E-2</v>
+      </c>
+      <c r="DC44">
+        <v>-0.11786190001294</v>
+      </c>
+      <c r="DD44">
+        <v>-5.7088499888777698E-2</v>
+      </c>
+      <c r="DE44">
+        <v>-1.73576998058706E-2</v>
+      </c>
+      <c r="DF44">
+        <v>-4.6249799896031597E-2</v>
+      </c>
+      <c r="DG44">
+        <v>-6.0773400124162401E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
@@ -15158,8 +16901,47 @@
       <c r="CT45" s="2">
         <v>-0.63439562790000004</v>
       </c>
+      <c r="CU45">
+        <v>0.26531110005453201</v>
+      </c>
+      <c r="CV45">
+        <v>0.30091230000834901</v>
+      </c>
+      <c r="CW45">
+        <v>0.31645939999725597</v>
+      </c>
+      <c r="CX45">
+        <v>0.37248519994318402</v>
+      </c>
+      <c r="CY45">
+        <v>0.26834149996284301</v>
+      </c>
+      <c r="CZ45">
+        <v>-1.7072221422235301E-2</v>
+      </c>
+      <c r="DA45">
+        <v>-5.11482999427244E-2</v>
+      </c>
+      <c r="DB45">
+        <v>-1.5547099988907499E-2</v>
+      </c>
+      <c r="DC45">
+        <v>-4.81179000344127E-2</v>
+      </c>
+      <c r="DD45">
+        <v>5.6025799945928101E-2</v>
+      </c>
+      <c r="DE45">
+        <v>-3.0303999083116599E-3</v>
+      </c>
+      <c r="DF45">
+        <v>-3.5601199953816803E-2</v>
+      </c>
+      <c r="DG45">
+        <v>-0.10414369998034</v>
+      </c>
     </row>
-    <row r="46" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>29</v>
       </c>
@@ -15472,8 +17254,47 @@
       <c r="CT46" s="2">
         <v>-1.2903293689999999</v>
       </c>
+      <c r="CU46">
+        <v>0.29868469992652502</v>
+      </c>
+      <c r="CV46">
+        <v>0.27217550016939601</v>
+      </c>
+      <c r="CW46">
+        <v>0.299600899685174</v>
+      </c>
+      <c r="CX46">
+        <v>0.30233040032908298</v>
+      </c>
+      <c r="CY46">
+        <v>0.27748880023136702</v>
+      </c>
+      <c r="CZ46">
+        <v>-1.5257642537887699E-3</v>
+      </c>
+      <c r="DA46">
+        <v>-9.1619975864887205E-4</v>
+      </c>
+      <c r="DB46">
+        <v>-2.7425399515777799E-2</v>
+      </c>
+      <c r="DC46">
+        <v>-2.2112099453806801E-2</v>
+      </c>
+      <c r="DD46">
+        <v>2.7295006439089701E-3</v>
+      </c>
+      <c r="DE46">
+        <v>2.1195899695158001E-2</v>
+      </c>
+      <c r="DF46">
+        <v>2.6509199757128898E-2</v>
+      </c>
+      <c r="DG46">
+        <v>-2.4841600097715799E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:98" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:111" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>35</v>
       </c>
@@ -15785,6 +17606,45 @@
       </c>
       <c r="CT47" s="2">
         <v>0.22453609420000001</v>
+      </c>
+      <c r="CU47">
+        <v>0.35358945000916697</v>
+      </c>
+      <c r="CV47">
+        <v>0.45092039974406301</v>
+      </c>
+      <c r="CW47">
+        <v>0.37348589999601201</v>
+      </c>
+      <c r="CX47">
+        <v>0.44888090016320298</v>
+      </c>
+      <c r="CY47">
+        <v>0.34719959995709299</v>
+      </c>
+      <c r="CZ47">
+        <v>-1.7513928569054999E-2</v>
+      </c>
+      <c r="DA47">
+        <v>-1.9896449986845199E-2</v>
+      </c>
+      <c r="DB47">
+        <v>7.7434499748051097E-2</v>
+      </c>
+      <c r="DC47">
+        <v>-2.6286300038918801E-2</v>
+      </c>
+      <c r="DD47">
+        <v>7.5395000167191001E-2</v>
+      </c>
+      <c r="DE47">
+        <v>6.3898500520735901E-3</v>
+      </c>
+      <c r="DF47">
+        <v>-9.7330949734896394E-2</v>
+      </c>
+      <c r="DG47">
+        <v>-0.10168130020610899</v>
       </c>
     </row>
   </sheetData>

--- a/code/total_df_n46.xlsx
+++ b/code/total_df_n46.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-mid-clean/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C98E7FB-CD07-EF42-8251-9497A8BD92EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9555B970-7F64-5642-8BE5-0DAC00F74835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1220" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="208">
   <si>
     <t>Sub</t>
   </si>
@@ -651,6 +651,15 @@
   </si>
   <si>
     <t>LG_N_split</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Low (-1SD)</t>
+  </si>
+  <si>
+    <t>High (+1SD)</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1083,10 @@
   <dimension ref="A1:DI47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CW21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DE40" sqref="DE40"/>
+      <selection pane="bottomRight" activeCell="DC58" sqref="DC58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1768,7 +1777,7 @@
         <v>-0.25457835011184199</v>
       </c>
       <c r="DB2" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="DC2">
         <v>-1.16798956878483E-2</v>
@@ -2128,7 +2137,7 @@
         <v>-0.14633959997445301</v>
       </c>
       <c r="DB3" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="DC3">
         <v>2.09843575867125E-2</v>
@@ -2149,7 +2158,7 @@
         <v>-8.1175750718102693E-2</v>
       </c>
       <c r="DI3">
-        <f t="shared" ref="DI3:DI47" si="0">CU3-CY3</f>
+        <f>CU3-CY3</f>
         <v>-6.7212299967649991E-2</v>
       </c>
     </row>
@@ -2488,7 +2497,7 @@
         <v>-0.13521959981880999</v>
       </c>
       <c r="DB4" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="DC4">
         <v>1.6252809669822399E-2</v>
@@ -2509,7 +2518,7 @@
         <v>-3.9855759358033503E-2</v>
       </c>
       <c r="DI4">
-        <f t="shared" si="0"/>
+        <f>CU4-CY4</f>
         <v>-1.7357699805869986E-2</v>
       </c>
     </row>
@@ -2848,7 +2857,7 @@
         <v>-0.10734460002277001</v>
       </c>
       <c r="DB5" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="DC5">
         <v>-1.6335683467332201E-2</v>
@@ -2869,7 +2878,7 @@
         <v>-2.06871766713447E-2</v>
       </c>
       <c r="DI5">
-        <f t="shared" si="0"/>
+        <f>CU5-CY5</f>
         <v>-1.2593000021297984E-2</v>
       </c>
     </row>
@@ -3208,7 +3217,7 @@
         <v>-6.3504914636723697E-2</v>
       </c>
       <c r="DB6" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC6">
         <v>-7.8944207634776796E-3</v>
@@ -3229,7 +3238,7 @@
         <v>5.3202022099867402E-3</v>
       </c>
       <c r="DI6">
-        <f t="shared" si="0"/>
+        <f>CU6-CY6</f>
         <v>-2.2397127133444994E-2</v>
       </c>
     </row>
@@ -3568,7 +3577,7 @@
         <v>-5.5414395945262998E-2</v>
       </c>
       <c r="DB7" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC7">
         <v>1.55828368733637E-2</v>
@@ -3589,7 +3598,7 @@
         <v>-1.8720957916229901E-2</v>
       </c>
       <c r="DI7">
-        <f t="shared" si="0"/>
+        <f>CU7-CY7</f>
         <v>1.0023120528786011E-2</v>
       </c>
     </row>
@@ -3928,7 +3937,7 @@
         <v>-5.11482999427244E-2</v>
       </c>
       <c r="DB8" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC8">
         <v>-1.18083389243111E-2</v>
@@ -3949,7 +3958,7 @@
         <v>-4.9816477112471997E-3</v>
       </c>
       <c r="DI8">
-        <f t="shared" si="0"/>
+        <f>CU8-CY8</f>
         <v>-3.0303999083109989E-3</v>
       </c>
     </row>
@@ -4288,7 +4297,7 @@
         <v>-5.08987195789814E-2</v>
       </c>
       <c r="DB9" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC9">
         <v>-5.0698698614723897E-2</v>
@@ -4309,7 +4318,7 @@
         <v>-2.9760382836684501E-2</v>
       </c>
       <c r="DI9">
-        <f t="shared" si="0"/>
+        <f>CU9-CY9</f>
         <v>-4.1412376682273988E-2</v>
       </c>
     </row>
@@ -4648,7 +4657,7 @@
         <v>-4.3319212622009197E-2</v>
       </c>
       <c r="DB10" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC10">
         <v>-1.1424083008023399E-2</v>
@@ -4669,7 +4678,7 @@
         <v>-3.0062780534535701E-2</v>
       </c>
       <c r="DI10">
-        <f t="shared" si="0"/>
+        <f>CU10-CY10</f>
         <v>-1.6260741744189983E-2</v>
       </c>
     </row>
@@ -5008,7 +5017,7 @@
         <v>-4.2208238213788697E-2</v>
       </c>
       <c r="DB11" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC11">
         <v>2.6066434336826198E-2</v>
@@ -5029,7 +5038,7 @@
         <v>-4.7980454284697702E-2</v>
       </c>
       <c r="DI11">
-        <f t="shared" si="0"/>
+        <f>CU11-CY11</f>
         <v>-1.8702045723331007E-2</v>
       </c>
     </row>
@@ -5368,7 +5377,7 @@
         <v>-3.5077569467830402E-2</v>
       </c>
       <c r="DB12" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC12">
         <v>-8.8674982544034698E-4</v>
@@ -5389,7 +5398,7 @@
         <v>-5.4749071132391596E-3</v>
       </c>
       <c r="DI12">
-        <f t="shared" si="0"/>
+        <f>CU12-CY12</f>
         <v>-4.6165993087925017E-2</v>
       </c>
     </row>
@@ -5728,7 +5737,7 @@
         <v>-3.2821400000102502E-2</v>
       </c>
       <c r="DB13" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC13">
         <v>2.9919088934548199E-2</v>
@@ -5749,7 +5758,7 @@
         <v>-3.1870396283920799E-2</v>
       </c>
       <c r="DI13">
-        <f t="shared" si="0"/>
+        <f>CU13-CY13</f>
         <v>-1.7598600003112003E-2</v>
       </c>
     </row>
@@ -6088,7 +6097,7 @@
         <v>-2.7202937097172201E-2</v>
       </c>
       <c r="DB14" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC14">
         <v>4.2111438873689601E-2</v>
@@ -6109,7 +6118,7 @@
         <v>-9.2224475170951295E-2</v>
       </c>
       <c r="DI14">
-        <f t="shared" si="0"/>
+        <f>CU14-CY14</f>
         <v>-7.6408453987829861E-3</v>
       </c>
     </row>
@@ -6448,7 +6457,7 @@
         <v>-2.6762782828882298E-2</v>
       </c>
       <c r="DB15" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC15">
         <v>-3.5798626782707198E-2</v>
@@ -6469,7 +6478,7 @@
         <v>-4.31315666719456E-2</v>
       </c>
       <c r="DI15">
-        <f t="shared" si="0"/>
+        <f>CU15-CY15</f>
         <v>8.494502911344104E-2</v>
       </c>
     </row>
@@ -6808,7 +6817,7 @@
         <v>-2.6752384321298402E-2</v>
       </c>
       <c r="DB16" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC16">
         <v>6.2691368275409297E-3</v>
@@ -6829,7 +6838,7 @@
         <v>1.3767045606982701E-2</v>
       </c>
       <c r="DI16">
-        <f t="shared" si="0"/>
+        <f>CU16-CY16</f>
         <v>-2.9366146191029951E-3</v>
       </c>
     </row>
@@ -7168,7 +7177,7 @@
         <v>-2.3400558333378198E-2</v>
       </c>
       <c r="DB17" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC17">
         <v>-3.4930104171507902E-2</v>
@@ -7189,7 +7198,7 @@
         <v>4.2077567050000597E-2</v>
       </c>
       <c r="DI17">
-        <f t="shared" si="0"/>
+        <f>CU17-CY17</f>
         <v>-4.0481117321200522E-4</v>
       </c>
     </row>
@@ -7528,7 +7537,7 @@
         <v>-2.2780944127589398E-2</v>
       </c>
       <c r="DB18" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC18">
         <v>-2.83212094800546E-2</v>
@@ -7549,7 +7558,7 @@
         <v>1.86470552580431E-2</v>
       </c>
       <c r="DI18">
-        <f t="shared" si="0"/>
+        <f>CU18-CY18</f>
         <v>3.7174064782448002E-2</v>
       </c>
     </row>
@@ -7888,7 +7897,7 @@
         <v>-1.9896449986845199E-2</v>
       </c>
       <c r="DB19" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC19">
         <v>-1.2799153337255099E-2</v>
@@ -7909,7 +7918,7 @@
         <v>3.2511823810636902E-3</v>
       </c>
       <c r="DI19">
-        <f t="shared" si="0"/>
+        <f>CU19-CY19</f>
         <v>6.3898500520739865E-3</v>
       </c>
     </row>
@@ -8248,7 +8257,7 @@
         <v>-1.8544630490396199E-2</v>
       </c>
       <c r="DB20" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC20">
         <v>-2.4216965413870601E-2</v>
@@ -8269,7 +8278,7 @@
         <v>-1.0860315449463E-2</v>
       </c>
       <c r="DI20">
-        <f t="shared" si="0"/>
+        <f>CU20-CY20</f>
         <v>-1.2112331582102009E-2</v>
       </c>
     </row>
@@ -8608,7 +8617,7 @@
         <v>-1.7731455503962899E-2</v>
       </c>
       <c r="DB21" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC21">
         <v>8.0859563677222399E-3</v>
@@ -8629,7 +8638,7 @@
         <v>1.11310950669576E-2</v>
       </c>
       <c r="DI21">
-        <f t="shared" si="0"/>
+        <f>CU21-CY21</f>
         <v>-3.2554207427893E-2</v>
       </c>
     </row>
@@ -8968,7 +8977,7 @@
         <v>-1.7511503596324401E-2</v>
       </c>
       <c r="DB22" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC22">
         <v>8.2142521860077908E-3</v>
@@ -8989,7 +8998,7 @@
         <v>1.41403108718805E-2</v>
       </c>
       <c r="DI22">
-        <f t="shared" si="0"/>
+        <f>CU22-CY22</f>
         <v>-6.4615916926402672E-4</v>
       </c>
     </row>
@@ -9328,7 +9337,7 @@
         <v>-1.70621656197909E-2</v>
       </c>
       <c r="DB23" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC23">
         <v>9.6614288777345791E-3</v>
@@ -9349,7 +9358,7 @@
         <v>-3.3435396408094602E-3</v>
       </c>
       <c r="DI23">
-        <f t="shared" si="0"/>
+        <f>CU23-CY23</f>
         <v>1.7301852794839867E-3</v>
       </c>
     </row>
@@ -9688,7 +9697,7 @@
         <v>-1.49652045220136E-2</v>
       </c>
       <c r="DB24" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC24">
         <v>1.9478247559163699E-2</v>
@@ -9709,7 +9718,7 @@
         <v>2.48155249864794E-2</v>
       </c>
       <c r="DI24">
-        <f t="shared" si="0"/>
+        <f>CU24-CY24</f>
         <v>-1.8970003176945971E-2</v>
       </c>
     </row>
@@ -10048,7 +10057,7 @@
         <v>-1.4804399979766399E-2</v>
       </c>
       <c r="DB25" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC25">
         <v>4.6772684203460799E-2</v>
@@ -10069,7 +10078,7 @@
         <v>1.0777441784739401E-2</v>
       </c>
       <c r="DI25">
-        <f t="shared" si="0"/>
+        <f>CU25-CY25</f>
         <v>1.0874099971260986E-2</v>
       </c>
     </row>
@@ -10408,7 +10417,7 @@
         <v>-1.46294998703524E-2</v>
       </c>
       <c r="DB26" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC26">
         <v>1.5523249749094199E-2</v>
@@ -10429,7 +10438,7 @@
         <v>-3.9077547262422697E-3</v>
       </c>
       <c r="DI26">
-        <f t="shared" si="0"/>
+        <f>CU26-CY26</f>
         <v>-7.1765678003429811E-3</v>
       </c>
     </row>
@@ -10768,7 +10777,7 @@
         <v>-1.42141273390734E-2</v>
       </c>
       <c r="DB27" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC27">
         <v>1.8741021223831901E-2</v>
@@ -10789,7 +10798,7 @@
         <v>-2.38887080340646E-2</v>
       </c>
       <c r="DI27">
-        <f t="shared" si="0"/>
+        <f>CU27-CY27</f>
         <v>-2.665731867818899E-2</v>
       </c>
     </row>
@@ -11128,7 +11137,7 @@
         <v>-1.1908287357073199E-2</v>
       </c>
       <c r="DB28" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC28">
         <v>1.7411787179298699E-2</v>
@@ -11149,7 +11158,7 @@
         <v>5.4335498483851503E-2</v>
       </c>
       <c r="DI28">
-        <f t="shared" si="0"/>
+        <f>CU28-CY28</f>
         <v>-2.8225127607600653E-4</v>
       </c>
     </row>
@@ -11488,7 +11497,7 @@
         <v>-9.8830033093690803E-3</v>
       </c>
       <c r="DB29" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC29">
         <v>-5.2535999966494204E-3</v>
@@ -11509,7 +11518,7 @@
         <v>-3.0835699999443002E-2</v>
       </c>
       <c r="DI29">
-        <f t="shared" si="0"/>
+        <f>CU29-CY29</f>
         <v>-3.5533410264180221E-3</v>
       </c>
     </row>
@@ -11848,7 +11857,7 @@
         <v>-8.6400000072899205E-3</v>
       </c>
       <c r="DB30" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC30">
         <v>-1.97798926965333E-2</v>
@@ -11869,7 +11878,7 @@
         <v>-6.6810418211389298E-3</v>
       </c>
       <c r="DI30">
-        <f t="shared" si="0"/>
+        <f>CU30-CY30</f>
         <v>1.3752999948339895E-3</v>
       </c>
     </row>
@@ -12208,7 +12217,7 @@
         <v>-8.5677397437393596E-3</v>
       </c>
       <c r="DB31" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC31">
         <v>-8.03946796804666E-3</v>
@@ -12229,7 +12238,7 @@
         <v>1.5386138577014199E-2</v>
       </c>
       <c r="DI31">
-        <f t="shared" si="0"/>
+        <f>CU31-CY31</f>
         <v>-4.0404099272560168E-3</v>
       </c>
     </row>
@@ -12568,7 +12577,7 @@
         <v>-9.1619975864887205E-4</v>
       </c>
       <c r="DB32" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="DC32">
         <v>-1.49743710644543E-2</v>
@@ -12589,7 +12598,7 @@
         <v>-5.1001612097024897E-2</v>
       </c>
       <c r="DI32">
-        <f t="shared" si="0"/>
+        <f>CU32-CY32</f>
         <v>2.1195899695158005E-2</v>
       </c>
     </row>
@@ -12928,7 +12937,7 @@
         <v>4.36207861639559E-4</v>
       </c>
       <c r="DB33" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="DC33">
         <v>-3.5793193412246099E-2</v>
@@ -12949,7 +12958,7 @@
         <v>-8.1828969705384207E-3</v>
       </c>
       <c r="DI33">
-        <f t="shared" si="0"/>
+        <f>CU33-CY33</f>
         <v>-4.1779354796794843E-4</v>
       </c>
     </row>
@@ -13288,7 +13297,7 @@
         <v>1.46770582068711E-3</v>
       </c>
       <c r="DB34" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="DC34">
         <v>-4.4672297779470599E-2</v>
@@ -13309,7 +13318,7 @@
         <v>5.8311953194788602E-2</v>
       </c>
       <c r="DI34">
-        <f t="shared" si="0"/>
+        <f>CU34-CY34</f>
         <v>8.945549139752984E-3</v>
       </c>
     </row>
@@ -13648,7 +13657,7 @@
         <v>2.90569999197032E-3</v>
       </c>
       <c r="DB35" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="DC35">
         <v>-6.0921791708096799E-2</v>
@@ -13669,7 +13678,7 @@
         <v>2.0691849407739899E-2</v>
       </c>
       <c r="DI35">
-        <f t="shared" si="0"/>
+        <f>CU35-CY35</f>
         <v>-7.1944000083020154E-3</v>
       </c>
     </row>
@@ -14008,7 +14017,7 @@
         <v>3.5974316997453501E-3</v>
       </c>
       <c r="DB36" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="DC36">
         <v>3.12500000291038E-3</v>
@@ -14029,7 +14038,7 @@
         <v>-1.10023999877739E-2</v>
       </c>
       <c r="DI36">
-        <f t="shared" si="0"/>
+        <f>CU36-CY36</f>
         <v>-2.0272345282139614E-3</v>
       </c>
     </row>
@@ -14368,7 +14377,7 @@
         <v>3.8541569447261199E-3</v>
       </c>
       <c r="DB37" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="DC37">
         <v>2.0173534401692401E-2</v>
@@ -14389,7 +14398,7 @@
         <v>1.59071705711539E-2</v>
       </c>
       <c r="DI37">
-        <f t="shared" si="0"/>
+        <f>CU37-CY37</f>
         <v>-1.9277576793690354E-3</v>
       </c>
     </row>
@@ -14728,7 +14737,7 @@
         <v>4.8675428697606497E-3</v>
       </c>
       <c r="DB38" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="DC38">
         <v>-0.119005200045648</v>
@@ -14749,7 +14758,7 @@
         <v>1.45321000018157E-2</v>
       </c>
       <c r="DI38">
-        <f t="shared" si="0"/>
+        <f>CU38-CY38</f>
         <v>-6.1559346358989742E-3</v>
       </c>
     </row>
@@ -15088,7 +15097,7 @@
         <v>5.8379120018798797E-3</v>
       </c>
       <c r="DB39" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="DC39">
         <v>-1.63951474823988E-2</v>
@@ -15109,7 +15118,7 @@
         <v>-2.32713498990051E-2</v>
       </c>
       <c r="DI39">
-        <f t="shared" si="0"/>
+        <f>CU39-CY39</f>
         <v>2.2527536057169006E-2</v>
       </c>
     </row>
@@ -15448,7 +15457,7 @@
         <v>6.2309500062838197E-3</v>
       </c>
       <c r="DB40" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="DC40">
         <v>-1.3836700003594099E-2</v>
@@ -15469,7 +15478,7 @@
         <v>-8.4609999976237305E-3</v>
       </c>
       <c r="DI40">
-        <f t="shared" si="0"/>
+        <f>CU40-CY40</f>
         <v>-1.543111767387001E-2</v>
       </c>
     </row>
@@ -15808,7 +15817,7 @@
         <v>1.2136934150476E-2</v>
       </c>
       <c r="DB41" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="DC41">
         <v>-0.11602759995730499</v>
@@ -15829,7 +15838,7 @@
         <v>-9.1440399992279695E-2</v>
       </c>
       <c r="DI41">
-        <f t="shared" si="0"/>
+        <f>CU41-CY41</f>
         <v>1.2935537844896983E-2</v>
       </c>
     </row>
@@ -16168,7 +16177,7 @@
         <v>2.07562929717823E-2</v>
       </c>
       <c r="DB42" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="DC42">
         <v>-0.18023115000687501</v>
@@ -16189,7 +16198,7 @@
         <v>1.03698999155312E-2</v>
       </c>
       <c r="DI42">
-        <f t="shared" si="0"/>
+        <f>CU42-CY42</f>
         <v>4.0549613069743029E-2</v>
       </c>
     </row>
@@ -16528,7 +16537,7 @@
         <v>3.5044225828187302E-2</v>
       </c>
       <c r="DB43" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="DC43">
         <v>-5.0415999721735699E-3</v>
@@ -16549,7 +16558,7 @@
         <v>-9.8269999725744094E-3</v>
       </c>
       <c r="DI43">
-        <f t="shared" si="0"/>
+        <f>CU43-CY43</f>
         <v>3.1233236636579731E-3</v>
       </c>
     </row>
@@ -16888,7 +16897,7 @@
         <v>5.40236873202957E-2</v>
       </c>
       <c r="DB44" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="DC44">
         <v>-8.8969799922779202E-2</v>
@@ -16909,7 +16918,7 @@
         <v>-6.0773400124162401E-2</v>
       </c>
       <c r="DI44">
-        <f t="shared" si="0"/>
+        <f>CU44-CY44</f>
         <v>6.8547371934983004E-2</v>
       </c>
     </row>
@@ -17248,7 +17257,7 @@
         <v>6.4827359397895606E-2</v>
       </c>
       <c r="DB45" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="DC45">
         <v>-1.5547099988907499E-2</v>
@@ -17269,7 +17278,7 @@
         <v>-0.10414369998034</v>
       </c>
       <c r="DI45">
-        <f t="shared" si="0"/>
+        <f>CU45-CY45</f>
         <v>1.1723811156117037E-2</v>
       </c>
     </row>
@@ -17608,7 +17617,7 @@
         <v>7.3251906142104403E-2</v>
       </c>
       <c r="DB46" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="DC46">
         <v>-2.7425399515777799E-2</v>
@@ -17629,7 +17638,7 @@
         <v>-2.4841600097715799E-2</v>
       </c>
       <c r="DI46">
-        <f t="shared" si="0"/>
+        <f>CU46-CY46</f>
         <v>8.0505915102548953E-2</v>
       </c>
     </row>
@@ -17968,7 +17977,7 @@
         <v>7.6968276669504093E-2</v>
       </c>
       <c r="DB47" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="DC47">
         <v>7.7434499748051097E-2</v>
@@ -17989,12 +17998,12 @@
         <v>-0.10168130020610899</v>
       </c>
       <c r="DI47">
-        <f t="shared" si="0"/>
+        <f>CU47-CY47</f>
         <v>4.2992998933186977E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DA47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DI47">
     <sortCondition ref="DA1:DA47"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/code/total_df_n46.xlsx
+++ b/code/total_df_n46.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-mid-clean/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9555B970-7F64-5642-8BE5-0DAC00F74835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D07BD14-A6A7-3A47-8C6B-2D0EDA1CC9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="1220" windowWidth="19600" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="208">
   <si>
     <t>Sub</t>
   </si>
@@ -653,13 +653,13 @@
     <t>LG_N_split</t>
   </si>
   <si>
-    <t>Avg</t>
-  </si>
-  <si>
-    <t>Low (-1SD)</t>
-  </si>
-  <si>
-    <t>High (+1SD)</t>
+    <t>LG_N_perc</t>
+  </si>
+  <si>
+    <t>LG_N_splitthree</t>
+  </si>
+  <si>
+    <t>Med</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,6 +695,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -746,6 +752,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,13 +1087,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DI47"/>
+  <dimension ref="A1:DK47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CW21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DC58" sqref="DC58"/>
+      <selection pane="bottomRight" activeCell="DF23" sqref="DF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1101,7 +1108,7 @@
     <col min="94" max="96" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" ht="42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:115" ht="42" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,38 +1418,44 @@
       <c r="CY1" t="s">
         <v>194</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="CZ1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DA1" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DB1" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DC1" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="DD1" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DE1" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" s="11" t="s">
         <v>203</v>
       </c>
+      <c r="DK1" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="2" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1777,32 +1790,39 @@
         <v>-0.25457835011184199</v>
       </c>
       <c r="DB2" t="s">
-        <v>206</v>
-      </c>
-      <c r="DC2">
+        <v>154</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD2">
         <v>-1.16798956878483E-2</v>
       </c>
-      <c r="DD2">
+      <c r="DE2">
         <v>-2.38157697021961E-2</v>
       </c>
-      <c r="DE2">
+      <c r="DF2">
         <v>3.0062717036344101E-2</v>
       </c>
-      <c r="DF2">
+      <c r="DG2">
         <v>-2.9366146191023199E-3</v>
       </c>
-      <c r="DG2">
+      <c r="DH2">
         <v>-1.50724886334501E-2</v>
       </c>
-      <c r="DH2">
+      <c r="DI2">
         <v>-5.3878486738540197E-2</v>
       </c>
-      <c r="DI2">
+      <c r="DJ2">
         <f>CU2-CY2</f>
         <v>-7.2201899951323034E-2</v>
       </c>
+      <c r="DK2">
+        <f>((CW2-CU2)/CU2)*100</f>
+        <v>99.732528855451292</v>
+      </c>
     </row>
-    <row r="3" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -2137,32 +2157,39 @@
         <v>-0.14633959997445301</v>
       </c>
       <c r="DB3" t="s">
-        <v>206</v>
-      </c>
-      <c r="DC3">
+        <v>154</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD3">
         <v>2.09843575867125E-2</v>
       </c>
-      <c r="DD3">
+      <c r="DE3">
         <v>-1.4523684614687201E-2</v>
       </c>
-      <c r="DE3">
+      <c r="DF3">
         <v>6.6652066103415494E-2</v>
       </c>
-      <c r="DF3">
+      <c r="DG3">
         <v>6.8547371934982906E-2</v>
       </c>
-      <c r="DG3">
+      <c r="DH3">
         <v>3.3039329733583103E-2</v>
       </c>
-      <c r="DH3">
+      <c r="DI3">
         <v>-8.1175750718102693E-2</v>
       </c>
-      <c r="DI3">
+      <c r="DJ3">
         <f>CU3-CY3</f>
         <v>-6.7212299967649991E-2</v>
       </c>
+      <c r="DK3">
+        <f>((CW3-CU3)/CU3)*100</f>
+        <v>53.256172193528037</v>
+      </c>
     </row>
-    <row r="4" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -2497,32 +2524,39 @@
         <v>-0.13521959981880999</v>
       </c>
       <c r="DB4" t="s">
-        <v>206</v>
-      </c>
-      <c r="DC4">
+        <v>154</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD4">
         <v>1.6252809669822399E-2</v>
       </c>
-      <c r="DD4">
+      <c r="DE4">
         <v>-1.97933200979605E-2</v>
       </c>
-      <c r="DE4">
+      <c r="DF4">
         <v>2.0062439260072999E-2</v>
       </c>
-      <c r="DF4">
+      <c r="DG4">
         <v>4.0549613069742897E-2</v>
       </c>
-      <c r="DG4">
+      <c r="DH4">
         <v>4.5034833019599301E-3</v>
       </c>
-      <c r="DH4">
+      <c r="DI4">
         <v>-3.9855759358033503E-2</v>
       </c>
-      <c r="DI4">
+      <c r="DJ4">
         <f>CU4-CY4</f>
         <v>-1.7357699805869986E-2</v>
       </c>
+      <c r="DK4">
+        <f>((CW4-CU4)/CU4)*100</f>
+        <v>43.738575620087964</v>
+      </c>
     </row>
-    <row r="5" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -2857,32 +2891,39 @@
         <v>-0.10734460002277001</v>
       </c>
       <c r="DB5" t="s">
-        <v>206</v>
-      </c>
-      <c r="DC5">
+        <v>154</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD5">
         <v>-1.6335683467332201E-2</v>
       </c>
-      <c r="DD5">
+      <c r="DE5">
         <v>-2.2995747160166499E-2</v>
       </c>
-      <c r="DE5">
+      <c r="DF5">
         <v>-2.3085704888217099E-3</v>
       </c>
-      <c r="DF5">
+      <c r="DG5">
         <v>-4.0481117321178301E-4</v>
       </c>
-      <c r="DG5">
+      <c r="DH5">
         <v>-7.0648748660460097E-3</v>
       </c>
-      <c r="DH5">
+      <c r="DI5">
         <v>-2.06871766713447E-2</v>
       </c>
-      <c r="DI5">
+      <c r="DJ5">
         <f>CU5-CY5</f>
         <v>-1.2593000021297984E-2</v>
       </c>
+      <c r="DK5">
+        <f>((CW5-CU5)/CU5)*100</f>
+        <v>41.236947868391312</v>
+      </c>
     </row>
-    <row r="6" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3217,32 +3258,39 @@
         <v>-6.3504914636723697E-2</v>
       </c>
       <c r="DB6" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC6">
+        <v>154</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD6">
         <v>-7.8944207634776796E-3</v>
       </c>
-      <c r="DD6">
+      <c r="DE6">
         <v>-7.4529320700094104E-3</v>
       </c>
-      <c r="DE6">
+      <c r="DF6">
         <v>-1.2773134279996099E-2</v>
       </c>
-      <c r="DF6">
+      <c r="DG6">
         <v>-7.1765678003430297E-3</v>
       </c>
-      <c r="DG6">
+      <c r="DH6">
         <v>-6.7350791068747596E-3</v>
       </c>
-      <c r="DH6">
+      <c r="DI6">
         <v>5.3202022099867402E-3</v>
       </c>
-      <c r="DI6">
+      <c r="DJ6">
         <f>CU6-CY6</f>
         <v>-2.2397127133444994E-2</v>
       </c>
+      <c r="DK6">
+        <f>((CW6-CU6)/CU6)*100</f>
+        <v>24.836485561660268</v>
+      </c>
     </row>
-    <row r="7" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -3577,32 +3625,39 @@
         <v>-5.5414395945262998E-2</v>
       </c>
       <c r="DB7" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC7">
+        <v>154</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD7">
         <v>1.55828368733637E-2</v>
       </c>
-      <c r="DD7">
+      <c r="DE7">
         <v>4.0047986549325201E-3</v>
       </c>
-      <c r="DE7">
+      <c r="DF7">
         <v>2.2725756571162398E-2</v>
       </c>
-      <c r="DF7">
+      <c r="DG7">
         <v>-1.8970003176946099E-2</v>
       </c>
-      <c r="DG7">
+      <c r="DH7">
         <v>-3.0548041395377298E-2</v>
       </c>
-      <c r="DH7">
+      <c r="DI7">
         <v>-1.8720957916229901E-2</v>
       </c>
-      <c r="DI7">
+      <c r="DJ7">
         <f>CU7-CY7</f>
         <v>1.0023120528786011E-2</v>
       </c>
+      <c r="DK7">
+        <f>((CW7-CU7)/CU7)*100</f>
+        <v>18.763594733807405</v>
+      </c>
     </row>
-    <row r="8" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -3937,32 +3992,39 @@
         <v>-5.11482999427244E-2</v>
       </c>
       <c r="DB8" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC8">
+        <v>154</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD8">
         <v>-1.18083389243111E-2</v>
       </c>
-      <c r="DD8">
+      <c r="DE8">
         <v>-2.3506192490458402E-2</v>
       </c>
-      <c r="DE8">
+      <c r="DF8">
         <v>-1.8524544779211199E-2</v>
       </c>
-      <c r="DF8">
+      <c r="DG8">
         <v>-1.8702045723330198E-2</v>
       </c>
-      <c r="DG8">
+      <c r="DH8">
         <v>-3.0399899289477599E-2</v>
       </c>
-      <c r="DH8">
+      <c r="DI8">
         <v>-4.9816477112471997E-3</v>
       </c>
-      <c r="DI8">
+      <c r="DJ8">
         <f>CU8-CY8</f>
         <v>-3.0303999083109989E-3</v>
       </c>
+      <c r="DK8">
+        <f>((CW8-CU8)/CU8)*100</f>
+        <v>19.278612893396073</v>
+      </c>
     </row>
-    <row r="9" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -4297,32 +4359,39 @@
         <v>-5.08987195789814E-2</v>
       </c>
       <c r="DB9" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC9">
+        <v>154</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD9">
         <v>-5.0698698614723897E-2</v>
       </c>
-      <c r="DD9">
+      <c r="DE9">
         <v>-5.9955008910037501E-2</v>
       </c>
-      <c r="DE9">
+      <c r="DF9">
         <v>-3.0194626073352899E-2</v>
       </c>
-      <c r="DF9">
+      <c r="DG9">
         <v>3.7174064782448099E-2</v>
       </c>
-      <c r="DG9">
+      <c r="DH9">
         <v>2.7917754487134499E-2</v>
       </c>
-      <c r="DH9">
+      <c r="DI9">
         <v>-2.9760382836684501E-2</v>
       </c>
-      <c r="DI9">
+      <c r="DJ9">
         <f>CU9-CY9</f>
         <v>-4.1412376682273988E-2</v>
       </c>
+      <c r="DK9">
+        <f>((CW9-CU9)/CU9)*100</f>
+        <v>18.784787637166882</v>
+      </c>
     </row>
-    <row r="10" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -4657,32 +4726,39 @@
         <v>-4.3319212622009197E-2</v>
       </c>
       <c r="DB10" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC10">
+        <v>154</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD10">
         <v>-1.1424083008023399E-2</v>
       </c>
-      <c r="DD10">
+      <c r="DE10">
         <v>-1.8792350899275299E-2</v>
       </c>
-      <c r="DE10">
+      <c r="DF10">
         <v>1.1270429635260299E-2</v>
       </c>
-      <c r="DF10">
+      <c r="DG10">
         <v>1.7301852794844299E-3</v>
       </c>
-      <c r="DG10">
+      <c r="DH10">
         <v>-5.6380826117674501E-3</v>
       </c>
-      <c r="DH10">
+      <c r="DI10">
         <v>-3.0062780534535701E-2</v>
       </c>
-      <c r="DI10">
+      <c r="DJ10">
         <f>CU10-CY10</f>
         <v>-1.6260741744189983E-2</v>
       </c>
+      <c r="DK10">
+        <f>((CW10-CU10)/CU10)*100</f>
+        <v>20.381725008073957</v>
+      </c>
     </row>
-    <row r="11" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -5017,32 +5093,39 @@
         <v>-4.2208238213788697E-2</v>
       </c>
       <c r="DB11" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC11">
+        <v>154</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD11">
         <v>2.6066434336826198E-2</v>
       </c>
-      <c r="DD11">
+      <c r="DE11">
         <v>-1.1626036080997401E-2</v>
       </c>
-      <c r="DE11">
+      <c r="DF11">
         <v>3.6354418203700299E-2</v>
       </c>
-      <c r="DF11">
+      <c r="DG11">
         <v>-2.8225127607584E-4</v>
       </c>
-      <c r="DG11">
+      <c r="DH11">
         <v>-3.7974721693899399E-2</v>
       </c>
-      <c r="DH11">
+      <c r="DI11">
         <v>-4.7980454284697702E-2</v>
       </c>
-      <c r="DI11">
+      <c r="DJ11">
         <f>CU11-CY11</f>
         <v>-1.8702045723331007E-2</v>
       </c>
+      <c r="DK11">
+        <f>((CW11-CU11)/CU11)*100</f>
+        <v>16.218164588342926</v>
+      </c>
     </row>
-    <row r="12" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
@@ -5377,32 +5460,39 @@
         <v>-3.5077569467830402E-2</v>
       </c>
       <c r="DB12" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC12">
+        <v>154</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD12">
         <v>-8.8674982544034698E-4</v>
       </c>
-      <c r="DD12">
+      <c r="DE12">
         <v>-4.5273298164829603E-3</v>
       </c>
-      <c r="DE12">
+      <c r="DF12">
         <v>9.4757729675620697E-4</v>
       </c>
-      <c r="DF12">
+      <c r="DG12">
         <v>-4.0404099272564001E-3</v>
       </c>
-      <c r="DG12">
+      <c r="DH12">
         <v>-7.6809899182990098E-3</v>
       </c>
-      <c r="DH12">
+      <c r="DI12">
         <v>-5.4749071132391596E-3</v>
       </c>
-      <c r="DI12">
+      <c r="DJ12">
         <f>CU12-CY12</f>
         <v>-4.6165993087925017E-2</v>
       </c>
+      <c r="DK12">
+        <f>((CW12-CU12)/CU12)*100</f>
+        <v>12.015469211177084</v>
+      </c>
     </row>
-    <row r="13" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -5737,32 +5827,39 @@
         <v>-3.2821400000102502E-2</v>
       </c>
       <c r="DB13" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC13">
+        <v>154</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD13">
         <v>2.9919088934548199E-2</v>
       </c>
-      <c r="DD13">
+      <c r="DE13">
         <v>-1.6865344427060301E-2</v>
       </c>
-      <c r="DE13">
+      <c r="DF13">
         <v>1.5005051856860499E-2</v>
       </c>
-      <c r="DF13">
+      <c r="DG13">
         <v>-6.4615916926413699E-4</v>
       </c>
-      <c r="DG13">
+      <c r="DH13">
         <v>-4.7430592530872603E-2</v>
       </c>
-      <c r="DH13">
+      <c r="DI13">
         <v>-3.1870396283920799E-2</v>
       </c>
-      <c r="DI13">
+      <c r="DJ13">
         <f>CU13-CY13</f>
         <v>-1.7598600003112003E-2</v>
       </c>
+      <c r="DK13">
+        <f>((CW13-CU13)/CU13)*100</f>
+        <v>13.650574343681157</v>
+      </c>
     </row>
-    <row r="14" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -6097,32 +6194,39 @@
         <v>-2.7202937097172201E-2</v>
       </c>
       <c r="DB14" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC14">
+        <v>154</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD14">
         <v>4.2111438873689601E-2</v>
       </c>
-      <c r="DD14">
+      <c r="DE14">
         <v>-7.2540089604444802E-3</v>
       </c>
-      <c r="DE14">
+      <c r="DF14">
         <v>8.4970466210506801E-2</v>
       </c>
-      <c r="DF14">
+      <c r="DG14">
         <v>8.0505915102548897E-2</v>
       </c>
-      <c r="DG14">
+      <c r="DH14">
         <v>3.1140467268414702E-2</v>
       </c>
-      <c r="DH14">
+      <c r="DI14">
         <v>-9.2224475170951295E-2</v>
       </c>
-      <c r="DI14">
+      <c r="DJ14">
         <f>CU14-CY14</f>
         <v>-7.6408453987829861E-3</v>
       </c>
+      <c r="DK14">
+        <f>((CW14-CU14)/CU14)*100</f>
+        <v>11.501849454453767</v>
+      </c>
     </row>
-    <row r="15" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -6457,32 +6561,39 @@
         <v>-2.6762782828882298E-2</v>
       </c>
       <c r="DB15" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC15">
+        <v>154</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD15">
         <v>-3.5798626782707198E-2</v>
       </c>
-      <c r="DD15">
+      <c r="DE15">
         <v>1.24431913391163E-2</v>
       </c>
-      <c r="DE15">
+      <c r="DF15">
         <v>5.5574758011061903E-2</v>
       </c>
-      <c r="DF15">
+      <c r="DG15">
         <v>-2.6657318678189702E-2</v>
       </c>
-      <c r="DG15">
+      <c r="DH15">
         <v>2.15844994436338E-2</v>
       </c>
-      <c r="DH15">
+      <c r="DI15">
         <v>-4.31315666719456E-2</v>
       </c>
-      <c r="DI15">
+      <c r="DJ15">
         <f>CU15-CY15</f>
         <v>8.494502911344104E-2</v>
       </c>
+      <c r="DK15">
+        <f>((CW15-CU15)/CU15)*100</f>
+        <v>6.5666344357256756</v>
+      </c>
     </row>
-    <row r="16" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -6817,32 +6928,39 @@
         <v>-2.6752384321298402E-2</v>
       </c>
       <c r="DB16" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC16">
+        <v>154</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>154</v>
+      </c>
+      <c r="DD16">
         <v>6.2691368275409297E-3</v>
       </c>
-      <c r="DD16">
+      <c r="DE16">
         <v>-6.4322989082938797E-3</v>
       </c>
-      <c r="DE16">
+      <c r="DF16">
         <v>-2.01993445152766E-2</v>
       </c>
-      <c r="DF16">
+      <c r="DG16">
         <v>-1.2112331582102299E-2</v>
       </c>
-      <c r="DG16">
+      <c r="DH16">
         <v>-2.4813767317937101E-2</v>
       </c>
-      <c r="DH16">
+      <c r="DI16">
         <v>1.3767045606982701E-2</v>
       </c>
-      <c r="DI16">
+      <c r="DJ16">
         <f>CU16-CY16</f>
         <v>-2.9366146191029951E-3</v>
       </c>
+      <c r="DK16">
+        <f>((CW16-CU16)/CU16)*100</f>
+        <v>8.7587918713223321</v>
+      </c>
     </row>
-    <row r="17" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
@@ -7177,32 +7295,39 @@
         <v>-2.3400558333378198E-2</v>
       </c>
       <c r="DB17" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC17">
+        <v>154</v>
+      </c>
+      <c r="DC17" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD17">
         <v>-3.4930104171507902E-2</v>
       </c>
-      <c r="DD17">
+      <c r="DE17">
         <v>1.10884236200945E-2</v>
       </c>
-      <c r="DE17">
+      <c r="DF17">
         <v>-3.0989143429906101E-2</v>
       </c>
-      <c r="DF17">
+      <c r="DG17">
         <v>-4.6165993087925003E-2</v>
       </c>
-      <c r="DG17">
+      <c r="DH17">
         <v>-1.47465296322479E-4</v>
       </c>
-      <c r="DH17">
+      <c r="DI17">
         <v>4.2077567050000597E-2</v>
       </c>
-      <c r="DI17">
+      <c r="DJ17">
         <f>CU17-CY17</f>
         <v>-4.0481117321200522E-4</v>
       </c>
+      <c r="DK17">
+        <f>((CW17-CU17)/CU17)*100</f>
+        <v>8.6200598342233405</v>
+      </c>
     </row>
-    <row r="18" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -7537,32 +7662,39 @@
         <v>-2.2780944127589398E-2</v>
       </c>
       <c r="DB18" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC18">
+        <v>154</v>
+      </c>
+      <c r="DC18" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD18">
         <v>-2.83212094800546E-2</v>
       </c>
-      <c r="DD18">
+      <c r="DE18">
         <v>-2.7058470877818701E-2</v>
       </c>
-      <c r="DE18">
+      <c r="DF18">
         <v>-4.5705526135861797E-2</v>
       </c>
-      <c r="DF18">
+      <c r="DG18">
         <v>-1.6260741744190399E-2</v>
       </c>
-      <c r="DG18">
+      <c r="DH18">
         <v>-1.49980031419545E-2</v>
       </c>
-      <c r="DH18">
+      <c r="DI18">
         <v>1.86470552580431E-2</v>
       </c>
-      <c r="DI18">
+      <c r="DJ18">
         <f>CU18-CY18</f>
         <v>3.7174064782448002E-2</v>
       </c>
+      <c r="DK18">
+        <f>((CW18-CU18)/CU18)*100</f>
+        <v>6.7329983954492159</v>
+      </c>
     </row>
-    <row r="19" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -7897,32 +8029,39 @@
         <v>-1.9896449986845199E-2</v>
       </c>
       <c r="DB19" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC19">
+        <v>154</v>
+      </c>
+      <c r="DC19" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD19">
         <v>-1.2799153337255099E-2</v>
       </c>
-      <c r="DD19">
+      <c r="DE19">
         <v>5.6246662279590904E-3</v>
       </c>
-      <c r="DE19">
+      <c r="DF19">
         <v>2.3734838468953902E-3</v>
       </c>
-      <c r="DF19">
+      <c r="DG19">
         <v>-2.0272345282137299E-3</v>
       </c>
-      <c r="DG19">
+      <c r="DH19">
         <v>1.6396585037000401E-2</v>
       </c>
-      <c r="DH19">
+      <c r="DI19">
         <v>3.2511823810636902E-3</v>
       </c>
-      <c r="DI19">
+      <c r="DJ19">
         <f>CU19-CY19</f>
         <v>6.3898500520739865E-3</v>
       </c>
+      <c r="DK19">
+        <f>((CW19-CU19)/CU19)*100</f>
+        <v>5.6269919779363349</v>
+      </c>
     </row>
-    <row r="20" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -8257,32 +8396,39 @@
         <v>-1.8544630490396199E-2</v>
       </c>
       <c r="DB20" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC20">
+        <v>154</v>
+      </c>
+      <c r="DC20" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD20">
         <v>-2.4216965413870601E-2</v>
       </c>
-      <c r="DD20">
+      <c r="DE20">
         <v>-1.9562091698389801E-2</v>
       </c>
-      <c r="DE20">
+      <c r="DF20">
         <v>-8.7017762489267608E-3</v>
       </c>
-      <c r="DF20">
+      <c r="DG20">
         <v>-7.6408453987823997E-3</v>
       </c>
-      <c r="DG20">
+      <c r="DH20">
         <v>-2.9859716833016102E-3</v>
       </c>
-      <c r="DH20">
+      <c r="DI20">
         <v>-1.0860315449463E-2</v>
       </c>
-      <c r="DI20">
+      <c r="DJ20">
         <f>CU20-CY20</f>
         <v>-1.2112331582102009E-2</v>
       </c>
+      <c r="DK20">
+        <f>((CW20-CU20)/CU20)*100</f>
+        <v>6.8763341150044566</v>
+      </c>
     </row>
-    <row r="21" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -8617,32 +8763,39 @@
         <v>-1.7731455503962899E-2</v>
       </c>
       <c r="DB21" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC21">
+        <v>154</v>
+      </c>
+      <c r="DC21" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD21">
         <v>8.0859563677222399E-3</v>
       </c>
-      <c r="DD21">
+      <c r="DE21">
         <v>5.7819146240944896E-3</v>
       </c>
-      <c r="DE21">
+      <c r="DF21">
         <v>-5.3491804428631396E-3</v>
       </c>
-      <c r="DF21">
+      <c r="DG21">
         <v>-1.92775767936836E-3</v>
       </c>
-      <c r="DG21">
+      <c r="DH21">
         <v>-4.23179942299611E-3</v>
       </c>
-      <c r="DH21">
+      <c r="DI21">
         <v>1.11310950669576E-2</v>
       </c>
-      <c r="DI21">
+      <c r="DJ21">
         <f>CU21-CY21</f>
         <v>-3.2554207427893E-2</v>
       </c>
+      <c r="DK21">
+        <f>((CW21-CU21)/CU21)*100</f>
+        <v>5.0216637954362504</v>
+      </c>
     </row>
-    <row r="22" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -8977,32 +9130,39 @@
         <v>-1.7511503596324401E-2</v>
       </c>
       <c r="DB22" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC22">
+        <v>154</v>
+      </c>
+      <c r="DC22" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD22">
         <v>8.2142521860077908E-3</v>
       </c>
-      <c r="DD22">
+      <c r="DE22">
         <v>2.1662067680153899E-2</v>
       </c>
-      <c r="DE22">
+      <c r="DF22">
         <v>7.5217568082734899E-3</v>
       </c>
-      <c r="DF22">
+      <c r="DG22">
         <v>-1.54311176738701E-2</v>
       </c>
-      <c r="DG22">
+      <c r="DH22">
         <v>-1.9833021797239698E-3</v>
       </c>
-      <c r="DH22">
+      <c r="DI22">
         <v>1.41403108718805E-2</v>
       </c>
-      <c r="DI22">
+      <c r="DJ22">
         <f>CU22-CY22</f>
         <v>-6.4615916926402672E-4</v>
       </c>
+      <c r="DK22">
+        <f>((CW22-CU22)/CU22)*100</f>
+        <v>5.8697255634242431</v>
+      </c>
     </row>
-    <row r="23" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
@@ -9337,32 +9497,39 @@
         <v>-1.70621656197909E-2</v>
       </c>
       <c r="DB23" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC23">
+        <v>154</v>
+      </c>
+      <c r="DC23" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD23">
         <v>9.6614288777345791E-3</v>
       </c>
-      <c r="DD23">
+      <c r="DE23">
         <v>3.1920902164529197E-2</v>
       </c>
-      <c r="DE23">
+      <c r="DF23">
         <v>3.5264441805338699E-2</v>
       </c>
-      <c r="DF23">
+      <c r="DG23">
         <v>3.1233236636580802E-3</v>
       </c>
-      <c r="DG23">
+      <c r="DH23">
         <v>2.5382796950452698E-2</v>
       </c>
-      <c r="DH23">
+      <c r="DI23">
         <v>-3.3435396408094602E-3</v>
       </c>
-      <c r="DI23">
+      <c r="DJ23">
         <f>CU23-CY23</f>
         <v>1.7301852794839867E-3</v>
       </c>
+      <c r="DK23">
+        <f>((CW23-CU23)/CU23)*100</f>
+        <v>6.3084606325579706</v>
+      </c>
     </row>
-    <row r="24" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -9697,32 +9864,39 @@
         <v>-1.49652045220136E-2</v>
       </c>
       <c r="DB24" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC24">
+        <v>154</v>
+      </c>
+      <c r="DC24" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD24">
         <v>1.9478247559163699E-2</v>
       </c>
-      <c r="DD24">
+      <c r="DE24">
         <v>3.3975277736317297E-2</v>
       </c>
-      <c r="DE24">
+      <c r="DF24">
         <v>9.1597527498379298E-3</v>
       </c>
-      <c r="DF24">
+      <c r="DG24">
         <v>4.2992998933186699E-2</v>
       </c>
-      <c r="DG24">
+      <c r="DH24">
         <v>5.7490029110340402E-2</v>
       </c>
-      <c r="DH24">
+      <c r="DI24">
         <v>2.48155249864794E-2</v>
       </c>
-      <c r="DI24">
+      <c r="DJ24">
         <f>CU24-CY24</f>
         <v>-1.8970003176945971E-2</v>
       </c>
+      <c r="DK24">
+        <f>((CW24-CU24)/CU24)*100</f>
+        <v>5.3386625062221613</v>
+      </c>
     </row>
-    <row r="25" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -10057,32 +10231,39 @@
         <v>-1.4804399979766399E-2</v>
       </c>
       <c r="DB25" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC25">
+        <v>155</v>
+      </c>
+      <c r="DC25" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD25">
         <v>4.6772684203460799E-2</v>
       </c>
-      <c r="DD25">
+      <c r="DE25">
         <v>5.3103548241779201E-2</v>
       </c>
-      <c r="DE25">
+      <c r="DF25">
         <v>4.23261064570397E-2</v>
       </c>
-      <c r="DF25">
+      <c r="DG25">
         <v>1.17238111561164E-2</v>
       </c>
-      <c r="DG25">
+      <c r="DH25">
         <v>1.8054675194434801E-2</v>
       </c>
-      <c r="DH25">
+      <c r="DI25">
         <v>1.0777441784739401E-2</v>
       </c>
-      <c r="DI25">
+      <c r="DJ25">
         <f>CU25-CY25</f>
         <v>1.0874099971260986E-2</v>
       </c>
+      <c r="DK25">
+        <f>((CW25-CU25)/CU25)*100</f>
+        <v>5.8825609588021823</v>
+      </c>
     </row>
-    <row r="26" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
@@ -10417,32 +10598,39 @@
         <v>-1.46294998703524E-2</v>
       </c>
       <c r="DB26" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC26">
+        <v>155</v>
+      </c>
+      <c r="DC26" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD26">
         <v>1.5523249749094199E-2</v>
       </c>
-      <c r="DD26">
+      <c r="DE26">
         <v>1.48227519239299E-2</v>
       </c>
-      <c r="DE26">
+      <c r="DF26">
         <v>1.8730506650172101E-2</v>
       </c>
-      <c r="DF26">
+      <c r="DG26">
         <v>-3.2554207427892799E-2</v>
       </c>
-      <c r="DG26">
+      <c r="DH26">
         <v>-3.3254705253057099E-2</v>
       </c>
-      <c r="DH26">
+      <c r="DI26">
         <v>-3.9077547262422697E-3</v>
       </c>
-      <c r="DI26">
+      <c r="DJ26">
         <f>CU26-CY26</f>
         <v>-7.1765678003429811E-3</v>
       </c>
+      <c r="DK26">
+        <f>((CW26-CU26)/CU26)*100</f>
+        <v>5.4116512599106885</v>
+      </c>
     </row>
-    <row r="27" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
@@ -10777,32 +10965,39 @@
         <v>-1.42141273390734E-2</v>
       </c>
       <c r="DB27" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC27">
+        <v>155</v>
+      </c>
+      <c r="DC27" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD27">
         <v>1.8741021223831901E-2</v>
       </c>
-      <c r="DD27">
+      <c r="DE27">
         <v>-7.4778433190658602E-3</v>
       </c>
-      <c r="DE27">
+      <c r="DF27">
         <v>1.64108647149987E-2</v>
       </c>
-      <c r="DF27">
+      <c r="DG27">
         <v>8.9455491397529806E-3</v>
       </c>
-      <c r="DG27">
+      <c r="DH27">
         <v>-1.72733154031448E-2</v>
       </c>
-      <c r="DH27">
+      <c r="DI27">
         <v>-2.38887080340646E-2</v>
       </c>
-      <c r="DI27">
+      <c r="DJ27">
         <f>CU27-CY27</f>
         <v>-2.665731867818899E-2</v>
       </c>
+      <c r="DK27">
+        <f>((CW27-CU27)/CU27)*100</f>
+        <v>5.0976932009146187</v>
+      </c>
     </row>
-    <row r="28" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -11137,32 +11332,39 @@
         <v>-1.1908287357073199E-2</v>
       </c>
       <c r="DB28" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC28">
+        <v>155</v>
+      </c>
+      <c r="DC28" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD28">
         <v>1.7411787179298699E-2</v>
       </c>
-      <c r="DD28">
+      <c r="DE28">
         <v>8.5400140960700799E-4</v>
       </c>
-      <c r="DE28">
+      <c r="DF28">
         <v>-5.3481497074244502E-2</v>
       </c>
-      <c r="DF28">
+      <c r="DG28">
         <v>-4.1779354796744802E-4</v>
       </c>
-      <c r="DG28">
+      <c r="DH28">
         <v>-1.6975579317659101E-2</v>
       </c>
-      <c r="DH28">
+      <c r="DI28">
         <v>5.4335498483851503E-2</v>
       </c>
-      <c r="DI28">
+      <c r="DJ28">
         <f>CU28-CY28</f>
         <v>-2.8225127607600653E-4</v>
       </c>
+      <c r="DK28">
+        <f>((CW28-CU28)/CU28)*100</f>
+        <v>4.1814779245239455</v>
+      </c>
     </row>
-    <row r="29" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -11497,32 +11699,39 @@
         <v>-9.8830033093690803E-3</v>
       </c>
       <c r="DB29" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC29">
+        <v>155</v>
+      </c>
+      <c r="DC29" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD29">
         <v>-5.2535999966494204E-3</v>
       </c>
-      <c r="DD29">
+      <c r="DE29">
         <v>-1.52227999969909E-2</v>
       </c>
-      <c r="DE29">
+      <c r="DF29">
         <v>1.5612900002451999E-2</v>
       </c>
-      <c r="DF29">
+      <c r="DG29">
         <v>-1.75986000031116E-2</v>
       </c>
-      <c r="DG29">
+      <c r="DH29">
         <v>-2.7567800003453099E-2</v>
       </c>
-      <c r="DH29">
+      <c r="DI29">
         <v>-3.0835699999443002E-2</v>
       </c>
-      <c r="DI29">
+      <c r="DJ29">
         <f>CU29-CY29</f>
         <v>-3.5533410264180221E-3</v>
       </c>
+      <c r="DK29">
+        <f>((CW29-CU29)/CU29)*100</f>
+        <v>3.9597529863957632</v>
+      </c>
     </row>
-    <row r="30" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
@@ -11857,32 +12066,39 @@
         <v>-8.6400000072899205E-3</v>
       </c>
       <c r="DB30" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC30">
+        <v>155</v>
+      </c>
+      <c r="DC30" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD30">
         <v>-1.97798926965333E-2</v>
       </c>
-      <c r="DD30">
+      <c r="DE30">
         <v>-1.6689624055288701E-2</v>
       </c>
-      <c r="DE30">
+      <c r="DF30">
         <v>-1.00085822341497E-2</v>
       </c>
-      <c r="DF30">
+      <c r="DG30">
         <v>2.25275360571686E-2</v>
       </c>
-      <c r="DG30">
+      <c r="DH30">
         <v>2.56178046984132E-2</v>
       </c>
-      <c r="DH30">
+      <c r="DI30">
         <v>-6.6810418211389298E-3</v>
       </c>
-      <c r="DI30">
+      <c r="DJ30">
         <f>CU30-CY30</f>
         <v>1.3752999948339895E-3</v>
       </c>
+      <c r="DK30">
+        <f>((CW30-CU30)/CU30)*100</f>
+        <v>3.2740629443776896</v>
+      </c>
     </row>
-    <row r="31" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -12217,32 +12433,39 @@
         <v>-8.5677397437393596E-3</v>
       </c>
       <c r="DB31" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC31">
+        <v>155</v>
+      </c>
+      <c r="DC31" t="s">
+        <v>207</v>
+      </c>
+      <c r="DD31">
         <v>-8.03946796804666E-3</v>
       </c>
-      <c r="DD31">
+      <c r="DE31">
         <v>-6.3296622829511701E-3</v>
       </c>
-      <c r="DE31">
+      <c r="DF31">
         <v>-2.1715800859965301E-2</v>
       </c>
-      <c r="DF31">
+      <c r="DG31">
         <v>-3.5533410264179102E-3</v>
       </c>
-      <c r="DG31">
+      <c r="DH31">
         <v>-1.8435353413224201E-3</v>
       </c>
-      <c r="DH31">
+      <c r="DI31">
         <v>1.5386138577014199E-2</v>
       </c>
-      <c r="DI31">
+      <c r="DJ31">
         <f>CU31-CY31</f>
         <v>-4.0404099272560168E-3</v>
       </c>
+      <c r="DK31">
+        <f>((CW31-CU31)/CU31)*100</f>
+        <v>3.4904434853992772</v>
+      </c>
     </row>
-    <row r="32" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
@@ -12577,32 +12800,39 @@
         <v>-9.1619975864887205E-4</v>
       </c>
       <c r="DB32" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC32">
+        <v>155</v>
+      </c>
+      <c r="DC32" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD32">
         <v>-1.49743710644543E-2</v>
       </c>
-      <c r="DD32">
+      <c r="DE32">
         <v>-0.111707811942324</v>
       </c>
-      <c r="DE32">
+      <c r="DF32">
         <v>-6.0706199845299097E-2</v>
       </c>
-      <c r="DF32">
+      <c r="DG32">
         <v>8.4945029113441706E-2</v>
       </c>
-      <c r="DG32">
+      <c r="DH32">
         <v>-1.1788411764428E-2</v>
       </c>
-      <c r="DH32">
+      <c r="DI32">
         <v>-5.1001612097024897E-2</v>
       </c>
-      <c r="DI32">
+      <c r="DJ32">
         <f>CU32-CY32</f>
         <v>2.1195899695158005E-2</v>
       </c>
+      <c r="DK32">
+        <f>((CW32-CU32)/CU32)*100</f>
+        <v>0.30674479103695773</v>
+      </c>
     </row>
-    <row r="33" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
@@ -12937,32 +13167,39 @@
         <v>4.36207861639559E-4</v>
       </c>
       <c r="DB33" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC33">
+        <v>155</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD33">
         <v>-3.5793193412246099E-2</v>
       </c>
-      <c r="DD33">
+      <c r="DE33">
         <v>-6.5437516474048593E-2</v>
       </c>
-      <c r="DE33">
+      <c r="DF33">
         <v>-5.7254619503510101E-2</v>
       </c>
-      <c r="DF33">
+      <c r="DG33">
         <v>1.00231205287855E-2</v>
       </c>
-      <c r="DG33">
+      <c r="DH33">
         <v>-1.9621202533016899E-2</v>
       </c>
-      <c r="DH33">
+      <c r="DI33">
         <v>-8.1828969705384207E-3</v>
       </c>
-      <c r="DI33">
+      <c r="DJ33">
         <f>CU33-CY33</f>
         <v>-4.1779354796794843E-4</v>
       </c>
+      <c r="DK33">
+        <f>((CW33-CU33)/CU33)*100</f>
+        <v>-0.14043265374919442</v>
+      </c>
     </row>
-    <row r="34" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
@@ -13297,32 +13534,39 @@
         <v>1.46770582068711E-3</v>
       </c>
       <c r="DB34" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC34">
+        <v>155</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD34">
         <v>-4.4672297779470599E-2</v>
       </c>
-      <c r="DD34">
+      <c r="DE34">
         <v>-4.11077875032788E-2</v>
       </c>
-      <c r="DE34">
+      <c r="DF34">
         <v>-9.9419740698067402E-2</v>
       </c>
-      <c r="DF34">
+      <c r="DG34">
         <v>-2.23971271334448E-2</v>
       </c>
-      <c r="DG34">
+      <c r="DH34">
         <v>-1.8832616857253001E-2</v>
       </c>
-      <c r="DH34">
+      <c r="DI34">
         <v>5.8311953194788602E-2</v>
       </c>
-      <c r="DI34">
+      <c r="DJ34">
         <f>CU34-CY34</f>
         <v>8.945549139752984E-3</v>
       </c>
+      <c r="DK34">
+        <f>((CW34-CU34)/CU34)*100</f>
+        <v>-0.47424801063530675</v>
+      </c>
     </row>
-    <row r="35" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -13657,32 +13901,39 @@
         <v>2.90569999197032E-3</v>
       </c>
       <c r="DB35" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC35">
+        <v>155</v>
+      </c>
+      <c r="DC35" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD35">
         <v>-6.0921791708096799E-2</v>
       </c>
-      <c r="DD35">
+      <c r="DE35">
         <v>-9.4863428967073508E-3</v>
       </c>
-      <c r="DE35">
+      <c r="DF35">
         <v>-3.01781923044472E-2</v>
       </c>
-      <c r="DF35">
+      <c r="DG35">
         <v>-4.1412376682274002E-2</v>
       </c>
-      <c r="DG35">
+      <c r="DH35">
         <v>1.00230721291154E-2</v>
       </c>
-      <c r="DH35">
+      <c r="DI35">
         <v>2.0691849407739899E-2</v>
       </c>
-      <c r="DI35">
+      <c r="DJ35">
         <f>CU35-CY35</f>
         <v>-7.1944000083020154E-3</v>
       </c>
+      <c r="DK35">
+        <f>((CW35-CU35)/CU35)*100</f>
+        <v>-0.90475997471162817</v>
+      </c>
     </row>
-    <row r="36" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -14017,32 +14268,39 @@
         <v>3.5974316997453501E-3</v>
       </c>
       <c r="DB36" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC36">
+        <v>155</v>
+      </c>
+      <c r="DC36" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD36">
         <v>3.12500000291038E-3</v>
       </c>
-      <c r="DD36">
+      <c r="DE36">
         <v>1.01001000002725E-2</v>
       </c>
-      <c r="DE36">
+      <c r="DF36">
         <v>2.1102499988046398E-2</v>
       </c>
-      <c r="DF36">
+      <c r="DG36">
         <v>-7.1944000083021802E-3</v>
       </c>
-      <c r="DG36">
+      <c r="DH36">
         <v>-2.1930001094005999E-4</v>
       </c>
-      <c r="DH36">
+      <c r="DI36">
         <v>-1.10023999877739E-2</v>
       </c>
-      <c r="DI36">
+      <c r="DJ36">
         <f>CU36-CY36</f>
         <v>-2.0272345282139614E-3</v>
       </c>
+      <c r="DK36">
+        <f>((CW36-CU36)/CU36)*100</f>
+        <v>-1.1719300994856181</v>
+      </c>
     </row>
-    <row r="37" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
@@ -14377,32 +14635,39 @@
         <v>3.8541569447261199E-3</v>
       </c>
       <c r="DB37" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC37">
+        <v>155</v>
+      </c>
+      <c r="DC37" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD37">
         <v>2.0173534401692401E-2</v>
       </c>
-      <c r="DD37">
+      <c r="DE37">
         <v>1.10234775056596E-2</v>
       </c>
-      <c r="DE37">
+      <c r="DF37">
         <v>-4.8836930654942903E-3</v>
       </c>
-      <c r="DF37">
+      <c r="DG37">
         <v>-6.1559346358990297E-3</v>
       </c>
-      <c r="DG37">
+      <c r="DH37">
         <v>-1.53059915319317E-2</v>
       </c>
-      <c r="DH37">
+      <c r="DI37">
         <v>1.59071705711539E-2</v>
       </c>
-      <c r="DI37">
+      <c r="DJ37">
         <f>CU37-CY37</f>
         <v>-1.9277576793690354E-3</v>
       </c>
+      <c r="DK37">
+        <f>((CW37-CU37)/CU37)*100</f>
+        <v>-1.2355858382006983</v>
+      </c>
     </row>
-    <row r="38" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
@@ -14737,32 +15002,39 @@
         <v>4.8675428697606497E-3</v>
       </c>
       <c r="DB38" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC38">
+        <v>155</v>
+      </c>
+      <c r="DC38" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD38">
         <v>-0.119005200045648</v>
       </c>
-      <c r="DD38">
+      <c r="DE38">
         <v>-9.4751600001472897E-2</v>
       </c>
-      <c r="DE38">
+      <c r="DF38">
         <v>-0.10928370000328801</v>
       </c>
-      <c r="DF38">
+      <c r="DG38">
         <v>-1.25930000212974E-2</v>
       </c>
-      <c r="DG38">
+      <c r="DH38">
         <v>1.1660600022878401E-2</v>
       </c>
-      <c r="DH38">
+      <c r="DI38">
         <v>1.45321000018157E-2</v>
       </c>
-      <c r="DI38">
+      <c r="DJ38">
         <f>CU38-CY38</f>
         <v>-6.1559346358989742E-3</v>
       </c>
+      <c r="DK38">
+        <f>((CW38-CU38)/CU38)*100</f>
+        <v>-1.4711390034728571</v>
+      </c>
     </row>
-    <row r="39" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -15097,32 +15369,39 @@
         <v>5.8379120018798797E-3</v>
       </c>
       <c r="DB39" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC39">
+        <v>155</v>
+      </c>
+      <c r="DC39" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD39">
         <v>-1.63951474823988E-2</v>
       </c>
-      <c r="DD39">
+      <c r="DE39">
         <v>-7.9860369442030701E-4</v>
       </c>
-      <c r="DE39">
+      <c r="DF39">
         <v>2.2472746204584799E-2</v>
       </c>
-      <c r="DF39">
+      <c r="DG39">
         <v>1.2935537844896299E-2</v>
       </c>
-      <c r="DG39">
+      <c r="DH39">
         <v>2.8532081632874899E-2</v>
       </c>
-      <c r="DH39">
+      <c r="DI39">
         <v>-2.32713498990051E-2</v>
       </c>
-      <c r="DI39">
+      <c r="DJ39">
         <f>CU39-CY39</f>
         <v>2.2527536057169006E-2</v>
       </c>
+      <c r="DK39">
+        <f>((CW39-CU39)/CU39)*100</f>
+        <v>-1.9346235549349606</v>
+      </c>
     </row>
-    <row r="40" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -15457,32 +15736,39 @@
         <v>6.2309500062838197E-3</v>
       </c>
       <c r="DB40" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC40">
+        <v>155</v>
+      </c>
+      <c r="DC40" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD40">
         <v>-1.3836700003594099E-2</v>
       </c>
-      <c r="DD40">
+      <c r="DE40">
         <v>-1.0015300002123599E-2</v>
       </c>
-      <c r="DE40">
+      <c r="DF40">
         <v>-1.5543000044999601E-3</v>
       </c>
-      <c r="DF40">
+      <c r="DG40">
         <v>1.37529999483376E-3</v>
       </c>
-      <c r="DG40">
+      <c r="DH40">
         <v>5.19669999630423E-3</v>
       </c>
-      <c r="DH40">
+      <c r="DI40">
         <v>-8.4609999976237305E-3</v>
       </c>
-      <c r="DI40">
+      <c r="DJ40">
         <f>CU40-CY40</f>
         <v>-1.543111767387001E-2</v>
       </c>
+      <c r="DK40">
+        <f>((CW40-CU40)/CU40)*100</f>
+        <v>-2.249879298736337</v>
+      </c>
     </row>
-    <row r="41" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
@@ -15817,32 +16103,39 @@
         <v>1.2136934150476E-2</v>
       </c>
       <c r="DB41" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC41">
+        <v>155</v>
+      </c>
+      <c r="DC41" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD41">
         <v>-0.11602759995730499</v>
       </c>
-      <c r="DD41">
+      <c r="DE41">
         <v>-7.9127300006803097E-2</v>
       </c>
-      <c r="DE41">
+      <c r="DF41">
         <v>1.23130999854765E-2</v>
       </c>
-      <c r="DF41">
+      <c r="DG41">
         <v>-6.7212299967650296E-2</v>
       </c>
-      <c r="DG41">
+      <c r="DH41">
         <v>-3.0312000017147501E-2</v>
       </c>
-      <c r="DH41">
+      <c r="DI41">
         <v>-9.1440399992279695E-2</v>
       </c>
-      <c r="DI41">
+      <c r="DJ41">
         <f>CU41-CY41</f>
         <v>1.2935537844896983E-2</v>
       </c>
+      <c r="DK41">
+        <f>((CW41-CU41)/CU41)*100</f>
+        <v>-4.0675381885920059</v>
+      </c>
     </row>
-    <row r="42" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
@@ -16177,32 +16470,39 @@
         <v>2.07562929717823E-2</v>
       </c>
       <c r="DB42" t="s">
-        <v>205</v>
-      </c>
-      <c r="DC42">
+        <v>155</v>
+      </c>
+      <c r="DC42" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD42">
         <v>-0.18023115000687501</v>
       </c>
-      <c r="DD42">
+      <c r="DE42">
         <v>-0.18237645016051801</v>
       </c>
-      <c r="DE42">
+      <c r="DF42">
         <v>-0.19274635007604901</v>
       </c>
-      <c r="DF42">
+      <c r="DG42">
         <v>-7.2201899951323797E-2</v>
       </c>
-      <c r="DG42">
+      <c r="DH42">
         <v>-7.4347200104966704E-2</v>
       </c>
-      <c r="DH42">
+      <c r="DI42">
         <v>1.03698999155312E-2</v>
       </c>
-      <c r="DI42">
+      <c r="DJ42">
         <f>CU42-CY42</f>
         <v>4.0549613069743029E-2</v>
       </c>
+      <c r="DK42">
+        <f>((CW42-CU42)/CU42)*100</f>
+        <v>-6.0429422073569805</v>
+      </c>
     </row>
-    <row r="43" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
@@ -16537,32 +16837,39 @@
         <v>3.5044225828187302E-2</v>
       </c>
       <c r="DB43" t="s">
-        <v>207</v>
-      </c>
-      <c r="DC43">
+        <v>155</v>
+      </c>
+      <c r="DC43" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD43">
         <v>-5.0415999721735699E-3</v>
       </c>
-      <c r="DD43">
+      <c r="DE43">
         <v>-2.5678499951027299E-2</v>
       </c>
-      <c r="DE43">
+      <c r="DF43">
         <v>-1.58514999784529E-2</v>
       </c>
-      <c r="DF43">
+      <c r="DG43">
         <v>1.0874099971260799E-2</v>
       </c>
-      <c r="DG43">
+      <c r="DH43">
         <v>-9.7628000075928797E-3</v>
       </c>
-      <c r="DH43">
+      <c r="DI43">
         <v>-9.8269999725744094E-3</v>
       </c>
-      <c r="DI43">
+      <c r="DJ43">
         <f>CU43-CY43</f>
         <v>3.1233236636579731E-3</v>
       </c>
+      <c r="DK43">
+        <f>((CW43-CU43)/CU43)*100</f>
+        <v>-11.071131059747085</v>
+      </c>
     </row>
-    <row r="44" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
@@ -16897,32 +17204,39 @@
         <v>5.40236873202957E-2</v>
       </c>
       <c r="DB44" t="s">
-        <v>207</v>
-      </c>
-      <c r="DC44">
+        <v>155</v>
+      </c>
+      <c r="DC44" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD44">
         <v>-8.8969799922779202E-2</v>
       </c>
-      <c r="DD44">
+      <c r="DE44">
         <v>-0.11786190001294</v>
       </c>
-      <c r="DE44">
+      <c r="DF44">
         <v>-5.7088499888777698E-2</v>
       </c>
-      <c r="DF44">
+      <c r="DG44">
         <v>-1.73576998058706E-2</v>
       </c>
-      <c r="DG44">
+      <c r="DH44">
         <v>-4.6249799896031597E-2</v>
       </c>
-      <c r="DH44">
+      <c r="DI44">
         <v>-6.0773400124162401E-2</v>
       </c>
-      <c r="DI44">
+      <c r="DJ44">
         <f>CU44-CY44</f>
         <v>6.8547371934983004E-2</v>
       </c>
+      <c r="DK44">
+        <f>((CW44-CU44)/CU44)*100</f>
+        <v>-14.324683868942911</v>
+      </c>
     </row>
-    <row r="45" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -17257,32 +17571,39 @@
         <v>6.4827359397895606E-2</v>
       </c>
       <c r="DB45" t="s">
-        <v>207</v>
-      </c>
-      <c r="DC45">
+        <v>155</v>
+      </c>
+      <c r="DC45" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD45">
         <v>-1.5547099988907499E-2</v>
       </c>
-      <c r="DD45">
+      <c r="DE45">
         <v>-4.81179000344127E-2</v>
       </c>
-      <c r="DE45">
+      <c r="DF45">
         <v>5.6025799945928101E-2</v>
       </c>
-      <c r="DF45">
+      <c r="DG45">
         <v>-3.0303999083116599E-3</v>
       </c>
-      <c r="DG45">
+      <c r="DH45">
         <v>-3.5601199953816803E-2</v>
       </c>
-      <c r="DH45">
+      <c r="DI45">
         <v>-0.10414369998034</v>
       </c>
-      <c r="DI45">
+      <c r="DJ45">
         <f>CU45-CY45</f>
         <v>1.1723811156117037E-2</v>
       </c>
+      <c r="DK45">
+        <f>((CW45-CU45)/CU45)*100</f>
+        <v>-19.384938430286315</v>
+      </c>
     </row>
-    <row r="46" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -17617,32 +17938,39 @@
         <v>7.3251906142104403E-2</v>
       </c>
       <c r="DB46" t="s">
-        <v>207</v>
-      </c>
-      <c r="DC46">
+        <v>155</v>
+      </c>
+      <c r="DC46" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD46">
         <v>-2.7425399515777799E-2</v>
       </c>
-      <c r="DD46">
+      <c r="DE46">
         <v>-2.2112099453806801E-2</v>
       </c>
-      <c r="DE46">
+      <c r="DF46">
         <v>2.7295006439089701E-3</v>
       </c>
-      <c r="DF46">
+      <c r="DG46">
         <v>2.1195899695158001E-2</v>
       </c>
-      <c r="DG46">
+      <c r="DH46">
         <v>2.6509199757128898E-2</v>
       </c>
-      <c r="DH46">
+      <c r="DI46">
         <v>-2.4841600097715799E-2</v>
       </c>
-      <c r="DI46">
+      <c r="DJ46">
         <f>CU46-CY46</f>
         <v>8.0505915102548953E-2</v>
       </c>
+      <c r="DK46">
+        <f>((CW46-CU46)/CU46)*100</f>
+        <v>-13.098325160143276</v>
+      </c>
     </row>
-    <row r="47" spans="1:113" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:115" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -17977,33 +18305,40 @@
         <v>7.6968276669504093E-2</v>
       </c>
       <c r="DB47" t="s">
-        <v>207</v>
-      </c>
-      <c r="DC47">
+        <v>155</v>
+      </c>
+      <c r="DC47" t="s">
+        <v>155</v>
+      </c>
+      <c r="DD47">
         <v>7.7434499748051097E-2</v>
       </c>
-      <c r="DD47">
+      <c r="DE47">
         <v>-2.6286300038918801E-2</v>
       </c>
-      <c r="DE47">
+      <c r="DF47">
         <v>7.5395000167191001E-2</v>
       </c>
-      <c r="DF47">
+      <c r="DG47">
         <v>6.3898500520735901E-3</v>
       </c>
-      <c r="DG47">
+      <c r="DH47">
         <v>-9.7330949734896394E-2</v>
       </c>
-      <c r="DH47">
+      <c r="DI47">
         <v>-0.10168130020610899</v>
       </c>
-      <c r="DI47">
+      <c r="DJ47">
         <f>CU47-CY47</f>
         <v>4.2992998933186977E-2</v>
       </c>
+      <c r="DK47">
+        <f>((CW47-CU47)/CU47)*100</f>
+        <v>-25.920296920629426</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DI47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DK47">
     <sortCondition ref="DA1:DA47"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/code/total_df_n46.xlsx
+++ b/code/total_df_n46.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-mid-clean/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB61A77-8FA7-1B4C-92AF-3DAF5CE3B6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FCBFA0-2CB0-8D44-96FA-A2604FE06D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1220" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1099,7 +1099,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="BM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BW49" sqref="BW49:BX49"/>
+      <selection pane="bottomRight" activeCell="BU1" sqref="BU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/code/total_df_n46.xlsx
+++ b/code/total_df_n46.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-mid-clean/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DF2823-A069-C140-8487-1F7D28296C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A8DAF0-BC64-BA49-A0FA-A9EB42ED4C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:DR47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="DL2" sqref="DL2"/>
@@ -1665,15 +1665,15 @@
         <v>-2.5865294350000001</v>
       </c>
       <c r="AZ2" s="2">
-        <f>AX2-AW2</f>
+        <f t="shared" ref="AZ2:AZ47" si="0">AX2-AW2</f>
         <v>-4.9206888929999995</v>
       </c>
       <c r="BA2" s="2">
-        <f>AY2-AW2</f>
+        <f t="shared" ref="BA2:BA47" si="1">AY2-AW2</f>
         <v>-5.588803016</v>
       </c>
       <c r="BB2" s="2">
-        <f>AX2-AY2</f>
+        <f t="shared" ref="BB2:BB47" si="2">AX2-AY2</f>
         <v>0.66811412300000006</v>
       </c>
       <c r="BC2" s="2">
@@ -1689,15 +1689,15 @@
         <v>-0.25926573419999999</v>
       </c>
       <c r="BG2" s="2">
-        <f>BE2-BD2</f>
+        <f t="shared" ref="BG2:BG47" si="3">BE2-BD2</f>
         <v>-0.47721986319999998</v>
       </c>
       <c r="BH2" s="2">
-        <f>BF2-BD2</f>
+        <f t="shared" ref="BH2:BH47" si="4">BF2-BD2</f>
         <v>-0.3855772354</v>
       </c>
       <c r="BI2" s="2">
-        <f>BE2-BF2</f>
+        <f t="shared" ref="BI2:BI47" si="5">BE2-BF2</f>
         <v>-9.1642627799999987E-2</v>
       </c>
       <c r="BJ2" s="2">
@@ -1710,26 +1710,26 @@
         <v>20.94466735</v>
       </c>
       <c r="BM2" s="2">
-        <f>BL2-AE2</f>
+        <f t="shared" ref="BM2:BM47" si="6">BL2-AE2</f>
         <v>4.1234813499999987</v>
       </c>
       <c r="BN2" s="2">
         <v>45.628209640000001</v>
       </c>
       <c r="BO2" s="2">
-        <f>BN2-AF2</f>
+        <f t="shared" ref="BO2:BO47" si="7">BN2-AF2</f>
         <v>46.562794539999999</v>
       </c>
       <c r="BP2" s="2">
-        <f>BL2-BK2</f>
+        <f t="shared" ref="BP2:BP47" si="8">BL2-BK2</f>
         <v>48.877858680000003</v>
       </c>
       <c r="BQ2" s="2">
-        <f>BN2-BK2</f>
+        <f t="shared" ref="BQ2:BQ47" si="9">BN2-BK2</f>
         <v>73.561400969999994</v>
       </c>
       <c r="BR2">
-        <f>BL2-BN2</f>
+        <f t="shared" ref="BR2:BR47" si="10">BL2-BN2</f>
         <v>-24.683542290000002</v>
       </c>
       <c r="BS2" s="6">
@@ -1748,23 +1748,23 @@
         <v>-1.927096943E-2</v>
       </c>
       <c r="BX2" s="2">
-        <f>BV2-CC2</f>
+        <f t="shared" ref="BX2:BX47" si="11">BV2-CC2</f>
         <v>0.75493204772</v>
       </c>
       <c r="BY2" s="2">
-        <f>BW2-CD2</f>
+        <f t="shared" ref="BY2:BY47" si="12">BW2-CD2</f>
         <v>-0.41064415013</v>
       </c>
       <c r="BZ2" s="2">
-        <f>BV2-BW2</f>
+        <f t="shared" ref="BZ2:BZ47" si="13">BV2-BW2</f>
         <v>-3.0928772350000001E-2</v>
       </c>
       <c r="CA2" s="2">
-        <f>BV2-BU2</f>
+        <f t="shared" ref="CA2:CA47" si="14">BV2-BU2</f>
         <v>-0.28850069438000003</v>
       </c>
       <c r="CB2" s="2">
-        <f>BW2-BU2</f>
+        <f t="shared" ref="CB2:CB47" si="15">BW2-BU2</f>
         <v>-0.25757192203000001</v>
       </c>
       <c r="CC2" s="2">
@@ -1789,15 +1789,15 @@
         <v>-0.69853030729999999</v>
       </c>
       <c r="CJ2" s="2">
-        <f>CH2-CI2</f>
+        <f t="shared" ref="CJ2:CJ47" si="16">CH2-CI2</f>
         <v>-0.22926338440000005</v>
       </c>
       <c r="CK2" s="2">
-        <f>CH2-CG2</f>
+        <f t="shared" ref="CK2:CK47" si="17">CH2-CG2</f>
         <v>-1.6520753243000001</v>
       </c>
       <c r="CL2" s="2">
-        <f>CI2-CG2</f>
+        <f t="shared" ref="CL2:CL47" si="18">CI2-CG2</f>
         <v>-1.4228119398999999</v>
       </c>
       <c r="CM2" s="2">
@@ -1822,15 +1822,15 @@
         <v>0.9608585476</v>
       </c>
       <c r="CT2" s="2">
-        <f>CR2-CS2</f>
+        <f t="shared" ref="CT2:CT47" si="19">CR2-CS2</f>
         <v>-0.62711714070000002</v>
       </c>
       <c r="CU2" s="2">
-        <f>CR2-CQ2</f>
+        <f t="shared" ref="CU2:CU47" si="20">CR2-CQ2</f>
         <v>0.44474970059999996</v>
       </c>
       <c r="CV2" s="2">
-        <f>CS2-CQ2</f>
+        <f t="shared" ref="CV2:CV47" si="21">CS2-CQ2</f>
         <v>1.0718668413000001</v>
       </c>
       <c r="CW2" s="2">
@@ -1894,11 +1894,11 @@
         <v>1.03698999155312E-2</v>
       </c>
       <c r="DQ2">
-        <f>CY2-DC2</f>
+        <f t="shared" ref="DQ2:DQ47" si="22">CY2-DC2</f>
         <v>4.0549613069743029E-2</v>
       </c>
       <c r="DR2">
-        <f>((DA2-CY2)/CY2)*100</f>
+        <f t="shared" ref="DR2:DR47" si="23">((DA2-CY2)/CY2)*100</f>
         <v>-6.0429422073569805</v>
       </c>
     </row>
@@ -2057,15 +2057,15 @@
         <v>-2.224207356</v>
       </c>
       <c r="AZ3" s="2">
-        <f>AX3-AW3</f>
+        <f t="shared" si="0"/>
         <v>-0.67149241900000001</v>
       </c>
       <c r="BA3" s="2">
-        <f>AY3-AW3</f>
+        <f t="shared" si="1"/>
         <v>-3.044183109</v>
       </c>
       <c r="BB3" s="2">
-        <f>AX3-AY3</f>
+        <f t="shared" si="2"/>
         <v>2.3726906899999998</v>
       </c>
       <c r="BC3" s="2">
@@ -2081,15 +2081,15 @@
         <v>-0.1244436302</v>
       </c>
       <c r="BG3" s="2">
-        <f>BE3-BD3</f>
+        <f t="shared" si="3"/>
         <v>0.43828981675000001</v>
       </c>
       <c r="BH3" s="2">
-        <f>BF3-BD3</f>
+        <f t="shared" si="4"/>
         <v>0.38476305500000002</v>
       </c>
       <c r="BI3" s="2">
-        <f>BE3-BF3</f>
+        <f t="shared" si="5"/>
         <v>5.3526761749999999E-2</v>
       </c>
       <c r="BJ3" s="2">
@@ -2102,26 +2102,26 @@
         <v>12.03074348</v>
       </c>
       <c r="BM3" s="2">
-        <f>BL3-AE3</f>
+        <f t="shared" si="6"/>
         <v>12.86993492</v>
       </c>
       <c r="BN3" s="2">
         <v>-3.1349598240000001</v>
       </c>
       <c r="BO3" s="2">
-        <f>BN3-AF3</f>
+        <f t="shared" si="7"/>
         <v>9.9575591760000002</v>
       </c>
       <c r="BP3" s="2">
-        <f>BL3-BK3</f>
+        <f t="shared" si="8"/>
         <v>56.108350469999998</v>
       </c>
       <c r="BQ3" s="2">
-        <f>BN3-BK3</f>
+        <f t="shared" si="9"/>
         <v>40.942647166</v>
       </c>
       <c r="BR3">
-        <f>BL3-BN3</f>
+        <f t="shared" si="10"/>
         <v>15.165703304000001</v>
       </c>
       <c r="BS3" s="6">
@@ -2140,23 +2140,23 @@
         <v>0.91869890759999995</v>
       </c>
       <c r="BX3" s="2">
-        <f>BV3-CC3</f>
+        <f t="shared" si="11"/>
         <v>0.61836032100000005</v>
       </c>
       <c r="BY3" s="2">
-        <f>BW3-CD3</f>
+        <f t="shared" si="12"/>
         <v>0.73689556979999993</v>
       </c>
       <c r="BZ3" s="2">
-        <f>BV3-BW3</f>
+        <f t="shared" si="13"/>
         <v>0.39773832240000007</v>
       </c>
       <c r="CA3" s="2">
-        <f>BV3-BU3</f>
+        <f t="shared" si="14"/>
         <v>1.6375801406999999</v>
       </c>
       <c r="CB3" s="2">
-        <f>BW3-BU3</f>
+        <f t="shared" si="15"/>
         <v>1.2398418183</v>
       </c>
       <c r="CC3" s="2">
@@ -2181,15 +2181,15 @@
         <v>-0.89599673999999996</v>
       </c>
       <c r="CJ3" s="2">
-        <f>CH3-CI3</f>
+        <f t="shared" si="16"/>
         <v>0.40399985489999996</v>
       </c>
       <c r="CK3" s="2">
-        <f>CH3-CG3</f>
+        <f t="shared" si="17"/>
         <v>5.4244879799999979E-2</v>
       </c>
       <c r="CL3" s="2">
-        <f>CI3-CG3</f>
+        <f t="shared" si="18"/>
         <v>-0.34975497509999998</v>
       </c>
       <c r="CM3" s="2">
@@ -2214,15 +2214,15 @@
         <v>-0.25870503210000001</v>
       </c>
       <c r="CT3" s="2">
-        <f>CR3-CS3</f>
+        <f t="shared" si="19"/>
         <v>0.52936932030000006</v>
       </c>
       <c r="CU3" s="2">
-        <f>CR3-CQ3</f>
+        <f t="shared" si="20"/>
         <v>1.0052260759</v>
       </c>
       <c r="CV3" s="2">
-        <f>CS3-CQ3</f>
+        <f t="shared" si="21"/>
         <v>0.47585675560000001</v>
       </c>
       <c r="CW3" s="2">
@@ -2286,11 +2286,11 @@
         <v>-6.0773400124162401E-2</v>
       </c>
       <c r="DQ3">
-        <f>CY3-DC3</f>
+        <f t="shared" si="22"/>
         <v>6.8547371934983004E-2</v>
       </c>
       <c r="DR3">
-        <f>((DA3-CY3)/CY3)*100</f>
+        <f t="shared" si="23"/>
         <v>-14.324683868942911</v>
       </c>
     </row>
@@ -2449,15 +2449,15 @@
         <v>0.69538774130000003</v>
       </c>
       <c r="AZ4" s="2">
-        <f>AX4-AW4</f>
+        <f t="shared" si="0"/>
         <v>3.5674061842999998</v>
       </c>
       <c r="BA4" s="2">
-        <f>AY4-AW4</f>
+        <f t="shared" si="1"/>
         <v>3.4029897443000001</v>
       </c>
       <c r="BB4" s="2">
-        <f>AX4-AY4</f>
+        <f t="shared" si="2"/>
         <v>0.16441644</v>
       </c>
       <c r="BC4" s="2">
@@ -2473,15 +2473,15 @@
         <v>-0.59866372609999996</v>
       </c>
       <c r="BG4" s="2">
-        <f>BE4-BD4</f>
+        <f t="shared" si="3"/>
         <v>0.27076271550000003</v>
       </c>
       <c r="BH4" s="2">
-        <f>BF4-BD4</f>
+        <f t="shared" si="4"/>
         <v>-7.3368647299999923E-2</v>
       </c>
       <c r="BI4" s="2">
-        <f>BE4-BF4</f>
+        <f t="shared" si="5"/>
         <v>0.34413136279999995</v>
       </c>
       <c r="BJ4" s="2">
@@ -2494,26 +2494,26 @@
         <v>-17.830499280000002</v>
       </c>
       <c r="BM4" s="2">
-        <f>BL4-AE4</f>
+        <f t="shared" si="6"/>
         <v>2.5438207199999994</v>
       </c>
       <c r="BN4" s="2">
         <v>-19.145998899999999</v>
       </c>
       <c r="BO4" s="2">
-        <f>BN4-AF4</f>
+        <f t="shared" si="7"/>
         <v>-35.075190899999996</v>
       </c>
       <c r="BP4" s="2">
-        <f>BL4-BK4</f>
+        <f t="shared" si="8"/>
         <v>46.309456190000006</v>
       </c>
       <c r="BQ4" s="2">
-        <f>BN4-BK4</f>
+        <f t="shared" si="9"/>
         <v>44.993956570000009</v>
       </c>
       <c r="BR4">
-        <f>BL4-BN4</f>
+        <f t="shared" si="10"/>
         <v>1.3154996199999971</v>
       </c>
       <c r="BS4" s="6">
@@ -2532,23 +2532,23 @@
         <v>0.30586249259999998</v>
       </c>
       <c r="BX4" s="2">
-        <f>BV4-CC4</f>
+        <f t="shared" si="11"/>
         <v>-2.9834008500000009E-2</v>
       </c>
       <c r="BY4" s="2">
-        <f>BW4-CD4</f>
+        <f t="shared" si="12"/>
         <v>0.22927063216999999</v>
       </c>
       <c r="BZ4" s="2">
-        <f>BV4-BW4</f>
+        <f t="shared" si="13"/>
         <v>0.11400645860000003</v>
       </c>
       <c r="CA4" s="2">
-        <f>BV4-BU4</f>
+        <f t="shared" si="14"/>
         <v>0.97550045090000004</v>
       </c>
       <c r="CB4" s="2">
-        <f>BW4-BU4</f>
+        <f t="shared" si="15"/>
         <v>0.86149399230000001</v>
       </c>
       <c r="CC4" s="2">
@@ -2573,15 +2573,15 @@
         <v>-0.13922408620000001</v>
       </c>
       <c r="CJ4" s="2">
-        <f>CH4-CI4</f>
+        <f t="shared" si="16"/>
         <v>0.62663387010000005</v>
       </c>
       <c r="CK4" s="2">
-        <f>CH4-CG4</f>
+        <f t="shared" si="17"/>
         <v>-3.0445475399999977E-2</v>
       </c>
       <c r="CL4" s="2">
-        <f>CI4-CG4</f>
+        <f t="shared" si="18"/>
         <v>-0.65707934550000002</v>
       </c>
       <c r="CM4" s="2">
@@ -2606,15 +2606,15 @@
         <v>-0.18191108410000001</v>
       </c>
       <c r="CT4" s="2">
-        <f>CR4-CS4</f>
+        <f t="shared" si="19"/>
         <v>4.1214511000000009E-2</v>
       </c>
       <c r="CU4" s="2">
-        <f>CR4-CQ4</f>
+        <f t="shared" si="20"/>
         <v>-1.1656159780999999</v>
       </c>
       <c r="CV4" s="2">
-        <f>CS4-CQ4</f>
+        <f t="shared" si="21"/>
         <v>-1.2068304890999999</v>
       </c>
       <c r="CW4" s="2">
@@ -2678,11 +2678,11 @@
         <v>-5.1001612097024897E-2</v>
       </c>
       <c r="DQ4">
-        <f>CY4-DC4</f>
+        <f t="shared" si="22"/>
         <v>2.1195899695158005E-2</v>
       </c>
       <c r="DR4">
-        <f>((DA4-CY4)/CY4)*100</f>
+        <f t="shared" si="23"/>
         <v>0.30674479103695773</v>
       </c>
     </row>
@@ -2841,15 +2841,15 @@
         <v>-1.7096935550000001</v>
       </c>
       <c r="AZ5" s="2">
-        <f>AX5-AW5</f>
+        <f t="shared" si="0"/>
         <v>-3.0656745199</v>
       </c>
       <c r="BA5" s="2">
-        <f>AY5-AW5</f>
+        <f t="shared" si="1"/>
         <v>-5.0124484000000002</v>
       </c>
       <c r="BB5" s="2">
-        <f>AX5-AY5</f>
+        <f t="shared" si="2"/>
         <v>1.9467738801000001</v>
       </c>
       <c r="BC5" s="2">
@@ -2865,15 +2865,15 @@
         <v>-0.17010492299999999</v>
       </c>
       <c r="BG5" s="2">
-        <f>BE5-BD5</f>
+        <f t="shared" si="3"/>
         <v>0.22575904299999996</v>
       </c>
       <c r="BH5" s="2">
-        <f>BF5-BD5</f>
+        <f t="shared" si="4"/>
         <v>-0.3439825849</v>
       </c>
       <c r="BI5" s="2">
-        <f>BE5-BF5</f>
+        <f t="shared" si="5"/>
         <v>0.56974162789999994</v>
       </c>
       <c r="BJ5" s="2">
@@ -2886,26 +2886,26 @@
         <v>30.743147879999999</v>
       </c>
       <c r="BM5" s="2">
-        <f>BL5-AE5</f>
+        <f t="shared" si="6"/>
         <v>-10.993162120000004</v>
       </c>
       <c r="BN5" s="2">
         <v>31.633863689999998</v>
       </c>
       <c r="BO5" s="2">
-        <f>BN5-AF5</f>
+        <f t="shared" si="7"/>
         <v>-29.241723310000005</v>
       </c>
       <c r="BP5" s="2">
-        <f>BL5-BK5</f>
+        <f t="shared" si="8"/>
         <v>2.2909643600000003</v>
       </c>
       <c r="BQ5" s="2">
-        <f>BN5-BK5</f>
+        <f t="shared" si="9"/>
         <v>3.1816801699999999</v>
       </c>
       <c r="BR5">
-        <f>BL5-BN5</f>
+        <f t="shared" si="10"/>
         <v>-0.89071580999999966</v>
       </c>
       <c r="BS5" s="6">
@@ -2924,23 +2924,23 @@
         <v>-0.49850712159999999</v>
       </c>
       <c r="BX5" s="2">
-        <f>BV5-CC5</f>
+        <f t="shared" si="11"/>
         <v>-0.10217841722</v>
       </c>
       <c r="BY5" s="2">
-        <f>BW5-CD5</f>
+        <f t="shared" si="12"/>
         <v>-1.3367631288999999</v>
       </c>
       <c r="BZ5" s="2">
-        <f>BV5-BW5</f>
+        <f t="shared" si="13"/>
         <v>0.42771233296</v>
       </c>
       <c r="CA5" s="2">
-        <f>BV5-BU5</f>
+        <f t="shared" si="14"/>
         <v>1.4392198253599999</v>
       </c>
       <c r="CB5" s="2">
-        <f>BW5-BU5</f>
+        <f t="shared" si="15"/>
         <v>1.0115074923999998</v>
       </c>
       <c r="CC5" s="2">
@@ -2965,15 +2965,15 @@
         <v>0.59779138629999995</v>
       </c>
       <c r="CJ5" s="2">
-        <f>CH5-CI5</f>
+        <f t="shared" si="16"/>
         <v>-0.74310051279999989</v>
       </c>
       <c r="CK5" s="2">
-        <f>CH5-CG5</f>
+        <f t="shared" si="17"/>
         <v>0.73514179200000007</v>
       </c>
       <c r="CL5" s="2">
-        <f>CI5-CG5</f>
+        <f t="shared" si="18"/>
         <v>1.4782423048</v>
       </c>
       <c r="CM5" s="2">
@@ -2998,15 +2998,15 @@
         <v>-0.72040524679999995</v>
       </c>
       <c r="CT5" s="2">
-        <f>CR5-CS5</f>
+        <f t="shared" si="19"/>
         <v>1.5511681289000001</v>
       </c>
       <c r="CU5" s="2">
-        <f>CR5-CQ5</f>
+        <f t="shared" si="20"/>
         <v>1.4004168420000001</v>
       </c>
       <c r="CV5" s="2">
-        <f>CS5-CQ5</f>
+        <f t="shared" si="21"/>
         <v>-0.15075128689999995</v>
       </c>
       <c r="CW5" s="2">
@@ -3070,11 +3070,11 @@
         <v>1.45321000018157E-2</v>
       </c>
       <c r="DQ5">
-        <f>CY5-DC5</f>
+        <f t="shared" si="22"/>
         <v>-6.1559346358989742E-3</v>
       </c>
       <c r="DR5">
-        <f>((DA5-CY5)/CY5)*100</f>
+        <f t="shared" si="23"/>
         <v>-1.4711390034728571</v>
       </c>
     </row>
@@ -3233,15 +3233,15 @@
         <v>-3.5024631990000001</v>
       </c>
       <c r="AZ6" s="2">
-        <f>AX6-AW6</f>
+        <f t="shared" si="0"/>
         <v>8.3635583899999997</v>
       </c>
       <c r="BA6" s="2">
-        <f>AY6-AW6</f>
+        <f t="shared" si="1"/>
         <v>2.0926742779999996</v>
       </c>
       <c r="BB6" s="2">
-        <f>AX6-AY6</f>
+        <f t="shared" si="2"/>
         <v>6.2708841120000001</v>
       </c>
       <c r="BC6" s="2">
@@ -3257,15 +3257,15 @@
         <v>7.2036453609999995E-2</v>
       </c>
       <c r="BG6" s="2">
-        <f>BE6-BD6</f>
+        <f t="shared" si="3"/>
         <v>-0.39763543675640001</v>
       </c>
       <c r="BH6" s="2">
-        <f>BF6-BD6</f>
+        <f t="shared" si="4"/>
         <v>-0.32542704899000002</v>
       </c>
       <c r="BI6" s="2">
-        <f>BE6-BF6</f>
+        <f t="shared" si="5"/>
         <v>-7.2208387766399998E-2</v>
       </c>
       <c r="BJ6" s="2">
@@ -3278,26 +3278,26 @@
         <v>31.749794789999999</v>
       </c>
       <c r="BM6" s="2">
-        <f>BL6-AE6</f>
+        <f t="shared" si="6"/>
         <v>-12.932460209999999</v>
       </c>
       <c r="BN6" s="2">
         <v>23.262369719999999</v>
       </c>
       <c r="BO6" s="2">
-        <f>BN6-AF6</f>
+        <f t="shared" si="7"/>
         <v>21.602919319999998</v>
       </c>
       <c r="BP6" s="2">
-        <f>BL6-BK6</f>
+        <f t="shared" si="8"/>
         <v>26.647329757000001</v>
       </c>
       <c r="BQ6" s="2">
-        <f>BN6-BK6</f>
+        <f t="shared" si="9"/>
         <v>18.159904687000001</v>
       </c>
       <c r="BR6">
-        <f>BL6-BN6</f>
+        <f t="shared" si="10"/>
         <v>8.4874250700000005</v>
       </c>
       <c r="BS6" s="6">
@@ -3316,23 +3316,23 @@
         <v>-3.4423936469999999E-2</v>
       </c>
       <c r="BX6" s="2">
-        <f>BV6-CC6</f>
+        <f t="shared" si="11"/>
         <v>-0.35787938429999988</v>
       </c>
       <c r="BY6" s="2">
-        <f>BW6-CD6</f>
+        <f t="shared" si="12"/>
         <v>9.8014908100000006E-3</v>
       </c>
       <c r="BZ6" s="2">
-        <f>BV6-BW6</f>
+        <f t="shared" si="13"/>
         <v>0.98823070517</v>
       </c>
       <c r="CA6" s="2">
-        <f>BV6-BU6</f>
+        <f t="shared" si="14"/>
         <v>2.6520253967</v>
       </c>
       <c r="CB6" s="2">
-        <f>BW6-BU6</f>
+        <f t="shared" si="15"/>
         <v>1.6637946915299999</v>
       </c>
       <c r="CC6" s="2">
@@ -3357,15 +3357,15 @@
         <v>1.0426710880000001</v>
       </c>
       <c r="CJ6" s="2">
-        <f>CH6-CI6</f>
+        <f t="shared" si="16"/>
         <v>0.66685308999999982</v>
       </c>
       <c r="CK6" s="2">
-        <f>CH6-CG6</f>
+        <f t="shared" si="17"/>
         <v>0.57652460699999986</v>
       </c>
       <c r="CL6" s="2">
-        <f>CI6-CG6</f>
+        <f t="shared" si="18"/>
         <v>-9.0328482999999959E-2</v>
       </c>
       <c r="CM6" s="2">
@@ -3390,15 +3390,15 @@
         <v>-0.38031203200000002</v>
       </c>
       <c r="CT6" s="2">
-        <f>CR6-CS6</f>
+        <f t="shared" si="19"/>
         <v>0.42178143462000001</v>
       </c>
       <c r="CU6" s="2">
-        <f>CR6-CQ6</f>
+        <f t="shared" si="20"/>
         <v>0.20321157682000002</v>
       </c>
       <c r="CV6" s="2">
-        <f>CS6-CQ6</f>
+        <f t="shared" si="21"/>
         <v>-0.21856985780000002</v>
       </c>
       <c r="CW6" s="2">
@@ -3462,11 +3462,11 @@
         <v>-9.1440399992279695E-2</v>
       </c>
       <c r="DQ6">
-        <f>CY6-DC6</f>
+        <f t="shared" si="22"/>
         <v>1.2935537844896983E-2</v>
       </c>
       <c r="DR6">
-        <f>((DA6-CY6)/CY6)*100</f>
+        <f t="shared" si="23"/>
         <v>-4.0675381885920059</v>
       </c>
     </row>
@@ -3625,15 +3625,15 @@
         <v>-1.78212781</v>
       </c>
       <c r="AZ7" s="2">
-        <f>AX7-AW7</f>
+        <f t="shared" si="0"/>
         <v>7.5503343440000004</v>
       </c>
       <c r="BA7" s="2">
-        <f>AY7-AW7</f>
+        <f t="shared" si="1"/>
         <v>3.4232397200000002</v>
       </c>
       <c r="BB7" s="2">
-        <f>AX7-AY7</f>
+        <f t="shared" si="2"/>
         <v>4.1270946239999997</v>
       </c>
       <c r="BC7" s="2">
@@ -3649,15 +3649,15 @@
         <v>-0.66896377969999998</v>
       </c>
       <c r="BG7" s="2">
-        <f>BE7-BD7</f>
+        <f t="shared" si="3"/>
         <v>0.14684134710000002</v>
       </c>
       <c r="BH7" s="2">
-        <f>BF7-BD7</f>
+        <f t="shared" si="4"/>
         <v>-0.20472201949999996</v>
       </c>
       <c r="BI7" s="2">
-        <f>BE7-BF7</f>
+        <f t="shared" si="5"/>
         <v>0.35156336659999998</v>
       </c>
       <c r="BJ7" s="2">
@@ -3670,26 +3670,26 @@
         <v>49.687952500000002</v>
       </c>
       <c r="BM7" s="2">
-        <f>BL7-AE7</f>
+        <f t="shared" si="6"/>
         <v>22.6453305</v>
       </c>
       <c r="BN7" s="2">
         <v>30.90839562</v>
       </c>
       <c r="BO7" s="2">
-        <f>BN7-AF7</f>
+        <f t="shared" si="7"/>
         <v>20.329038619999999</v>
       </c>
       <c r="BP7" s="2">
-        <f>BL7-BK7</f>
+        <f t="shared" si="8"/>
         <v>63.658831930000005</v>
       </c>
       <c r="BQ7" s="2">
-        <f>BN7-BK7</f>
+        <f t="shared" si="9"/>
         <v>44.879275050000004</v>
       </c>
       <c r="BR7">
-        <f>BL7-BN7</f>
+        <f t="shared" si="10"/>
         <v>18.779556880000001</v>
       </c>
       <c r="BS7" s="6">
@@ -3708,23 +3708,23 @@
         <v>0.52022419890000005</v>
       </c>
       <c r="BX7" s="2">
-        <f>BV7-CC7</f>
+        <f t="shared" si="11"/>
         <v>0.83057062310000007</v>
       </c>
       <c r="BY7" s="2">
-        <f>BW7-CD7</f>
+        <f t="shared" si="12"/>
         <v>0.6996864773</v>
       </c>
       <c r="BZ7" s="2">
-        <f>BV7-BW7</f>
+        <f t="shared" si="13"/>
         <v>-0.41393378500000005</v>
       </c>
       <c r="CA7" s="2">
-        <f>BV7-BU7</f>
+        <f t="shared" si="14"/>
         <v>-1.0936869980999999</v>
       </c>
       <c r="CB7" s="2">
-        <f>BW7-BU7</f>
+        <f t="shared" si="15"/>
         <v>-0.67975321309999992</v>
       </c>
       <c r="CC7" s="2">
@@ -3749,15 +3749,15 @@
         <v>0.60269803389999999</v>
       </c>
       <c r="CJ7" s="2">
-        <f>CH7-CI7</f>
+        <f t="shared" si="16"/>
         <v>-0.81847051449999997</v>
       </c>
       <c r="CK7" s="2">
-        <f>CH7-CG7</f>
+        <f t="shared" si="17"/>
         <v>0.96317520639999998</v>
       </c>
       <c r="CL7" s="2">
-        <f>CI7-CG7</f>
+        <f t="shared" si="18"/>
         <v>1.7816457208999998</v>
       </c>
       <c r="CM7" s="2">
@@ -3782,15 +3782,15 @@
         <v>0.77104000689999996</v>
       </c>
       <c r="CT7" s="2">
-        <f>CR7-CS7</f>
+        <f t="shared" si="19"/>
         <v>-0.32580826939999996</v>
       </c>
       <c r="CU7" s="2">
-        <f>CR7-CQ7</f>
+        <f t="shared" si="20"/>
         <v>-2.993962859999999E-2</v>
       </c>
       <c r="CV7" s="2">
-        <f>CS7-CQ7</f>
+        <f t="shared" si="21"/>
         <v>0.29586864079999997</v>
       </c>
       <c r="CW7" s="2">
@@ -3854,11 +3854,11 @@
         <v>-8.1828969705384207E-3</v>
       </c>
       <c r="DQ7">
-        <f>CY7-DC7</f>
+        <f t="shared" si="22"/>
         <v>-4.1779354796794843E-4</v>
       </c>
       <c r="DR7">
-        <f>((DA7-CY7)/CY7)*100</f>
+        <f t="shared" si="23"/>
         <v>-0.14043265374919442</v>
       </c>
     </row>
@@ -4017,15 +4017,15 @@
         <v>7.6338793660000004</v>
       </c>
       <c r="AZ8" s="2">
-        <f>AX8-AW8</f>
+        <f t="shared" si="0"/>
         <v>3.0580448969999998</v>
       </c>
       <c r="BA8" s="2">
-        <f>AY8-AW8</f>
+        <f t="shared" si="1"/>
         <v>8.6880467610000007</v>
       </c>
       <c r="BB8" s="2">
-        <f>AX8-AY8</f>
+        <f t="shared" si="2"/>
         <v>-5.6300018640000005</v>
       </c>
       <c r="BC8" s="2">
@@ -4041,15 +4041,15 @@
         <v>-0.3900378578</v>
       </c>
       <c r="BG8" s="2">
-        <f>BE8-BD8</f>
+        <f t="shared" si="3"/>
         <v>-1.3132020411000001</v>
       </c>
       <c r="BH8" s="2">
-        <f>BF8-BD8</f>
+        <f t="shared" si="4"/>
         <v>-1.0649643007</v>
       </c>
       <c r="BI8" s="2">
-        <f>BE8-BF8</f>
+        <f t="shared" si="5"/>
         <v>-0.24823774040000002</v>
       </c>
       <c r="BJ8" s="2">
@@ -4062,26 +4062,26 @@
         <v>-2.4934594190000001</v>
       </c>
       <c r="BM8" s="2">
-        <f>BL8-AE8</f>
+        <f t="shared" si="6"/>
         <v>21.942428580999998</v>
       </c>
       <c r="BN8" s="2">
         <v>-2.1005671010000002</v>
       </c>
       <c r="BO8" s="2">
-        <f>BN8-AF8</f>
+        <f t="shared" si="7"/>
         <v>-9.8485721010000002</v>
       </c>
       <c r="BP8" s="2">
-        <f>BL8-BK8</f>
+        <f t="shared" si="8"/>
         <v>-9.4795485510000006</v>
       </c>
       <c r="BQ8" s="2">
-        <f>BN8-BK8</f>
+        <f t="shared" si="9"/>
         <v>-9.0866562329999994</v>
       </c>
       <c r="BR8">
-        <f>BL8-BN8</f>
+        <f t="shared" si="10"/>
         <v>-0.39289231799999991</v>
       </c>
       <c r="BS8" s="6">
@@ -4100,23 +4100,23 @@
         <v>-0.3863721758</v>
       </c>
       <c r="BX8" s="2">
-        <f>BV8-CC8</f>
+        <f t="shared" si="11"/>
         <v>-0.80014492187999997</v>
       </c>
       <c r="BY8" s="2">
-        <f>BW8-CD8</f>
+        <f t="shared" si="12"/>
         <v>-0.55947456070000001</v>
       </c>
       <c r="BZ8" s="2">
-        <f>BV8-BW8</f>
+        <f t="shared" si="13"/>
         <v>-0.35064188199999996</v>
       </c>
       <c r="CA8" s="2">
-        <f>BV8-BU8</f>
+        <f t="shared" si="14"/>
         <v>0.29523492120000006</v>
       </c>
       <c r="CB8" s="2">
-        <f>BW8-BU8</f>
+        <f t="shared" si="15"/>
         <v>0.64587680319999996</v>
       </c>
       <c r="CC8" s="2">
@@ -4141,15 +4141,15 @@
         <v>8.4960694379999993E-2</v>
       </c>
       <c r="CJ8" s="2">
-        <f>CH8-CI8</f>
+        <f t="shared" si="16"/>
         <v>0.40774359162000001</v>
       </c>
       <c r="CK8" s="2">
-        <f>CH8-CG8</f>
+        <f t="shared" si="17"/>
         <v>1.3302761348000001</v>
       </c>
       <c r="CL8" s="2">
-        <f>CI8-CG8</f>
+        <f t="shared" si="18"/>
         <v>0.92253254318</v>
       </c>
       <c r="CM8" s="2">
@@ -4174,15 +4174,15 @@
         <v>-0.59145458090000003</v>
       </c>
       <c r="CT8" s="2">
-        <f>CR8-CS8</f>
+        <f t="shared" si="19"/>
         <v>-0.33297041989999998</v>
       </c>
       <c r="CU8" s="2">
-        <f>CR8-CQ8</f>
+        <f t="shared" si="20"/>
         <v>-0.87622288702999995</v>
       </c>
       <c r="CV8" s="2">
-        <f>CS8-CQ8</f>
+        <f t="shared" si="21"/>
         <v>-0.54325246713000008</v>
       </c>
       <c r="CW8" s="2">
@@ -4246,11 +4246,11 @@
         <v>-2.9760382836684501E-2</v>
       </c>
       <c r="DQ8">
-        <f>CY8-DC8</f>
+        <f t="shared" si="22"/>
         <v>-4.1412376682273988E-2</v>
       </c>
       <c r="DR8">
-        <f>((DA8-CY8)/CY8)*100</f>
+        <f t="shared" si="23"/>
         <v>18.784787637166882</v>
       </c>
     </row>
@@ -4409,15 +4409,15 @@
         <v>-2.089891266</v>
       </c>
       <c r="AZ9" s="2">
-        <f>AX9-AW9</f>
+        <f t="shared" si="0"/>
         <v>-2.7777226450999999</v>
       </c>
       <c r="BA9" s="2">
-        <f>AY9-AW9</f>
+        <f t="shared" si="1"/>
         <v>-4.1316067190000005</v>
       </c>
       <c r="BB9" s="2">
-        <f>AX9-AY9</f>
+        <f t="shared" si="2"/>
         <v>1.3538840739</v>
       </c>
       <c r="BC9" s="2">
@@ -4433,15 +4433,15 @@
         <v>0.14130690460000001</v>
       </c>
       <c r="BG9" s="2">
-        <f>BE9-BD9</f>
+        <f t="shared" si="3"/>
         <v>0.6259565198</v>
       </c>
       <c r="BH9" s="2">
-        <f>BF9-BD9</f>
+        <f t="shared" si="4"/>
         <v>0.8857474755000001</v>
       </c>
       <c r="BI9" s="2">
-        <f>BE9-BF9</f>
+        <f t="shared" si="5"/>
         <v>-0.25979095569999999</v>
       </c>
       <c r="BJ9" s="2">
@@ -4454,26 +4454,26 @@
         <v>26.019014429999999</v>
       </c>
       <c r="BM9" s="2">
-        <f>BL9-AE9</f>
+        <f t="shared" si="6"/>
         <v>-18.361211570000002</v>
       </c>
       <c r="BN9" s="2">
         <v>2.6231061069999999</v>
       </c>
       <c r="BO9" s="2">
-        <f>BN9-AF9</f>
+        <f t="shared" si="7"/>
         <v>-21.946244892999999</v>
       </c>
       <c r="BP9" s="2">
-        <f>BL9-BK9</f>
+        <f t="shared" si="8"/>
         <v>69.114252199999996</v>
       </c>
       <c r="BQ9" s="2">
-        <f>BN9-BK9</f>
+        <f t="shared" si="9"/>
         <v>45.718343876999995</v>
       </c>
       <c r="BR9">
-        <f>BL9-BN9</f>
+        <f t="shared" si="10"/>
         <v>23.395908323</v>
       </c>
       <c r="BS9" s="6">
@@ -4492,23 +4492,23 @@
         <v>-1.0718755929999999</v>
       </c>
       <c r="BX9" s="2">
-        <f>BV9-CC9</f>
+        <f t="shared" si="11"/>
         <v>-1.6137264855</v>
       </c>
       <c r="BY9" s="2">
-        <f>BW9-CD9</f>
+        <f t="shared" si="12"/>
         <v>-1.2064222888999998</v>
       </c>
       <c r="BZ9" s="2">
-        <f>BV9-BW9</f>
+        <f t="shared" si="13"/>
         <v>-4.7817868000000097E-2</v>
       </c>
       <c r="CA9" s="2">
-        <f>BV9-BU9</f>
+        <f t="shared" si="14"/>
         <v>-0.23339601269999999</v>
       </c>
       <c r="CB9" s="2">
-        <f>BW9-BU9</f>
+        <f t="shared" si="15"/>
         <v>-0.18557814469999989</v>
       </c>
       <c r="CC9" s="2">
@@ -4533,15 +4533,15 @@
         <v>1.1565102970000001</v>
       </c>
       <c r="CJ9" s="2">
-        <f>CH9-CI9</f>
+        <f t="shared" si="16"/>
         <v>0.31504074999999987</v>
       </c>
       <c r="CK9" s="2">
-        <f>CH9-CG9</f>
+        <f t="shared" si="17"/>
         <v>-0.72220336699999987</v>
       </c>
       <c r="CL9" s="2">
-        <f>CI9-CG9</f>
+        <f t="shared" si="18"/>
         <v>-1.0372441169999997</v>
       </c>
       <c r="CM9" s="2">
@@ -4566,15 +4566,15 @@
         <v>-0.15678860410000001</v>
       </c>
       <c r="CT9" s="2">
-        <f>CR9-CS9</f>
+        <f t="shared" si="19"/>
         <v>9.1736723730000011E-2</v>
       </c>
       <c r="CU9" s="2">
-        <f>CR9-CQ9</f>
+        <f t="shared" si="20"/>
         <v>0.38240764933000004</v>
       </c>
       <c r="CV9" s="2">
-        <f>CS9-CQ9</f>
+        <f t="shared" si="21"/>
         <v>0.29067092560000002</v>
       </c>
       <c r="CW9" s="2">
@@ -4638,11 +4638,11 @@
         <v>-0.10414369998034</v>
       </c>
       <c r="DQ9">
-        <f>CY9-DC9</f>
+        <f t="shared" si="22"/>
         <v>1.1723811156117037E-2</v>
       </c>
       <c r="DR9">
-        <f>((DA9-CY9)/CY9)*100</f>
+        <f t="shared" si="23"/>
         <v>-19.384938430286315</v>
       </c>
     </row>
@@ -4801,15 +4801,15 @@
         <v>-2.0066856469999999</v>
       </c>
       <c r="AZ10" s="2">
-        <f>AX10-AW10</f>
+        <f t="shared" si="0"/>
         <v>-6.4007637979999998</v>
       </c>
       <c r="BA10" s="2">
-        <f>AY10-AW10</f>
+        <f t="shared" si="1"/>
         <v>-7.3758101519999997</v>
       </c>
       <c r="BB10" s="2">
-        <f>AX10-AY10</f>
+        <f t="shared" si="2"/>
         <v>0.97504635399999984</v>
       </c>
       <c r="BC10" s="2">
@@ -4825,15 +4825,15 @@
         <v>-4.811949116E-2</v>
       </c>
       <c r="BG10" s="2">
-        <f>BE10-BD10</f>
+        <f t="shared" si="3"/>
         <v>-5.6814450629999985E-2</v>
       </c>
       <c r="BH10" s="2">
-        <f>BF10-BD10</f>
+        <f t="shared" si="4"/>
         <v>-0.19530485085999999</v>
       </c>
       <c r="BI10" s="2">
-        <f>BE10-BF10</f>
+        <f t="shared" si="5"/>
         <v>0.13849040023</v>
       </c>
       <c r="BJ10" s="2">
@@ -4846,26 +4846,26 @@
         <v>17.952011299999999</v>
       </c>
       <c r="BM10" s="2">
-        <f>BL10-AE10</f>
+        <f t="shared" si="6"/>
         <v>-6.8472307000000008</v>
       </c>
       <c r="BN10" s="2">
         <v>9.4795063499999994</v>
       </c>
       <c r="BO10" s="2">
-        <f>BN10-AF10</f>
+        <f t="shared" si="7"/>
         <v>5.3894508499999993</v>
       </c>
       <c r="BP10" s="2">
-        <f>BL10-BK10</f>
+        <f t="shared" si="8"/>
         <v>46.691274730000004</v>
       </c>
       <c r="BQ10" s="2">
-        <f>BN10-BK10</f>
+        <f t="shared" si="9"/>
         <v>38.218769780000002</v>
       </c>
       <c r="BR10">
-        <f>BL10-BN10</f>
+        <f t="shared" si="10"/>
         <v>8.4725049499999994</v>
       </c>
       <c r="BS10" s="6">
@@ -4884,23 +4884,23 @@
         <v>-0.99174475709999999</v>
       </c>
       <c r="BX10" s="2">
-        <f>BV10-CC10</f>
+        <f t="shared" si="11"/>
         <v>-1.4205641841000001</v>
       </c>
       <c r="BY10" s="2">
-        <f>BW10-CD10</f>
+        <f t="shared" si="12"/>
         <v>-0.50983256459999993</v>
       </c>
       <c r="BZ10" s="2">
-        <f>BV10-BW10</f>
+        <f t="shared" si="13"/>
         <v>-2.8181939900000064E-2</v>
       </c>
       <c r="CA10" s="2">
-        <f>BV10-BU10</f>
+        <f t="shared" si="14"/>
         <v>-0.1981260760000001</v>
       </c>
       <c r="CB10" s="2">
-        <f>BW10-BU10</f>
+        <f t="shared" si="15"/>
         <v>-0.16994413610000003</v>
       </c>
       <c r="CC10" s="2">
@@ -4925,15 +4925,15 @@
         <v>7.3898197590000006E-2</v>
       </c>
       <c r="CJ10" s="2">
-        <f>CH10-CI10</f>
+        <f t="shared" si="16"/>
         <v>-1.68182211859</v>
       </c>
       <c r="CK10" s="2">
-        <f>CH10-CG10</f>
+        <f t="shared" si="17"/>
         <v>-1.366266472</v>
       </c>
       <c r="CL10" s="2">
-        <f>CI10-CG10</f>
+        <f t="shared" si="18"/>
         <v>0.31555564659000002</v>
       </c>
       <c r="CM10" s="2">
@@ -4958,15 +4958,15 @@
         <v>-0.76721970100000003</v>
       </c>
       <c r="CT10" s="2">
-        <f>CR10-CS10</f>
+        <f t="shared" si="19"/>
         <v>0.61633188660000005</v>
       </c>
       <c r="CU10" s="2">
-        <f>CR10-CQ10</f>
+        <f t="shared" si="20"/>
         <v>0.32315150400000003</v>
       </c>
       <c r="CV10" s="2">
-        <f>CS10-CQ10</f>
+        <f t="shared" si="21"/>
         <v>-0.29318038260000001</v>
       </c>
       <c r="CW10" s="2">
@@ -5030,11 +5030,11 @@
         <v>5.8311953194788602E-2</v>
       </c>
       <c r="DQ10">
-        <f>CY10-DC10</f>
+        <f t="shared" si="22"/>
         <v>8.945549139752984E-3</v>
       </c>
       <c r="DR10">
-        <f>((DA10-CY10)/CY10)*100</f>
+        <f t="shared" si="23"/>
         <v>-0.47424801063530675</v>
       </c>
     </row>
@@ -5193,15 +5193,15 @@
         <v>1.2614048739999999</v>
       </c>
       <c r="AZ11" s="2">
-        <f>AX11-AW11</f>
+        <f t="shared" si="0"/>
         <v>-3.8385665970999998</v>
       </c>
       <c r="BA11" s="2">
-        <f>AY11-AW11</f>
+        <f t="shared" si="1"/>
         <v>-1.6094477869999999</v>
       </c>
       <c r="BB11" s="2">
-        <f>AX11-AY11</f>
+        <f t="shared" si="2"/>
         <v>-2.2291188101000001</v>
       </c>
       <c r="BC11" s="2">
@@ -5217,15 +5217,15 @@
         <v>-0.13497416270000001</v>
       </c>
       <c r="BG11" s="2">
-        <f>BE11-BD11</f>
+        <f t="shared" si="3"/>
         <v>0.41598723710000007</v>
       </c>
       <c r="BH11" s="2">
-        <f>BF11-BD11</f>
+        <f t="shared" si="4"/>
         <v>0.86633913429999998</v>
       </c>
       <c r="BI11" s="2">
-        <f>BE11-BF11</f>
+        <f t="shared" si="5"/>
         <v>-0.45035189719999996</v>
       </c>
       <c r="BJ11" s="2">
@@ -5238,26 +5238,26 @@
         <v>9.1817009590000005</v>
       </c>
       <c r="BM11" s="2">
-        <f>BL11-AE11</f>
+        <f t="shared" si="6"/>
         <v>35.044520958999996</v>
       </c>
       <c r="BN11" s="2">
         <v>20.34106079</v>
       </c>
       <c r="BO11" s="2">
-        <f>BN11-AF11</f>
+        <f t="shared" si="7"/>
         <v>-2.1897672099999994</v>
       </c>
       <c r="BP11" s="2">
-        <f>BL11-BK11</f>
+        <f t="shared" si="8"/>
         <v>14.839726632000001</v>
       </c>
       <c r="BQ11" s="2">
-        <f>BN11-BK11</f>
+        <f t="shared" si="9"/>
         <v>25.999086463000001</v>
       </c>
       <c r="BR11">
-        <f>BL11-BN11</f>
+        <f t="shared" si="10"/>
         <v>-11.159359831</v>
       </c>
       <c r="BS11" s="6">
@@ -5276,23 +5276,23 @@
         <v>-0.27090310839999998</v>
       </c>
       <c r="BX11" s="2">
-        <f>BV11-CC11</f>
+        <f t="shared" si="11"/>
         <v>0.50570877463000008</v>
       </c>
       <c r="BY11" s="2">
-        <f>BW11-CD11</f>
+        <f t="shared" si="12"/>
         <v>0.34176881390000002</v>
       </c>
       <c r="BZ11" s="2">
-        <f>BV11-BW11</f>
+        <f t="shared" si="13"/>
         <v>0.78476339770000003</v>
       </c>
       <c r="CA11" s="2">
-        <f>BV11-BU11</f>
+        <f t="shared" si="14"/>
         <v>2.0976877322999998</v>
       </c>
       <c r="CB11" s="2">
-        <f>BW11-BU11</f>
+        <f t="shared" si="15"/>
         <v>1.3129243345999999</v>
       </c>
       <c r="CC11" s="2">
@@ -5317,15 +5317,15 @@
         <v>-0.61424027209999998</v>
       </c>
       <c r="CJ11" s="2">
-        <f>CH11-CI11</f>
+        <f t="shared" si="16"/>
         <v>0.19531193359999999</v>
       </c>
       <c r="CK11" s="2">
-        <f>CH11-CG11</f>
+        <f t="shared" si="17"/>
         <v>1.0498795185000001</v>
       </c>
       <c r="CL11" s="2">
-        <f>CI11-CG11</f>
+        <f t="shared" si="18"/>
         <v>0.85456758490000007</v>
       </c>
       <c r="CM11" s="2">
@@ -5350,15 +5350,15 @@
         <v>-0.32992491950000002</v>
       </c>
       <c r="CT11" s="2">
-        <f>CR11-CS11</f>
+        <f t="shared" si="19"/>
         <v>0.42162839059000001</v>
       </c>
       <c r="CU11" s="2">
-        <f>CR11-CQ11</f>
+        <f t="shared" si="20"/>
         <v>-0.10573483030999999</v>
       </c>
       <c r="CV11" s="2">
-        <f>CS11-CQ11</f>
+        <f t="shared" si="21"/>
         <v>-0.52736322089999998</v>
       </c>
       <c r="CW11" s="2">
@@ -5422,11 +5422,11 @@
         <v>1.86470552580431E-2</v>
       </c>
       <c r="DQ11">
-        <f>CY11-DC11</f>
+        <f t="shared" si="22"/>
         <v>3.7174064782448002E-2</v>
       </c>
       <c r="DR11">
-        <f>((DA11-CY11)/CY11)*100</f>
+        <f t="shared" si="23"/>
         <v>6.7329983954492159</v>
       </c>
     </row>
@@ -5585,15 +5585,15 @@
         <v>2.7391454180000001</v>
       </c>
       <c r="AZ12" s="2">
-        <f>AX12-AW12</f>
+        <f t="shared" si="0"/>
         <v>1.5564080976999999</v>
       </c>
       <c r="BA12" s="2">
-        <f>AY12-AW12</f>
+        <f t="shared" si="1"/>
         <v>4.1314230609999996</v>
       </c>
       <c r="BB12" s="2">
-        <f>AX12-AY12</f>
+        <f t="shared" si="2"/>
         <v>-2.5750149633000001</v>
       </c>
       <c r="BC12" s="2">
@@ -5609,15 +5609,15 @@
         <v>-0.60168626329999997</v>
       </c>
       <c r="BG12" s="2">
-        <f>BE12-BD12</f>
+        <f t="shared" si="3"/>
         <v>0.15119770349999995</v>
       </c>
       <c r="BH12" s="2">
-        <f>BF12-BD12</f>
+        <f t="shared" si="4"/>
         <v>0.50013599870000003</v>
       </c>
       <c r="BI12" s="2">
-        <f>BE12-BF12</f>
+        <f t="shared" si="5"/>
         <v>-0.34893829520000008</v>
       </c>
       <c r="BJ12" s="2">
@@ -5630,26 +5630,26 @@
         <v>15.93931868</v>
       </c>
       <c r="BM12" s="2">
-        <f>BL12-AE12</f>
+        <f t="shared" si="6"/>
         <v>7.3806796800000001</v>
       </c>
       <c r="BN12" s="2">
         <v>4.582551735</v>
       </c>
       <c r="BO12" s="2">
-        <f>BN12-AF12</f>
+        <f t="shared" si="7"/>
         <v>14.361244735</v>
       </c>
       <c r="BP12" s="2">
-        <f>BL12-BK12</f>
+        <f t="shared" si="8"/>
         <v>44.4740939</v>
       </c>
       <c r="BQ12" s="2">
-        <f>BN12-BK12</f>
+        <f t="shared" si="9"/>
         <v>33.117326955000003</v>
       </c>
       <c r="BR12">
-        <f>BL12-BN12</f>
+        <f t="shared" si="10"/>
         <v>11.356766945</v>
       </c>
       <c r="BS12" s="6">
@@ -5668,23 +5668,23 @@
         <v>0.59836402290000001</v>
       </c>
       <c r="BX12" s="2">
-        <f>BV12-CC12</f>
+        <f t="shared" si="11"/>
         <v>-0.93699075519999986</v>
       </c>
       <c r="BY12" s="2">
-        <f>BW12-CD12</f>
+        <f t="shared" si="12"/>
         <v>0.2686645614</v>
       </c>
       <c r="BZ12" s="2">
-        <f>BV12-BW12</f>
+        <f t="shared" si="13"/>
         <v>-0.43490998209999998</v>
       </c>
       <c r="CA12" s="2">
-        <f>BV12-BU12</f>
+        <f t="shared" si="14"/>
         <v>2.2230909238000001</v>
       </c>
       <c r="CB12" s="2">
-        <f>BW12-BU12</f>
+        <f t="shared" si="15"/>
         <v>2.6580009058999998</v>
       </c>
       <c r="CC12" s="2">
@@ -5709,15 +5709,15 @@
         <v>1.525771456</v>
       </c>
       <c r="CJ12" s="2">
-        <f>CH12-CI12</f>
+        <f t="shared" si="16"/>
         <v>-1.0509555517</v>
       </c>
       <c r="CK12" s="2">
-        <f>CH12-CG12</f>
+        <f t="shared" si="17"/>
         <v>1.4190409822999999</v>
       </c>
       <c r="CL12" s="2">
-        <f>CI12-CG12</f>
+        <f t="shared" si="18"/>
         <v>2.4699965339999999</v>
       </c>
       <c r="CM12" s="2">
@@ -5742,15 +5742,15 @@
         <v>0.69395414430000002</v>
       </c>
       <c r="CT12" s="2">
-        <f>CR12-CS12</f>
+        <f t="shared" si="19"/>
         <v>-1.6295573800000018E-2</v>
       </c>
       <c r="CU12" s="2">
-        <f>CR12-CQ12</f>
+        <f t="shared" si="20"/>
         <v>0.61291152841999996</v>
       </c>
       <c r="CV12" s="2">
-        <f>CS12-CQ12</f>
+        <f t="shared" si="21"/>
         <v>0.62920710221999998</v>
       </c>
       <c r="CW12" s="2">
@@ -5814,11 +5814,11 @@
         <v>-0.10168130020610899</v>
       </c>
       <c r="DQ12">
-        <f>CY12-DC12</f>
+        <f t="shared" si="22"/>
         <v>4.2992998933186977E-2</v>
       </c>
       <c r="DR12">
-        <f>((DA12-CY12)/CY12)*100</f>
+        <f t="shared" si="23"/>
         <v>-25.920296920629426</v>
       </c>
     </row>
@@ -5977,15 +5977,15 @@
         <v>6.9643521919999998</v>
       </c>
       <c r="AZ13" s="2">
-        <f>AX13-AW13</f>
+        <f t="shared" si="0"/>
         <v>6.9880124048000001</v>
       </c>
       <c r="BA13" s="2">
-        <f>AY13-AW13</f>
+        <f t="shared" si="1"/>
         <v>6.1362583287999994</v>
       </c>
       <c r="BB13" s="2">
-        <f>AX13-AY13</f>
+        <f t="shared" si="2"/>
         <v>0.85175407600000064</v>
       </c>
       <c r="BC13" s="2">
@@ -6001,15 +6001,15 @@
         <v>0.44787491899999998</v>
       </c>
       <c r="BG13" s="2">
-        <f>BE13-BD13</f>
+        <f t="shared" si="3"/>
         <v>0.50621327709999997</v>
       </c>
       <c r="BH13" s="2">
-        <f>BF13-BD13</f>
+        <f t="shared" si="4"/>
         <v>0.81922883899999999</v>
       </c>
       <c r="BI13" s="2">
-        <f>BE13-BF13</f>
+        <f t="shared" si="5"/>
         <v>-0.31301556190000002</v>
       </c>
       <c r="BJ13" s="2">
@@ -6022,26 +6022,26 @@
         <v>2.302109384</v>
       </c>
       <c r="BM13" s="2">
-        <f>BL13-AE13</f>
+        <f t="shared" si="6"/>
         <v>-45.896834616</v>
       </c>
       <c r="BN13" s="2">
         <v>17.549576040000002</v>
       </c>
       <c r="BO13" s="2">
-        <f>BN13-AF13</f>
+        <f t="shared" si="7"/>
         <v>8.9047170400000013</v>
       </c>
       <c r="BP13" s="2">
-        <f>BL13-BK13</f>
+        <f t="shared" si="8"/>
         <v>106.36654418400001</v>
       </c>
       <c r="BQ13" s="2">
-        <f>BN13-BK13</f>
+        <f t="shared" si="9"/>
         <v>121.61401084000001</v>
       </c>
       <c r="BR13">
-        <f>BL13-BN13</f>
+        <f t="shared" si="10"/>
         <v>-15.247466656000002</v>
       </c>
       <c r="BS13" s="6">
@@ -6060,23 +6060,23 @@
         <v>1.559822528</v>
       </c>
       <c r="BX13" s="2">
-        <f>BV13-CC13</f>
+        <f t="shared" si="11"/>
         <v>2.2939512186000002</v>
       </c>
       <c r="BY13" s="2">
-        <f>BW13-CD13</f>
+        <f t="shared" si="12"/>
         <v>1.4003349053</v>
       </c>
       <c r="BZ13" s="2">
-        <f>BV13-BW13</f>
+        <f t="shared" si="13"/>
         <v>-0.5722853524</v>
       </c>
       <c r="CA13" s="2">
-        <f>BV13-BU13</f>
+        <f t="shared" si="14"/>
         <v>0.52694700099999991</v>
       </c>
       <c r="CB13" s="2">
-        <f>BW13-BU13</f>
+        <f t="shared" si="15"/>
         <v>1.0992323533999999</v>
       </c>
       <c r="CC13" s="2">
@@ -6101,15 +6101,15 @@
         <v>-0.124978031</v>
       </c>
       <c r="CJ13" s="2">
-        <f>CH13-CI13</f>
+        <f t="shared" si="16"/>
         <v>-0.67555340729999991</v>
       </c>
       <c r="CK13" s="2">
-        <f>CH13-CG13</f>
+        <f t="shared" si="17"/>
         <v>-0.37386710369999998</v>
       </c>
       <c r="CL13" s="2">
-        <f>CI13-CG13</f>
+        <f t="shared" si="18"/>
         <v>0.30168630359999998</v>
       </c>
       <c r="CM13" s="2">
@@ -6134,15 +6134,15 @@
         <v>0.38666989460000001</v>
       </c>
       <c r="CT13" s="2">
-        <f>CR13-CS13</f>
+        <f t="shared" si="19"/>
         <v>0.22817179899999995</v>
       </c>
       <c r="CU13" s="2">
-        <f>CR13-CQ13</f>
+        <f t="shared" si="20"/>
         <v>0.35248314869999997</v>
       </c>
       <c r="CV13" s="2">
-        <f>CS13-CQ13</f>
+        <f t="shared" si="21"/>
         <v>0.12431134970000002</v>
       </c>
       <c r="CW13" s="2">
@@ -6206,11 +6206,11 @@
         <v>-9.8269999725744094E-3</v>
       </c>
       <c r="DQ13">
-        <f>CY13-DC13</f>
+        <f t="shared" si="22"/>
         <v>3.1233236636579731E-3</v>
       </c>
       <c r="DR13">
-        <f>((DA13-CY13)/CY13)*100</f>
+        <f t="shared" si="23"/>
         <v>-11.071131059747085</v>
       </c>
     </row>
@@ -6369,15 +6369,15 @@
         <v>3.1150635310000001</v>
       </c>
       <c r="AZ14" s="2">
-        <f>AX14-AW14</f>
+        <f t="shared" si="0"/>
         <v>2.0782522600000002</v>
       </c>
       <c r="BA14" s="2">
-        <f>AY14-AW14</f>
+        <f t="shared" si="1"/>
         <v>1.013746926</v>
       </c>
       <c r="BB14" s="2">
-        <f>AX14-AY14</f>
+        <f t="shared" si="2"/>
         <v>1.0645053340000001</v>
       </c>
       <c r="BC14" s="2">
@@ -6393,15 +6393,15 @@
         <v>-0.10246757920000001</v>
       </c>
       <c r="BG14" s="2">
-        <f>BE14-BD14</f>
+        <f t="shared" si="3"/>
         <v>8.5499057099999998E-2</v>
       </c>
       <c r="BH14" s="2">
-        <f>BF14-BD14</f>
+        <f t="shared" si="4"/>
         <v>9.1937500699999994E-2</v>
       </c>
       <c r="BI14" s="2">
-        <f>BE14-BF14</f>
+        <f t="shared" si="5"/>
         <v>-6.4384435999999962E-3</v>
       </c>
       <c r="BJ14" s="2">
@@ -6414,26 +6414,26 @@
         <v>12.63563265</v>
       </c>
       <c r="BM14" s="2">
-        <f>BL14-AE14</f>
+        <f t="shared" si="6"/>
         <v>10.35705965</v>
       </c>
       <c r="BN14" s="2">
         <v>-16.109321560000001</v>
       </c>
       <c r="BO14" s="2">
-        <f>BN14-AF14</f>
+        <f t="shared" si="7"/>
         <v>-4.6272865600000017</v>
       </c>
       <c r="BP14" s="2">
-        <f>BL14-BK14</f>
+        <f t="shared" si="8"/>
         <v>24.241898769999999</v>
       </c>
       <c r="BQ14" s="2">
-        <f>BN14-BK14</f>
+        <f t="shared" si="9"/>
         <v>-4.5030554400000007</v>
       </c>
       <c r="BR14">
-        <f>BL14-BN14</f>
+        <f t="shared" si="10"/>
         <v>28.744954210000003</v>
       </c>
       <c r="BS14" s="6">
@@ -6452,23 +6452,23 @@
         <v>0.56571227909999999</v>
       </c>
       <c r="BX14" s="2">
-        <f>BV14-CC14</f>
+        <f t="shared" si="11"/>
         <v>0.31991555109999992</v>
       </c>
       <c r="BY14" s="2">
-        <f>BW14-CD14</f>
+        <f t="shared" si="12"/>
         <v>0.41916588129999999</v>
       </c>
       <c r="BZ14" s="2">
-        <f>BV14-BW14</f>
+        <f t="shared" si="13"/>
         <v>0.5975273888999999</v>
       </c>
       <c r="CA14" s="2">
-        <f>BV14-BU14</f>
+        <f t="shared" si="14"/>
         <v>1.8046300861</v>
       </c>
       <c r="CB14" s="2">
-        <f>BW14-BU14</f>
+        <f t="shared" si="15"/>
         <v>1.2071026971999999</v>
       </c>
       <c r="CC14" s="2">
@@ -6493,15 +6493,15 @@
         <v>-0.25651229809999998</v>
       </c>
       <c r="CJ14" s="2">
-        <f>CH14-CI14</f>
+        <f t="shared" si="16"/>
         <v>0.52883291099999996</v>
       </c>
       <c r="CK14" s="2">
-        <f>CH14-CG14</f>
+        <f t="shared" si="17"/>
         <v>0.31988381361999996</v>
       </c>
       <c r="CL14" s="2">
-        <f>CI14-CG14</f>
+        <f t="shared" si="18"/>
         <v>-0.20894909737999998</v>
       </c>
       <c r="CM14" s="2">
@@ -6526,15 +6526,15 @@
         <v>-0.36960459439999999</v>
       </c>
       <c r="CT14" s="2">
-        <f>CR14-CS14</f>
+        <f t="shared" si="19"/>
         <v>-0.65583555760000012</v>
       </c>
       <c r="CU14" s="2">
-        <f>CR14-CQ14</f>
+        <f t="shared" si="20"/>
         <v>-0.7423264623000001</v>
       </c>
       <c r="CV14" s="2">
-        <f>CS14-CQ14</f>
+        <f t="shared" si="21"/>
         <v>-8.6490904699999982E-2</v>
       </c>
       <c r="CW14" s="2">
@@ -6598,11 +6598,11 @@
         <v>-5.3878486738540197E-2</v>
       </c>
       <c r="DQ14">
-        <f>CY14-DC14</f>
+        <f t="shared" si="22"/>
         <v>-7.2201899951323034E-2</v>
       </c>
       <c r="DR14">
-        <f>((DA14-CY14)/CY14)*100</f>
+        <f t="shared" si="23"/>
         <v>99.732528855451292</v>
       </c>
     </row>
@@ -6761,15 +6761,15 @@
         <v>8.1322867280000004</v>
       </c>
       <c r="AZ15" s="2">
-        <f>AX15-AW15</f>
+        <f t="shared" si="0"/>
         <v>1.3406600599999998</v>
       </c>
       <c r="BA15" s="2">
-        <f>AY15-AW15</f>
+        <f t="shared" si="1"/>
         <v>4.2007054569999998</v>
       </c>
       <c r="BB15" s="2">
-        <f>AX15-AY15</f>
+        <f t="shared" si="2"/>
         <v>-2.8600453970000004</v>
       </c>
       <c r="BC15" s="2">
@@ -6785,15 +6785,15 @@
         <v>0.18336110210000001</v>
       </c>
       <c r="BG15" s="2">
-        <f>BE15-BD15</f>
+        <f t="shared" si="3"/>
         <v>0.44376290889999997</v>
       </c>
       <c r="BH15" s="2">
-        <f>BF15-BD15</f>
+        <f t="shared" si="4"/>
         <v>0.73492391639999999</v>
       </c>
       <c r="BI15" s="2">
-        <f>BE15-BF15</f>
+        <f t="shared" si="5"/>
         <v>-0.29116100750000001</v>
       </c>
       <c r="BJ15" s="2">
@@ -6806,26 +6806,26 @@
         <v>4.5895918330000001</v>
       </c>
       <c r="BM15" s="2">
-        <f>BL15-AE15</f>
+        <f t="shared" si="6"/>
         <v>30.419229832999999</v>
       </c>
       <c r="BN15" s="2">
         <v>15.180120499999999</v>
       </c>
       <c r="BO15" s="2">
-        <f>BN15-AF15</f>
+        <f t="shared" si="7"/>
         <v>20.728094499999997</v>
       </c>
       <c r="BP15" s="2">
-        <f>BL15-BK15</f>
+        <f t="shared" si="8"/>
         <v>-39.882915287000003</v>
       </c>
       <c r="BQ15" s="2">
-        <f>BN15-BK15</f>
+        <f t="shared" si="9"/>
         <v>-29.292386620000002</v>
       </c>
       <c r="BR15">
-        <f>BL15-BN15</f>
+        <f t="shared" si="10"/>
         <v>-10.590528666999999</v>
       </c>
       <c r="BS15" s="6">
@@ -6844,23 +6844,23 @@
         <v>0.42226671789999998</v>
       </c>
       <c r="BX15" s="2">
-        <f>BV15-CC15</f>
+        <f t="shared" si="11"/>
         <v>1.0155849746000001</v>
       </c>
       <c r="BY15" s="2">
-        <f>BW15-CD15</f>
+        <f t="shared" si="12"/>
         <v>4.198606979999997E-2</v>
       </c>
       <c r="BZ15" s="2">
-        <f>BV15-BW15</f>
+        <f t="shared" si="13"/>
         <v>0.23245935690000002</v>
       </c>
       <c r="CA15" s="2">
-        <f>BV15-BU15</f>
+        <f t="shared" si="14"/>
         <v>1.1558038976</v>
       </c>
       <c r="CB15" s="2">
-        <f>BW15-BU15</f>
+        <f t="shared" si="15"/>
         <v>0.92334454070000005</v>
       </c>
       <c r="CC15" s="2">
@@ -6885,15 +6885,15 @@
         <v>-0.65189731200000001</v>
       </c>
       <c r="CJ15" s="2">
-        <f>CH15-CI15</f>
+        <f t="shared" si="16"/>
         <v>9.2889181900000062E-2</v>
       </c>
       <c r="CK15" s="2">
-        <f>CH15-CG15</f>
+        <f t="shared" si="17"/>
         <v>-5.7572770999999912E-2</v>
       </c>
       <c r="CL15" s="2">
-        <f>CI15-CG15</f>
+        <f t="shared" si="18"/>
         <v>-0.15046195289999997</v>
       </c>
       <c r="CM15" s="2">
@@ -6918,15 +6918,15 @@
         <v>-1.057969959</v>
       </c>
       <c r="CT15" s="2">
-        <f>CR15-CS15</f>
+        <f t="shared" si="19"/>
         <v>0.64861199860000007</v>
       </c>
       <c r="CU15" s="2">
-        <f>CR15-CQ15</f>
+        <f t="shared" si="20"/>
         <v>-0.37086840614</v>
       </c>
       <c r="CV15" s="2">
-        <f>CS15-CQ15</f>
+        <f t="shared" si="21"/>
         <v>-1.0194804047399999</v>
       </c>
       <c r="CW15" s="2">
@@ -6990,11 +6990,11 @@
         <v>-4.9816477112471997E-3</v>
       </c>
       <c r="DQ15">
-        <f>CY15-DC15</f>
+        <f t="shared" si="22"/>
         <v>-3.0303999083109989E-3</v>
       </c>
       <c r="DR15">
-        <f>((DA15-CY15)/CY15)*100</f>
+        <f t="shared" si="23"/>
         <v>19.278612893396073</v>
       </c>
     </row>
@@ -7153,15 +7153,15 @@
         <v>0.86051122800000002</v>
       </c>
       <c r="AZ16" s="2">
-        <f>AX16-AW16</f>
+        <f t="shared" si="0"/>
         <v>0.81805763980000012</v>
       </c>
       <c r="BA16" s="2">
-        <f>AY16-AW16</f>
+        <f t="shared" si="1"/>
         <v>2.3104792490000001</v>
       </c>
       <c r="BB16" s="2">
-        <f>AX16-AY16</f>
+        <f t="shared" si="2"/>
         <v>-1.4924216092</v>
       </c>
       <c r="BC16" s="2">
@@ -7177,15 +7177,15 @@
         <v>0.34691444030000002</v>
       </c>
       <c r="BG16" s="2">
-        <f>BE16-BD16</f>
+        <f t="shared" si="3"/>
         <v>-0.31364522150999996</v>
       </c>
       <c r="BH16" s="2">
-        <f>BF16-BD16</f>
+        <f t="shared" si="4"/>
         <v>0.38749058339000003</v>
       </c>
       <c r="BI16" s="2">
-        <f>BE16-BF16</f>
+        <f t="shared" si="5"/>
         <v>-0.70113580490000005</v>
       </c>
       <c r="BJ16" s="2">
@@ -7198,26 +7198,26 @@
         <v>48.007285860000003</v>
       </c>
       <c r="BM16" s="2">
-        <f>BL16-AE16</f>
+        <f t="shared" si="6"/>
         <v>39.30912386</v>
       </c>
       <c r="BN16" s="2">
         <v>48.630091090000001</v>
       </c>
       <c r="BO16" s="2">
-        <f>BN16-AF16</f>
+        <f t="shared" si="7"/>
         <v>12.744948090000001</v>
       </c>
       <c r="BP16" s="2">
-        <f>BL16-BK16</f>
+        <f t="shared" si="8"/>
         <v>6.1964364000000032</v>
       </c>
       <c r="BQ16" s="2">
-        <f>BN16-BK16</f>
+        <f t="shared" si="9"/>
         <v>6.8192416300000005</v>
       </c>
       <c r="BR16">
-        <f>BL16-BN16</f>
+        <f t="shared" si="10"/>
         <v>-0.62280522999999732</v>
       </c>
       <c r="BS16" s="6">
@@ -7236,23 +7236,23 @@
         <v>-0.24884495619999999</v>
       </c>
       <c r="BX16" s="2">
-        <f>BV16-CC16</f>
+        <f t="shared" si="11"/>
         <v>1.3032000872</v>
       </c>
       <c r="BY16" s="2">
-        <f>BW16-CD16</f>
+        <f t="shared" si="12"/>
         <v>0.82696603080000008</v>
       </c>
       <c r="BZ16" s="2">
-        <f>BV16-BW16</f>
+        <f t="shared" si="13"/>
         <v>0.85672489429999998</v>
       </c>
       <c r="CA16" s="2">
-        <f>BV16-BU16</f>
+        <f t="shared" si="14"/>
         <v>0.78741296969999997</v>
       </c>
       <c r="CB16" s="2">
-        <f>BW16-BU16</f>
+        <f t="shared" si="15"/>
         <v>-6.9311924599999991E-2</v>
       </c>
       <c r="CC16" s="2">
@@ -7277,15 +7277,15 @@
         <v>-1.6595674469999999</v>
       </c>
       <c r="CJ16" s="2">
-        <f>CH16-CI16</f>
+        <f t="shared" si="16"/>
         <v>1.7962382428999999</v>
       </c>
       <c r="CK16" s="2">
-        <f>CH16-CG16</f>
+        <f t="shared" si="17"/>
         <v>0.62875626880000002</v>
       </c>
       <c r="CL16" s="2">
-        <f>CI16-CG16</f>
+        <f t="shared" si="18"/>
         <v>-1.1674819741</v>
       </c>
       <c r="CM16" s="2">
@@ -7310,15 +7310,15 @@
         <v>-0.27418875040000001</v>
       </c>
       <c r="CT16" s="2">
-        <f>CR16-CS16</f>
+        <f t="shared" si="19"/>
         <v>-0.37104894430000002</v>
       </c>
       <c r="CU16" s="2">
-        <f>CR16-CQ16</f>
+        <f t="shared" si="20"/>
         <v>0.12839481779999995</v>
       </c>
       <c r="CV16" s="2">
-        <f>CS16-CQ16</f>
+        <f t="shared" si="21"/>
         <v>0.49944376209999997</v>
       </c>
       <c r="CW16" s="2">
@@ -7382,11 +7382,11 @@
         <v>-2.06871766713447E-2</v>
       </c>
       <c r="DQ16">
-        <f>CY16-DC16</f>
+        <f t="shared" si="22"/>
         <v>-1.2593000021297984E-2</v>
       </c>
       <c r="DR16">
-        <f>((DA16-CY16)/CY16)*100</f>
+        <f t="shared" si="23"/>
         <v>41.236947868391312</v>
       </c>
     </row>
@@ -7545,15 +7545,15 @@
         <v>-3.1000854690000001</v>
       </c>
       <c r="AZ17" s="2">
-        <f>AX17-AW17</f>
+        <f t="shared" si="0"/>
         <v>-5.7884882553500008</v>
       </c>
       <c r="BA17" s="2">
-        <f>AY17-AW17</f>
+        <f t="shared" si="1"/>
         <v>-3.0536929473500001</v>
       </c>
       <c r="BB17" s="2">
-        <f>AX17-AY17</f>
+        <f t="shared" si="2"/>
         <v>-2.7347953080000003</v>
       </c>
       <c r="BC17" s="2">
@@ -7569,15 +7569,15 @@
         <v>5.8883511120000002E-2</v>
       </c>
       <c r="BG17" s="2">
-        <f>BE17-BD17</f>
+        <f t="shared" si="3"/>
         <v>0.98594983699999994</v>
       </c>
       <c r="BH17" s="2">
-        <f>BF17-BD17</f>
+        <f t="shared" si="4"/>
         <v>0.79422706852000002</v>
       </c>
       <c r="BI17" s="2">
-        <f>BE17-BF17</f>
+        <f t="shared" si="5"/>
         <v>0.19172276847999997</v>
       </c>
       <c r="BJ17" s="2">
@@ -7590,26 +7590,26 @@
         <v>-23.381035359999998</v>
       </c>
       <c r="BM17" s="2">
-        <f>BL17-AE17</f>
+        <f t="shared" si="6"/>
         <v>-22.676740799999997</v>
       </c>
       <c r="BN17" s="2">
         <v>-12.72822669</v>
       </c>
       <c r="BO17" s="2">
-        <f>BN17-AF17</f>
+        <f t="shared" si="7"/>
         <v>-17.755158890000001</v>
       </c>
       <c r="BP17" s="2">
-        <f>BL17-BK17</f>
+        <f t="shared" si="8"/>
         <v>16.323434920000004</v>
       </c>
       <c r="BQ17" s="2">
-        <f>BN17-BK17</f>
+        <f t="shared" si="9"/>
         <v>26.976243590000003</v>
       </c>
       <c r="BR17">
-        <f>BL17-BN17</f>
+        <f t="shared" si="10"/>
         <v>-10.652808669999999</v>
       </c>
       <c r="BS17" s="6">
@@ -7628,23 +7628,23 @@
         <v>-1.3129164840000001</v>
       </c>
       <c r="BX17" s="2">
-        <f>BV17-CC17</f>
+        <f t="shared" si="11"/>
         <v>-0.29339772260000002</v>
       </c>
       <c r="BY17" s="2">
-        <f>BW17-CD17</f>
+        <f t="shared" si="12"/>
         <v>-0.4826084181000001</v>
       </c>
       <c r="BZ17" s="2">
-        <f>BV17-BW17</f>
+        <f t="shared" si="13"/>
         <v>0.91804822559999999</v>
       </c>
       <c r="CA17" s="2">
-        <f>BV17-BU17</f>
+        <f t="shared" si="14"/>
         <v>0.3123882369</v>
       </c>
       <c r="CB17" s="2">
-        <f>BW17-BU17</f>
+        <f t="shared" si="15"/>
         <v>-0.60565998870000004</v>
       </c>
       <c r="CC17" s="2">
@@ -7669,15 +7669,15 @@
         <v>-0.56292585559999997</v>
       </c>
       <c r="CJ17" s="2">
-        <f>CH17-CI17</f>
+        <f t="shared" si="16"/>
         <v>1.5098784977999999</v>
       </c>
       <c r="CK17" s="2">
-        <f>CH17-CG17</f>
+        <f t="shared" si="17"/>
         <v>0.6944055013999999</v>
       </c>
       <c r="CL17" s="2">
-        <f>CI17-CG17</f>
+        <f t="shared" si="18"/>
         <v>-0.81547299640000004</v>
       </c>
       <c r="CM17" s="2">
@@ -7702,15 +7702,15 @@
         <v>0.4061131603</v>
       </c>
       <c r="CT17" s="2">
-        <f>CR17-CS17</f>
+        <f t="shared" si="19"/>
         <v>0.32478367330000002</v>
       </c>
       <c r="CU17" s="2">
-        <f>CR17-CQ17</f>
+        <f t="shared" si="20"/>
         <v>0.96200728940000002</v>
       </c>
       <c r="CV17" s="2">
-        <f>CS17-CQ17</f>
+        <f t="shared" si="21"/>
         <v>0.6372236161</v>
       </c>
       <c r="CW17" s="2">
@@ -7774,11 +7774,11 @@
         <v>-2.4841600097715799E-2</v>
       </c>
       <c r="DQ17">
-        <f>CY17-DC17</f>
+        <f t="shared" si="22"/>
         <v>8.0505915102548953E-2</v>
       </c>
       <c r="DR17">
-        <f>((DA17-CY17)/CY17)*100</f>
+        <f t="shared" si="23"/>
         <v>-13.098325160143276</v>
       </c>
     </row>
@@ -7937,15 +7937,15 @@
         <v>-7.2697116250000002</v>
       </c>
       <c r="AZ18" s="2">
-        <f>AX18-AW18</f>
+        <f t="shared" si="0"/>
         <v>1.7878115739999996</v>
       </c>
       <c r="BA18" s="2">
-        <f>AY18-AW18</f>
+        <f t="shared" si="1"/>
         <v>-2.3882584740000006</v>
       </c>
       <c r="BB18" s="2">
-        <f>AX18-AY18</f>
+        <f t="shared" si="2"/>
         <v>4.1760700479999997</v>
       </c>
       <c r="BC18" s="2">
@@ -7961,15 +7961,15 @@
         <v>4.9388800990000002E-2</v>
       </c>
       <c r="BG18" s="2">
-        <f>BE18-BD18</f>
+        <f t="shared" si="3"/>
         <v>-0.19455185455000001</v>
       </c>
       <c r="BH18" s="2">
-        <f>BF18-BD18</f>
+        <f t="shared" si="4"/>
         <v>-0.12327093201</v>
       </c>
       <c r="BI18" s="2">
-        <f>BE18-BF18</f>
+        <f t="shared" si="5"/>
         <v>-7.128092254E-2</v>
       </c>
       <c r="BJ18" s="2">
@@ -7982,26 +7982,26 @@
         <v>6.3845210870000004</v>
       </c>
       <c r="BM18" s="2">
-        <f>BL18-AE18</f>
+        <f t="shared" si="6"/>
         <v>10.946982487</v>
       </c>
       <c r="BN18" s="2">
         <v>27.767349800000002</v>
       </c>
       <c r="BO18" s="2">
-        <f>BN18-AF18</f>
+        <f t="shared" si="7"/>
         <v>1.7782798</v>
       </c>
       <c r="BP18" s="2">
-        <f>BL18-BK18</f>
+        <f t="shared" si="8"/>
         <v>71.164255996999998</v>
       </c>
       <c r="BQ18" s="2">
-        <f>BN18-BK18</f>
+        <f t="shared" si="9"/>
         <v>92.547084710000007</v>
       </c>
       <c r="BR18">
-        <f>BL18-BN18</f>
+        <f t="shared" si="10"/>
         <v>-21.382828713000002</v>
       </c>
       <c r="BS18" s="6">
@@ -8020,23 +8020,23 @@
         <v>-0.23806622769999999</v>
       </c>
       <c r="BX18" s="2">
-        <f>BV18-CC18</f>
+        <f t="shared" si="11"/>
         <v>2.3397339999997602E-4</v>
       </c>
       <c r="BY18" s="2">
-        <f>BW18-CD18</f>
+        <f t="shared" si="12"/>
         <v>8.5921667900000026E-2</v>
       </c>
       <c r="BZ18" s="2">
-        <f>BV18-BW18</f>
+        <f t="shared" si="13"/>
         <v>0.64874399760000001</v>
       </c>
       <c r="CA18" s="2">
-        <f>BV18-BU18</f>
+        <f t="shared" si="14"/>
         <v>0.40749840810499999</v>
       </c>
       <c r="CB18" s="2">
-        <f>BW18-BU18</f>
+        <f t="shared" si="15"/>
         <v>-0.241245589495</v>
       </c>
       <c r="CC18" s="2">
@@ -8061,15 +8061,15 @@
         <v>-0.53974141620000005</v>
       </c>
       <c r="CJ18" s="2">
-        <f>CH18-CI18</f>
+        <f t="shared" si="16"/>
         <v>1.5016245927</v>
       </c>
       <c r="CK18" s="2">
-        <f>CH18-CG18</f>
+        <f t="shared" si="17"/>
         <v>-1.2529581454999998</v>
       </c>
       <c r="CL18" s="2">
-        <f>CI18-CG18</f>
+        <f t="shared" si="18"/>
         <v>-2.7545827381999999</v>
       </c>
       <c r="CM18" s="2">
@@ -8094,15 +8094,15 @@
         <v>-0.29362374390000001</v>
       </c>
       <c r="CT18" s="2">
-        <f>CR18-CS18</f>
+        <f t="shared" si="19"/>
         <v>0.75194970370000003</v>
       </c>
       <c r="CU18" s="2">
-        <f>CR18-CQ18</f>
+        <f t="shared" si="20"/>
         <v>0.62908235980000005</v>
       </c>
       <c r="CV18" s="2">
-        <f>CS18-CQ18</f>
+        <f t="shared" si="21"/>
         <v>-0.12286734390000001</v>
       </c>
       <c r="CW18" s="2">
@@ -8166,11 +8166,11 @@
         <v>-3.9855759358033503E-2</v>
       </c>
       <c r="DQ18">
-        <f>CY18-DC18</f>
+        <f t="shared" si="22"/>
         <v>-1.7357699805869986E-2</v>
       </c>
       <c r="DR18">
-        <f>((DA18-CY18)/CY18)*100</f>
+        <f t="shared" si="23"/>
         <v>43.738575620087964</v>
       </c>
     </row>
@@ -8329,15 +8329,15 @@
         <v>-1.033778101</v>
       </c>
       <c r="AZ19" s="2">
-        <f>AX19-AW19</f>
+        <f t="shared" si="0"/>
         <v>1.1687610070000001</v>
       </c>
       <c r="BA19" s="2">
-        <f>AY19-AW19</f>
+        <f t="shared" si="1"/>
         <v>1.2524024230000002</v>
       </c>
       <c r="BB19" s="2">
-        <f>AX19-AY19</f>
+        <f t="shared" si="2"/>
         <v>-8.3641416000000079E-2</v>
       </c>
       <c r="BC19" s="2">
@@ -8353,15 +8353,15 @@
         <v>0.4083220065</v>
       </c>
       <c r="BG19" s="2">
-        <f>BE19-BD19</f>
+        <f t="shared" si="3"/>
         <v>-0.27389949359999999</v>
       </c>
       <c r="BH19" s="2">
-        <f>BF19-BD19</f>
+        <f t="shared" si="4"/>
         <v>-0.61595868149999999</v>
       </c>
       <c r="BI19" s="2">
-        <f>BE19-BF19</f>
+        <f t="shared" si="5"/>
         <v>0.34205918789999995</v>
       </c>
       <c r="BJ19" s="2">
@@ -8374,26 +8374,26 @@
         <v>-29.08026036</v>
       </c>
       <c r="BM19" s="2">
-        <f>BL19-AE19</f>
+        <f t="shared" si="6"/>
         <v>-43.657527360000003</v>
       </c>
       <c r="BN19" s="2">
         <v>-25.593888209999999</v>
       </c>
       <c r="BO19" s="2">
-        <f>BN19-AF19</f>
+        <f t="shared" si="7"/>
         <v>-29.708525609999999</v>
       </c>
       <c r="BP19" s="2">
-        <f>BL19-BK19</f>
+        <f t="shared" si="8"/>
         <v>-2.560551880000002</v>
       </c>
       <c r="BQ19" s="2">
-        <f>BN19-BK19</f>
+        <f t="shared" si="9"/>
         <v>0.92582026999999911</v>
       </c>
       <c r="BR19">
-        <f>BL19-BN19</f>
+        <f t="shared" si="10"/>
         <v>-3.4863721500000011</v>
       </c>
       <c r="BS19" s="6">
@@ -8412,23 +8412,23 @@
         <v>0.47814394630000001</v>
       </c>
       <c r="BX19" s="2">
-        <f>BV19-CC19</f>
+        <f t="shared" si="11"/>
         <v>0.6062743706</v>
       </c>
       <c r="BY19" s="2">
-        <f>BW19-CD19</f>
+        <f t="shared" si="12"/>
         <v>-0.10656361780000001</v>
       </c>
       <c r="BZ19" s="2">
-        <f>BV19-BW19</f>
+        <f t="shared" si="13"/>
         <v>-5.3905692000000283E-3</v>
       </c>
       <c r="CA19" s="2">
-        <f>BV19-BU19</f>
+        <f t="shared" si="14"/>
         <v>1.8243101491</v>
       </c>
       <c r="CB19" s="2">
-        <f>BW19-BU19</f>
+        <f t="shared" si="15"/>
         <v>1.8297007182999998</v>
       </c>
       <c r="CC19" s="2">
@@ -8453,15 +8453,15 @@
         <v>1.195010444</v>
       </c>
       <c r="CJ19" s="2">
-        <f>CH19-CI19</f>
+        <f t="shared" si="16"/>
         <v>-1.1805468695200001</v>
       </c>
       <c r="CK19" s="2">
-        <f>CH19-CG19</f>
+        <f t="shared" si="17"/>
         <v>-9.9853025719999988E-2</v>
       </c>
       <c r="CL19" s="2">
-        <f>CI19-CG19</f>
+        <f t="shared" si="18"/>
         <v>1.0806938438</v>
       </c>
       <c r="CM19" s="2">
@@ -8486,15 +8486,15 @@
         <v>-0.3525999863</v>
       </c>
       <c r="CT19" s="2">
-        <f>CR19-CS19</f>
+        <f t="shared" si="19"/>
         <v>0.14475131520000001</v>
       </c>
       <c r="CU19" s="2">
-        <f>CR19-CQ19</f>
+        <f t="shared" si="20"/>
         <v>0.47633023489999998</v>
       </c>
       <c r="CV19" s="2">
-        <f>CS19-CQ19</f>
+        <f t="shared" si="21"/>
         <v>0.33157891969999997</v>
       </c>
       <c r="CW19" s="2">
@@ -8558,11 +8558,11 @@
         <v>-1.0860315449463E-2</v>
       </c>
       <c r="DQ19">
-        <f>CY19-DC19</f>
+        <f t="shared" si="22"/>
         <v>-1.2112331582102009E-2</v>
       </c>
       <c r="DR19">
-        <f>((DA19-CY19)/CY19)*100</f>
+        <f t="shared" si="23"/>
         <v>6.8763341150044566</v>
       </c>
     </row>
@@ -8721,15 +8721,15 @@
         <v>-0.1674865971</v>
       </c>
       <c r="AZ20" s="2">
-        <f>AX20-AW20</f>
+        <f t="shared" si="0"/>
         <v>0.73958042140000002</v>
       </c>
       <c r="BA20" s="2">
-        <f>AY20-AW20</f>
+        <f t="shared" si="1"/>
         <v>-0.32275136409999999</v>
       </c>
       <c r="BB20" s="2">
-        <f>AX20-AY20</f>
+        <f t="shared" si="2"/>
         <v>1.0623317855000001</v>
       </c>
       <c r="BC20" s="2">
@@ -8745,15 +8745,15 @@
         <v>-0.2261914266</v>
       </c>
       <c r="BG20" s="2">
-        <f>BE20-BD20</f>
+        <f t="shared" si="3"/>
         <v>-0.49180173941999999</v>
       </c>
       <c r="BH20" s="2">
-        <f>BF20-BD20</f>
+        <f t="shared" si="4"/>
         <v>-0.62942243809999998</v>
       </c>
       <c r="BI20" s="2">
-        <f>BE20-BF20</f>
+        <f t="shared" si="5"/>
         <v>0.13762069867999999</v>
       </c>
       <c r="BJ20" s="2">
@@ -8766,26 +8766,26 @@
         <v>1.674479024</v>
       </c>
       <c r="BM20" s="2">
-        <f>BL20-AE20</f>
+        <f t="shared" si="6"/>
         <v>16.581365024</v>
       </c>
       <c r="BN20" s="2">
         <v>1.2440411730000001</v>
       </c>
       <c r="BO20" s="2">
-        <f>BN20-AF20</f>
+        <f t="shared" si="7"/>
         <v>7.5160981730000005</v>
       </c>
       <c r="BP20" s="2">
-        <f>BL20-BK20</f>
+        <f t="shared" si="8"/>
         <v>29.475201473999999</v>
       </c>
       <c r="BQ20" s="2">
-        <f>BN20-BK20</f>
+        <f t="shared" si="9"/>
         <v>29.044763622999998</v>
       </c>
       <c r="BR20">
-        <f>BL20-BN20</f>
+        <f t="shared" si="10"/>
         <v>0.43043785099999998</v>
       </c>
       <c r="BS20" s="6">
@@ -8804,23 +8804,23 @@
         <v>1.2072689969999999</v>
       </c>
       <c r="BX20" s="2">
-        <f>BV20-CC20</f>
+        <f t="shared" si="11"/>
         <v>0.17651804239999991</v>
       </c>
       <c r="BY20" s="2">
-        <f>BW20-CD20</f>
+        <f t="shared" si="12"/>
         <v>0.70684009789999991</v>
       </c>
       <c r="BZ20" s="2">
-        <f>BV20-BW20</f>
+        <f t="shared" si="13"/>
         <v>-0.24990999579999995</v>
       </c>
       <c r="CA20" s="2">
-        <f>BV20-BU20</f>
+        <f t="shared" si="14"/>
         <v>1.5995153188</v>
       </c>
       <c r="CB20" s="2">
-        <f>BW20-BU20</f>
+        <f t="shared" si="15"/>
         <v>1.8494253145999999</v>
       </c>
       <c r="CC20" s="2">
@@ -8845,15 +8845,15 @@
         <v>-1.5407721270000001E-2</v>
       </c>
       <c r="CJ20" s="2">
-        <f>CH20-CI20</f>
+        <f t="shared" si="16"/>
         <v>0.65987254816999996</v>
       </c>
       <c r="CK20" s="2">
-        <f>CH20-CG20</f>
+        <f t="shared" si="17"/>
         <v>1.3525857994999999</v>
       </c>
       <c r="CL20" s="2">
-        <f>CI20-CG20</f>
+        <f t="shared" si="18"/>
         <v>0.69271325132999995</v>
       </c>
       <c r="CM20" s="2">
@@ -8878,15 +8878,15 @@
         <v>4.1300691489999999E-2</v>
       </c>
       <c r="CT20" s="2">
-        <f>CR20-CS20</f>
+        <f t="shared" si="19"/>
         <v>-0.37699763299</v>
       </c>
       <c r="CU20" s="2">
-        <f>CR20-CQ20</f>
+        <f t="shared" si="20"/>
         <v>-0.25627268754999999</v>
       </c>
       <c r="CV20" s="2">
-        <f>CS20-CQ20</f>
+        <f t="shared" si="21"/>
         <v>0.12072494543999999</v>
       </c>
       <c r="CW20" s="2">
@@ -8950,11 +8950,11 @@
         <v>-3.0062780534535701E-2</v>
       </c>
       <c r="DQ20">
-        <f>CY20-DC20</f>
+        <f t="shared" si="22"/>
         <v>-1.6260741744189983E-2</v>
       </c>
       <c r="DR20">
-        <f>((DA20-CY20)/CY20)*100</f>
+        <f t="shared" si="23"/>
         <v>20.381725008073957</v>
       </c>
     </row>
@@ -9113,15 +9113,15 @@
         <v>-2.3582983629999998</v>
       </c>
       <c r="AZ21" s="2">
-        <f>AX21-AW21</f>
+        <f t="shared" si="0"/>
         <v>-4.1829709670000002</v>
       </c>
       <c r="BA21" s="2">
-        <f>AY21-AW21</f>
+        <f t="shared" si="1"/>
         <v>0.60590257000000003</v>
       </c>
       <c r="BB21" s="2">
-        <f>AX21-AY21</f>
+        <f t="shared" si="2"/>
         <v>-4.7888735370000006</v>
       </c>
       <c r="BC21" s="2">
@@ -9137,15 +9137,15 @@
         <v>-5.4903201509999999E-2</v>
       </c>
       <c r="BG21" s="2">
-        <f>BE21-BD21</f>
+        <f t="shared" si="3"/>
         <v>0.12818497826</v>
       </c>
       <c r="BH21" s="2">
-        <f>BF21-BD21</f>
+        <f t="shared" si="4"/>
         <v>-2.5101522960000001E-2</v>
       </c>
       <c r="BI21" s="2">
-        <f>BE21-BF21</f>
+        <f t="shared" si="5"/>
         <v>0.15328650121999998</v>
       </c>
       <c r="BJ21" s="2">
@@ -9158,26 +9158,26 @@
         <v>32.717373600000002</v>
       </c>
       <c r="BM21" s="2">
-        <f>BL21-AE21</f>
+        <f t="shared" si="6"/>
         <v>7.1764136000000036</v>
       </c>
       <c r="BN21" s="2">
         <v>13.64779132</v>
       </c>
       <c r="BO21" s="2">
-        <f>BN21-AF21</f>
+        <f t="shared" si="7"/>
         <v>11.541431119999999</v>
       </c>
       <c r="BP21" s="2">
-        <f>BL21-BK21</f>
+        <f t="shared" si="8"/>
         <v>55.301656170000001</v>
       </c>
       <c r="BQ21" s="2">
-        <f>BN21-BK21</f>
+        <f t="shared" si="9"/>
         <v>36.232073889999995</v>
       </c>
       <c r="BR21">
-        <f>BL21-BN21</f>
+        <f t="shared" si="10"/>
         <v>19.069582280000002</v>
       </c>
       <c r="BS21" s="6">
@@ -9196,23 +9196,23 @@
         <v>0.17319428240000001</v>
       </c>
       <c r="BX21" s="2">
-        <f>BV21-CC21</f>
+        <f t="shared" si="11"/>
         <v>-0.29642320899999985</v>
       </c>
       <c r="BY21" s="2">
-        <f>BW21-CD21</f>
+        <f t="shared" si="12"/>
         <v>-0.77882569879999997</v>
       </c>
       <c r="BZ21" s="2">
-        <f>BV21-BW21</f>
+        <f t="shared" si="13"/>
         <v>0.93335302260000008</v>
       </c>
       <c r="CA21" s="2">
-        <f>BV21-BU21</f>
+        <f t="shared" si="14"/>
         <v>2.5089190260000001</v>
       </c>
       <c r="CB21" s="2">
-        <f>BW21-BU21</f>
+        <f t="shared" si="15"/>
         <v>1.5755660034000001</v>
       </c>
       <c r="CC21" s="2">
@@ -9237,15 +9237,15 @@
         <v>0.22744832500000001</v>
       </c>
       <c r="CJ21" s="2">
-        <f>CH21-CI21</f>
+        <f t="shared" si="16"/>
         <v>-0.4876018989</v>
       </c>
       <c r="CK21" s="2">
-        <f>CH21-CG21</f>
+        <f t="shared" si="17"/>
         <v>0.83691222309999991</v>
       </c>
       <c r="CL21" s="2">
-        <f>CI21-CG21</f>
+        <f t="shared" si="18"/>
         <v>1.3245141220000001</v>
       </c>
       <c r="CM21" s="2">
@@ -9270,15 +9270,15 @@
         <v>-0.34064600210000001</v>
       </c>
       <c r="CT21" s="2">
-        <f>CR21-CS21</f>
+        <f t="shared" si="19"/>
         <v>0.30093601740000003</v>
       </c>
       <c r="CU21" s="2">
-        <f>CR21-CQ21</f>
+        <f t="shared" si="20"/>
         <v>-0.37379246419999995</v>
       </c>
       <c r="CV21" s="2">
-        <f>CS21-CQ21</f>
+        <f t="shared" si="21"/>
         <v>-0.67472848159999999</v>
       </c>
       <c r="CW21" s="2">
@@ -9342,11 +9342,11 @@
         <v>-3.1870396283920799E-2</v>
       </c>
       <c r="DQ21">
-        <f>CY21-DC21</f>
+        <f t="shared" si="22"/>
         <v>-1.7598600003112003E-2</v>
       </c>
       <c r="DR21">
-        <f>((DA21-CY21)/CY21)*100</f>
+        <f t="shared" si="23"/>
         <v>13.650574343681157</v>
       </c>
     </row>
@@ -9505,15 +9505,15 @@
         <v>0.91155584909999998</v>
       </c>
       <c r="AZ22" s="2">
-        <f>AX22-AW22</f>
+        <f t="shared" si="0"/>
         <v>-4.1382569982000001</v>
       </c>
       <c r="BA22" s="2">
-        <f>AY22-AW22</f>
+        <f t="shared" si="1"/>
         <v>0.74752114589999996</v>
       </c>
       <c r="BB22" s="2">
-        <f>AX22-AY22</f>
+        <f t="shared" si="2"/>
         <v>-4.8857781440999997</v>
       </c>
       <c r="BC22" s="2">
@@ -9529,15 +9529,15 @@
         <v>-9.6554558309999997E-2</v>
       </c>
       <c r="BG22" s="2">
-        <f>BE22-BD22</f>
+        <f t="shared" si="3"/>
         <v>4.5679969000000098E-3</v>
       </c>
       <c r="BH22" s="2">
-        <f>BF22-BD22</f>
+        <f t="shared" si="4"/>
         <v>0.12711342529000003</v>
       </c>
       <c r="BI22" s="2">
-        <f>BE22-BF22</f>
+        <f t="shared" si="5"/>
         <v>-0.12254542839</v>
       </c>
       <c r="BJ22" s="2">
@@ -9550,26 +9550,26 @@
         <v>35.054950679999997</v>
       </c>
       <c r="BM22" s="2">
-        <f>BL22-AE22</f>
+        <f t="shared" si="6"/>
         <v>51.384057679999998</v>
       </c>
       <c r="BN22" s="2">
         <v>34.034090499999998</v>
       </c>
       <c r="BO22" s="2">
-        <f>BN22-AF22</f>
+        <f t="shared" si="7"/>
         <v>45.269219499999998</v>
       </c>
       <c r="BP22" s="2">
-        <f>BL22-BK22</f>
+        <f t="shared" si="8"/>
         <v>44.96427336</v>
       </c>
       <c r="BQ22" s="2">
-        <f>BN22-BK22</f>
+        <f t="shared" si="9"/>
         <v>43.94341318</v>
       </c>
       <c r="BR22">
-        <f>BL22-BN22</f>
+        <f t="shared" si="10"/>
         <v>1.0208601799999997</v>
       </c>
       <c r="BS22" s="6">
@@ -9588,23 +9588,23 @@
         <v>-1.4247036689999999</v>
       </c>
       <c r="BX22" s="2">
-        <f>BV22-CC22</f>
+        <f t="shared" si="11"/>
         <v>-0.92918534210000003</v>
       </c>
       <c r="BY22" s="2">
-        <f>BW22-CD22</f>
+        <f t="shared" si="12"/>
         <v>-1.5846322288999999</v>
       </c>
       <c r="BZ22" s="2">
-        <f>BV22-BW22</f>
+        <f t="shared" si="13"/>
         <v>0.83421230119999989</v>
       </c>
       <c r="CA22" s="2">
-        <f>BV22-BU22</f>
+        <f t="shared" si="14"/>
         <v>0.95459971020000001</v>
       </c>
       <c r="CB22" s="2">
-        <f>BW22-BU22</f>
+        <f t="shared" si="15"/>
         <v>0.12038740900000011</v>
       </c>
       <c r="CC22" s="2">
@@ -9629,15 +9629,15 @@
         <v>1.604891297</v>
       </c>
       <c r="CJ22" s="2">
-        <f>CH22-CI22</f>
+        <f t="shared" si="16"/>
         <v>-2.0535109395000002</v>
       </c>
       <c r="CK22" s="2">
-        <f>CH22-CG22</f>
+        <f t="shared" si="17"/>
         <v>-0.8226548776</v>
       </c>
       <c r="CL22" s="2">
-        <f>CI22-CG22</f>
+        <f t="shared" si="18"/>
         <v>1.2308560619</v>
       </c>
       <c r="CM22" s="2">
@@ -9662,15 +9662,15 @@
         <v>0.35095918910000001</v>
       </c>
       <c r="CT22" s="2">
-        <f>CR22-CS22</f>
+        <f t="shared" si="19"/>
         <v>-0.39765909621000001</v>
       </c>
       <c r="CU22" s="2">
-        <f>CR22-CQ22</f>
+        <f t="shared" si="20"/>
         <v>0.23742273158999999</v>
       </c>
       <c r="CV22" s="2">
-        <f>CS22-CQ22</f>
+        <f t="shared" si="21"/>
         <v>0.6350818278</v>
       </c>
       <c r="CW22" s="2">
@@ -9734,11 +9734,11 @@
         <v>-6.6810418211389298E-3</v>
       </c>
       <c r="DQ22">
-        <f>CY22-DC22</f>
+        <f t="shared" si="22"/>
         <v>1.3752999948339895E-3</v>
       </c>
       <c r="DR22">
-        <f>((DA22-CY22)/CY22)*100</f>
+        <f t="shared" si="23"/>
         <v>3.2740629443776896</v>
       </c>
     </row>
@@ -9897,15 +9897,15 @@
         <v>-2.5554451</v>
       </c>
       <c r="AZ23" s="2">
-        <f>AX23-AW23</f>
+        <f t="shared" si="0"/>
         <v>-2.4552026321999998</v>
       </c>
       <c r="BA23" s="2">
-        <f>AY23-AW23</f>
+        <f t="shared" si="1"/>
         <v>-1.9618349051999999</v>
       </c>
       <c r="BB23" s="2">
-        <f>AX23-AY23</f>
+        <f t="shared" si="2"/>
         <v>-0.49336772699999987</v>
       </c>
       <c r="BC23" s="2">
@@ -9921,15 +9921,15 @@
         <v>-0.53484544840000003</v>
       </c>
       <c r="BG23" s="2">
-        <f>BE23-BD23</f>
+        <f t="shared" si="3"/>
         <v>-1.0090012822999999</v>
       </c>
       <c r="BH23" s="2">
-        <f>BF23-BD23</f>
+        <f t="shared" si="4"/>
         <v>-1.0112136749</v>
       </c>
       <c r="BI23" s="2">
-        <f>BE23-BF23</f>
+        <f t="shared" si="5"/>
         <v>2.2123926000000571E-3</v>
       </c>
       <c r="BJ23" s="2">
@@ -9942,26 +9942,26 @@
         <v>56.166537050000002</v>
       </c>
       <c r="BM23" s="2">
-        <f>BL23-AE23</f>
+        <f t="shared" si="6"/>
         <v>36.639640049999997</v>
       </c>
       <c r="BN23" s="2">
         <v>16.814182469999999</v>
       </c>
       <c r="BO23" s="2">
-        <f>BN23-AF23</f>
+        <f t="shared" si="7"/>
         <v>45.34066747</v>
       </c>
       <c r="BP23" s="2">
-        <f>BL23-BK23</f>
+        <f t="shared" si="8"/>
         <v>67.250232310000001</v>
       </c>
       <c r="BQ23" s="2">
-        <f>BN23-BK23</f>
+        <f t="shared" si="9"/>
         <v>27.897877729999998</v>
       </c>
       <c r="BR23">
-        <f>BL23-BN23</f>
+        <f t="shared" si="10"/>
         <v>39.352354580000004</v>
       </c>
       <c r="BS23" s="6">
@@ -9980,23 +9980,23 @@
         <v>0.77321384569999996</v>
       </c>
       <c r="BX23" s="2">
-        <f>BV23-CC23</f>
+        <f t="shared" si="11"/>
         <v>0.27340530681999997</v>
       </c>
       <c r="BY23" s="2">
-        <f>BW23-CD23</f>
+        <f t="shared" si="12"/>
         <v>0.19193205849999995</v>
       </c>
       <c r="BZ23" s="2">
-        <f>BV23-BW23</f>
+        <f t="shared" si="13"/>
         <v>-0.53463554469999996</v>
       </c>
       <c r="CA23" s="2">
-        <f>BV23-BU23</f>
+        <f t="shared" si="14"/>
         <v>1.633255071</v>
       </c>
       <c r="CB23" s="2">
-        <f>BW23-BU23</f>
+        <f t="shared" si="15"/>
         <v>2.1678906157000002</v>
       </c>
       <c r="CC23" s="2">
@@ -10021,15 +10021,15 @@
         <v>-0.2599405984</v>
       </c>
       <c r="CJ23" s="2">
-        <f>CH23-CI23</f>
+        <f t="shared" si="16"/>
         <v>5.612293530000001E-2</v>
       </c>
       <c r="CK23" s="2">
-        <f>CH23-CG23</f>
+        <f t="shared" si="17"/>
         <v>-7.6773102399999987E-2</v>
       </c>
       <c r="CL23" s="2">
-        <f>CI23-CG23</f>
+        <f t="shared" si="18"/>
         <v>-0.1328960377</v>
       </c>
       <c r="CM23" s="2">
@@ -10054,15 +10054,15 @@
         <v>-0.73778712749999997</v>
       </c>
       <c r="CT23" s="2">
-        <f>CR23-CS23</f>
+        <f t="shared" si="19"/>
         <v>0.5781009949</v>
       </c>
       <c r="CU23" s="2">
-        <f>CR23-CQ23</f>
+        <f t="shared" si="20"/>
         <v>0.32608191880000004</v>
       </c>
       <c r="CV23" s="2">
-        <f>CS23-CQ23</f>
+        <f t="shared" si="21"/>
         <v>-0.25201907609999996</v>
       </c>
       <c r="CW23" s="2">
@@ -10126,11 +10126,11 @@
         <v>-3.0835699999443002E-2</v>
       </c>
       <c r="DQ23">
-        <f>CY23-DC23</f>
+        <f t="shared" si="22"/>
         <v>-3.5533410264180221E-3</v>
       </c>
       <c r="DR23">
-        <f>((DA23-CY23)/CY23)*100</f>
+        <f t="shared" si="23"/>
         <v>3.9597529863957632</v>
       </c>
     </row>
@@ -10289,15 +10289,15 @@
         <v>-6.1578737200000004</v>
       </c>
       <c r="AZ24" s="2">
-        <f>AX24-AW24</f>
+        <f t="shared" si="0"/>
         <v>10.393899568</v>
       </c>
       <c r="BA24" s="2">
-        <f>AY24-AW24</f>
+        <f t="shared" si="1"/>
         <v>-1.750487176</v>
       </c>
       <c r="BB24" s="2">
-        <f>AX24-AY24</f>
+        <f t="shared" si="2"/>
         <v>12.144386744</v>
       </c>
       <c r="BC24" s="2">
@@ -10313,15 +10313,15 @@
         <v>0.15054196889999999</v>
       </c>
       <c r="BG24" s="2">
-        <f>BE24-BD24</f>
+        <f t="shared" si="3"/>
         <v>0.28505080279</v>
       </c>
       <c r="BH24" s="2">
-        <f>BF24-BD24</f>
+        <f t="shared" si="4"/>
         <v>0.4632366396</v>
       </c>
       <c r="BI24" s="2">
-        <f>BE24-BF24</f>
+        <f t="shared" si="5"/>
         <v>-0.17818583681</v>
       </c>
       <c r="BJ24" s="2">
@@ -10334,26 +10334,26 @@
         <v>-0.91641756929999996</v>
       </c>
       <c r="BM24" s="2">
-        <f>BL24-AE24</f>
+        <f t="shared" si="6"/>
         <v>-2.2665860693000002</v>
       </c>
       <c r="BN24" s="2">
         <v>-14.803600700000001</v>
       </c>
       <c r="BO24" s="2">
-        <f>BN24-AF24</f>
+        <f t="shared" si="7"/>
         <v>-40.247244699999996</v>
       </c>
       <c r="BP24" s="2">
-        <f>BL24-BK24</f>
+        <f t="shared" si="8"/>
         <v>53.307759860699996</v>
       </c>
       <c r="BQ24" s="2">
-        <f>BN24-BK24</f>
+        <f t="shared" si="9"/>
         <v>39.420576729999993</v>
       </c>
       <c r="BR24">
-        <f>BL24-BN24</f>
+        <f t="shared" si="10"/>
         <v>13.8871831307</v>
       </c>
       <c r="BS24" s="6">
@@ -10372,23 +10372,23 @@
         <v>1.5958474</v>
       </c>
       <c r="BX24" s="2">
-        <f>BV24-CC24</f>
+        <f t="shared" si="11"/>
         <v>1.3741355141999998</v>
       </c>
       <c r="BY24" s="2">
-        <f>BW24-CD24</f>
+        <f t="shared" si="12"/>
         <v>0.70663613130000003</v>
       </c>
       <c r="BZ24" s="2">
-        <f>BV24-BW24</f>
+        <f t="shared" si="13"/>
         <v>-3.0922585000000113E-2</v>
       </c>
       <c r="CA24" s="2">
-        <f>BV24-BU24</f>
+        <f t="shared" si="14"/>
         <v>0.5848521713999999</v>
       </c>
       <c r="CB24" s="2">
-        <f>BW24-BU24</f>
+        <f t="shared" si="15"/>
         <v>0.61577475640000001</v>
       </c>
       <c r="CC24" s="2">
@@ -10413,15 +10413,15 @@
         <v>0.86400428330000001</v>
       </c>
       <c r="CJ24" s="2">
-        <f>CH24-CI24</f>
+        <f t="shared" si="16"/>
         <v>-1.6932321296000001</v>
       </c>
       <c r="CK24" s="2">
-        <f>CH24-CG24</f>
+        <f t="shared" si="17"/>
         <v>-0.94624068429999997</v>
       </c>
       <c r="CL24" s="2">
-        <f>CI24-CG24</f>
+        <f t="shared" si="18"/>
         <v>0.74699144530000006</v>
       </c>
       <c r="CM24" s="2">
@@ -10446,15 +10446,15 @@
         <v>2.7634796770000001E-2</v>
       </c>
       <c r="CT24" s="2">
-        <f>CR24-CS24</f>
+        <f t="shared" si="19"/>
         <v>-0.11055080847</v>
       </c>
       <c r="CU24" s="2">
-        <f>CR24-CQ24</f>
+        <f t="shared" si="20"/>
         <v>6.8919178300000009E-2</v>
       </c>
       <c r="CV24" s="2">
-        <f>CS24-CQ24</f>
+        <f t="shared" si="21"/>
         <v>0.17946998677000001</v>
       </c>
       <c r="CW24" s="2">
@@ -10518,11 +10518,11 @@
         <v>-8.1175750718102693E-2</v>
       </c>
       <c r="DQ24">
-        <f>CY24-DC24</f>
+        <f t="shared" si="22"/>
         <v>-6.7212299967649991E-2</v>
       </c>
       <c r="DR24">
-        <f>((DA24-CY24)/CY24)*100</f>
+        <f t="shared" si="23"/>
         <v>53.256172193528037</v>
       </c>
     </row>
@@ -10681,15 +10681,15 @@
         <v>-0.14153489059999999</v>
       </c>
       <c r="AZ25" s="2">
-        <f>AX25-AW25</f>
+        <f t="shared" si="0"/>
         <v>-2.4760121416</v>
       </c>
       <c r="BA25" s="2">
-        <f>AY25-AW25</f>
+        <f t="shared" si="1"/>
         <v>0.34889973780000005</v>
       </c>
       <c r="BB25" s="2">
-        <f>AX25-AY25</f>
+        <f t="shared" si="2"/>
         <v>-2.8249118794000001</v>
       </c>
       <c r="BC25" s="2">
@@ -10705,15 +10705,15 @@
         <v>-2.1626349289999999E-2</v>
       </c>
       <c r="BG25" s="2">
-        <f>BE25-BD25</f>
+        <f t="shared" si="3"/>
         <v>0.49759623539999998</v>
       </c>
       <c r="BH25" s="2">
-        <f>BF25-BD25</f>
+        <f t="shared" si="4"/>
         <v>0.21624561080999999</v>
       </c>
       <c r="BI25" s="2">
-        <f>BE25-BF25</f>
+        <f t="shared" si="5"/>
         <v>0.28135062458999999</v>
       </c>
       <c r="BJ25" s="2">
@@ -10726,26 +10726,26 @@
         <v>21.3973017</v>
       </c>
       <c r="BM25" s="2">
-        <f>BL25-AE25</f>
+        <f t="shared" si="6"/>
         <v>2.1081897000000005</v>
       </c>
       <c r="BN25" s="2">
         <v>25.945544930000001</v>
       </c>
       <c r="BO25" s="2">
-        <f>BN25-AF25</f>
+        <f t="shared" si="7"/>
         <v>11.95218693</v>
       </c>
       <c r="BP25" s="2">
-        <f>BL25-BK25</f>
+        <f t="shared" si="8"/>
         <v>42.617287739999995</v>
       </c>
       <c r="BQ25" s="2">
-        <f>BN25-BK25</f>
+        <f t="shared" si="9"/>
         <v>47.165530969999999</v>
       </c>
       <c r="BR25">
-        <f>BL25-BN25</f>
+        <f t="shared" si="10"/>
         <v>-4.5482432300000006</v>
       </c>
       <c r="BS25" s="6">
@@ -10764,23 +10764,23 @@
         <v>1.8076972120000001</v>
       </c>
       <c r="BX25" s="2">
-        <f>BV25-CC25</f>
+        <f t="shared" si="11"/>
         <v>2.596325153</v>
       </c>
       <c r="BY25" s="2">
-        <f>BW25-CD25</f>
+        <f t="shared" si="12"/>
         <v>1.4716906943000001</v>
       </c>
       <c r="BZ25" s="2">
-        <f>BV25-BW25</f>
+        <f t="shared" si="13"/>
         <v>-0.4497664320000001</v>
       </c>
       <c r="CA25" s="2">
-        <f>BV25-BU25</f>
+        <f t="shared" si="14"/>
         <v>-3.5703701000000088E-2</v>
       </c>
       <c r="CB25" s="2">
-        <f>BW25-BU25</f>
+        <f t="shared" si="15"/>
         <v>0.41406273100000002</v>
       </c>
       <c r="CC25" s="2">
@@ -10805,15 +10805,15 @@
         <v>0.20468353080000001</v>
       </c>
       <c r="CJ25" s="2">
-        <f>CH25-CI25</f>
+        <f t="shared" si="16"/>
         <v>-2.5478437048</v>
       </c>
       <c r="CK25" s="2">
-        <f>CH25-CG25</f>
+        <f t="shared" si="17"/>
         <v>-1.7823994286999998</v>
       </c>
       <c r="CL25" s="2">
-        <f>CI25-CG25</f>
+        <f t="shared" si="18"/>
         <v>0.76544427609999999</v>
       </c>
       <c r="CM25" s="2">
@@ -10838,15 +10838,15 @@
         <v>-0.78283970940000003</v>
       </c>
       <c r="CT25" s="2">
-        <f>CR25-CS25</f>
+        <f t="shared" si="19"/>
         <v>0.41398313490000005</v>
       </c>
       <c r="CU25" s="2">
-        <f>CR25-CQ25</f>
+        <f t="shared" si="20"/>
         <v>-0.56139292889999992</v>
       </c>
       <c r="CV25" s="2">
-        <f>CS25-CQ25</f>
+        <f t="shared" si="21"/>
         <v>-0.97537606379999997</v>
       </c>
       <c r="CW25" s="2">
@@ -10910,11 +10910,11 @@
         <v>-4.7980454284697702E-2</v>
       </c>
       <c r="DQ25">
-        <f>CY25-DC25</f>
+        <f t="shared" si="22"/>
         <v>-1.8702045723331007E-2</v>
       </c>
       <c r="DR25">
-        <f>((DA25-CY25)/CY25)*100</f>
+        <f t="shared" si="23"/>
         <v>16.218164588342926</v>
       </c>
     </row>
@@ -11073,15 +11073,15 @@
         <v>1.6184043850000001</v>
       </c>
       <c r="AZ26" s="2">
-        <f>AX26-AW26</f>
+        <f t="shared" si="0"/>
         <v>1.2273467329999999</v>
       </c>
       <c r="BA26" s="2">
-        <f>AY26-AW26</f>
+        <f t="shared" si="1"/>
         <v>3.8499008249999997</v>
       </c>
       <c r="BB26" s="2">
-        <f>AX26-AY26</f>
+        <f t="shared" si="2"/>
         <v>-2.6225540920000001</v>
       </c>
       <c r="BC26" s="2">
@@ -11097,15 +11097,15 @@
         <v>0.95614135580000004</v>
       </c>
       <c r="BG26" s="2">
-        <f>BE26-BD26</f>
+        <f t="shared" si="3"/>
         <v>-0.77822762919999999</v>
       </c>
       <c r="BH26" s="2">
-        <f>BF26-BD26</f>
+        <f t="shared" si="4"/>
         <v>0.61403482409999999</v>
       </c>
       <c r="BI26" s="2">
-        <f>BE26-BF26</f>
+        <f t="shared" si="5"/>
         <v>-1.3922624533000001</v>
       </c>
       <c r="BJ26" s="2">
@@ -11118,26 +11118,26 @@
         <v>-15.139776729999999</v>
       </c>
       <c r="BM26" s="2">
-        <f>BL26-AE26</f>
+        <f t="shared" si="6"/>
         <v>-25.357905729999999</v>
       </c>
       <c r="BN26" s="2">
         <v>-36.488558879999999</v>
       </c>
       <c r="BO26" s="2">
-        <f>BN26-AF26</f>
+        <f t="shared" si="7"/>
         <v>-42.880234379999997</v>
       </c>
       <c r="BP26" s="2">
-        <f>BL26-BK26</f>
+        <f t="shared" si="8"/>
         <v>37.616292919999999</v>
       </c>
       <c r="BQ26" s="2">
-        <f>BN26-BK26</f>
+        <f t="shared" si="9"/>
         <v>16.267510770000001</v>
       </c>
       <c r="BR26">
-        <f>BL26-BN26</f>
+        <f t="shared" si="10"/>
         <v>21.348782149999998</v>
       </c>
       <c r="BS26" s="6">
@@ -11156,23 +11156,23 @@
         <v>0.77393872429999999</v>
       </c>
       <c r="BX26" s="2">
-        <f>BV26-CC26</f>
+        <f t="shared" si="11"/>
         <v>-0.25201289829999995</v>
       </c>
       <c r="BY26" s="2">
-        <f>BW26-CD26</f>
+        <f t="shared" si="12"/>
         <v>0.86167690337000002</v>
       </c>
       <c r="BZ26" s="2">
-        <f>BV26-BW26</f>
+        <f t="shared" si="13"/>
         <v>-0.21245613769999994</v>
       </c>
       <c r="CA26" s="2">
-        <f>BV26-BU26</f>
+        <f t="shared" si="14"/>
         <v>0.75248573060000012</v>
       </c>
       <c r="CB26" s="2">
-        <f>BW26-BU26</f>
+        <f t="shared" si="15"/>
         <v>0.96494186829999995</v>
       </c>
       <c r="CC26" s="2">
@@ -11197,15 +11197,15 @@
         <v>9.5227604630000004E-2</v>
       </c>
       <c r="CJ26" s="2">
-        <f>CH26-CI26</f>
+        <f t="shared" si="16"/>
         <v>-0.12702926076000001</v>
       </c>
       <c r="CK26" s="2">
-        <f>CH26-CG26</f>
+        <f t="shared" si="17"/>
         <v>0.60345596827000003</v>
       </c>
       <c r="CL26" s="2">
-        <f>CI26-CG26</f>
+        <f t="shared" si="18"/>
         <v>0.73048522903000002</v>
       </c>
       <c r="CM26" s="2">
@@ -11230,15 +11230,15 @@
         <v>0.25520117310000001</v>
       </c>
       <c r="CT26" s="2">
-        <f>CR26-CS26</f>
+        <f t="shared" si="19"/>
         <v>0.25896319540000001</v>
       </c>
       <c r="CU26" s="2">
-        <f>CR26-CQ26</f>
+        <f t="shared" si="20"/>
         <v>0.13504398980000004</v>
       </c>
       <c r="CV26" s="2">
-        <f>CS26-CQ26</f>
+        <f t="shared" si="21"/>
         <v>-0.12391920559999997</v>
       </c>
       <c r="CW26" s="2">
@@ -11302,11 +11302,11 @@
         <v>-8.4609999976237305E-3</v>
       </c>
       <c r="DQ26">
-        <f>CY26-DC26</f>
+        <f t="shared" si="22"/>
         <v>-1.543111767387001E-2</v>
       </c>
       <c r="DR26">
-        <f>((DA26-CY26)/CY26)*100</f>
+        <f t="shared" si="23"/>
         <v>-2.249879298736337</v>
       </c>
     </row>
@@ -11465,15 +11465,15 @@
         <v>-0.47704143570000002</v>
       </c>
       <c r="AZ27" s="2">
-        <f>AX27-AW27</f>
+        <f t="shared" si="0"/>
         <v>-1.2714564885999999</v>
       </c>
       <c r="BA27" s="2">
-        <f>AY27-AW27</f>
+        <f t="shared" si="1"/>
         <v>-1.0144600143</v>
       </c>
       <c r="BB27" s="2">
-        <f>AX27-AY27</f>
+        <f t="shared" si="2"/>
         <v>-0.25699647429999994</v>
       </c>
       <c r="BC27" s="2">
@@ -11489,15 +11489,15 @@
         <v>-0.31713701589999999</v>
       </c>
       <c r="BG27" s="2">
-        <f>BE27-BD27</f>
+        <f t="shared" si="3"/>
         <v>0.41455376180000003</v>
       </c>
       <c r="BH27" s="2">
-        <f>BF27-BD27</f>
+        <f t="shared" si="4"/>
         <v>-0.45564443539999999</v>
       </c>
       <c r="BI27" s="2">
-        <f>BE27-BF27</f>
+        <f t="shared" si="5"/>
         <v>0.87019819720000002</v>
       </c>
       <c r="BJ27" s="2">
@@ -11510,26 +11510,26 @@
         <v>31.797650529999999</v>
       </c>
       <c r="BM27" s="2">
-        <f>BL27-AE27</f>
+        <f t="shared" si="6"/>
         <v>-4.4572134699999992</v>
       </c>
       <c r="BN27" s="2">
         <v>18.114743539999999</v>
       </c>
       <c r="BO27" s="2">
-        <f>BN27-AF27</f>
+        <f t="shared" si="7"/>
         <v>25.487935539999999</v>
       </c>
       <c r="BP27" s="2">
-        <f>BL27-BK27</f>
+        <f t="shared" si="8"/>
         <v>56.345506779999994</v>
       </c>
       <c r="BQ27" s="2">
-        <f>BN27-BK27</f>
+        <f t="shared" si="9"/>
         <v>42.662599790000002</v>
       </c>
       <c r="BR27">
-        <f>BL27-BN27</f>
+        <f t="shared" si="10"/>
         <v>13.682906989999999</v>
       </c>
       <c r="BS27" s="6">
@@ -11548,23 +11548,23 @@
         <v>-0.12587152500000001</v>
       </c>
       <c r="BX27" s="2">
-        <f>BV27-CC27</f>
+        <f t="shared" si="11"/>
         <v>-5.4917806099999966E-2</v>
       </c>
       <c r="BY27" s="2">
-        <f>BW27-CD27</f>
+        <f t="shared" si="12"/>
         <v>1.4819921399999991E-2</v>
       </c>
       <c r="BZ27" s="2">
-        <f>BV27-BW27</f>
+        <f t="shared" si="13"/>
         <v>0.95000053959999997</v>
       </c>
       <c r="CA27" s="2">
-        <f>BV27-BU27</f>
+        <f t="shared" si="14"/>
         <v>1.5955813817</v>
       </c>
       <c r="CB27" s="2">
-        <f>BW27-BU27</f>
+        <f t="shared" si="15"/>
         <v>0.6455808421</v>
       </c>
       <c r="CC27" s="2">
@@ -11589,15 +11589,15 @@
         <v>0.49171356329999999</v>
       </c>
       <c r="CJ27" s="2">
-        <f>CH27-CI27</f>
+        <f t="shared" si="16"/>
         <v>-0.10281176710000001</v>
       </c>
       <c r="CK27" s="2">
-        <f>CH27-CG27</f>
+        <f t="shared" si="17"/>
         <v>-0.108164384</v>
       </c>
       <c r="CL27" s="2">
-        <f>CI27-CG27</f>
+        <f t="shared" si="18"/>
         <v>-5.3526168999999957E-3</v>
       </c>
       <c r="CM27" s="2">
@@ -11622,15 +11622,15 @@
         <v>0.22864546899999999</v>
       </c>
       <c r="CT27" s="2">
-        <f>CR27-CS27</f>
+        <f t="shared" si="19"/>
         <v>6.0103144200000014E-2</v>
       </c>
       <c r="CU27" s="2">
-        <f>CR27-CQ27</f>
+        <f t="shared" si="20"/>
         <v>-0.4029837275</v>
       </c>
       <c r="CV27" s="2">
-        <f>CS27-CQ27</f>
+        <f t="shared" si="21"/>
         <v>-0.46308687170000001</v>
       </c>
       <c r="CW27" s="2">
@@ -11694,11 +11694,11 @@
         <v>2.0691849407739899E-2</v>
       </c>
       <c r="DQ27">
-        <f>CY27-DC27</f>
+        <f t="shared" si="22"/>
         <v>-7.1944000083020154E-3</v>
       </c>
       <c r="DR27">
-        <f>((DA27-CY27)/CY27)*100</f>
+        <f t="shared" si="23"/>
         <v>-0.90475997471162817</v>
       </c>
     </row>
@@ -11857,15 +11857,15 @@
         <v>2.2919633230000001</v>
       </c>
       <c r="AZ28" s="2">
-        <f>AX28-AW28</f>
+        <f t="shared" si="0"/>
         <v>0.20470150399999998</v>
       </c>
       <c r="BA28" s="2">
-        <f>AY28-AW28</f>
+        <f t="shared" si="1"/>
         <v>-0.541997383</v>
       </c>
       <c r="BB28" s="2">
-        <f>AX28-AY28</f>
+        <f t="shared" si="2"/>
         <v>0.74669888699999998</v>
       </c>
       <c r="BC28" s="2">
@@ -11881,15 +11881,15 @@
         <v>2.4081424859999999E-2</v>
       </c>
       <c r="BG28" s="2">
-        <f>BE28-BD28</f>
+        <f t="shared" si="3"/>
         <v>0.268453455264</v>
       </c>
       <c r="BH28" s="2">
-        <f>BF28-BD28</f>
+        <f t="shared" si="4"/>
         <v>0.29483387055999999</v>
       </c>
       <c r="BI28" s="2">
-        <f>BE28-BF28</f>
+        <f t="shared" si="5"/>
         <v>-2.6380415296E-2</v>
       </c>
       <c r="BJ28" s="2">
@@ -11902,26 +11902,26 @@
         <v>15.582980640000001</v>
       </c>
       <c r="BM28" s="2">
-        <f>BL28-AE28</f>
+        <f t="shared" si="6"/>
         <v>-10.345837359999999</v>
       </c>
       <c r="BN28" s="2">
         <v>20.751507159999999</v>
       </c>
       <c r="BO28" s="2">
-        <f>BN28-AF28</f>
+        <f t="shared" si="7"/>
         <v>21.752212959999998</v>
       </c>
       <c r="BP28" s="2">
-        <f>BL28-BK28</f>
+        <f t="shared" si="8"/>
         <v>20.848573449</v>
       </c>
       <c r="BQ28" s="2">
-        <f>BN28-BK28</f>
+        <f t="shared" si="9"/>
         <v>26.017099969</v>
       </c>
       <c r="BR28">
-        <f>BL28-BN28</f>
+        <f t="shared" si="10"/>
         <v>-5.1685265199999986</v>
       </c>
       <c r="BS28" s="6">
@@ -11940,23 +11940,23 @@
         <v>0.57077300210000004</v>
       </c>
       <c r="BX28" s="2">
-        <f>BV28-CC28</f>
+        <f t="shared" si="11"/>
         <v>-7.3658971799999917E-2</v>
       </c>
       <c r="BY28" s="2">
-        <f>BW28-CD28</f>
+        <f t="shared" si="12"/>
         <v>0.764637389</v>
       </c>
       <c r="BZ28" s="2">
-        <f>BV28-BW28</f>
+        <f t="shared" si="13"/>
         <v>0.2818135222</v>
       </c>
       <c r="CA28" s="2">
-        <f>BV28-BU28</f>
+        <f t="shared" si="14"/>
         <v>1.5090015433000001</v>
       </c>
       <c r="CB28" s="2">
-        <f>BW28-BU28</f>
+        <f t="shared" si="15"/>
         <v>1.2271880210999999</v>
       </c>
       <c r="CC28" s="2">
@@ -11981,15 +11981,15 @@
         <v>-0.78803326929999995</v>
       </c>
       <c r="CJ28" s="2">
-        <f>CH28-CI28</f>
+        <f t="shared" si="16"/>
         <v>1.5341552736999999</v>
       </c>
       <c r="CK28" s="2">
-        <f>CH28-CG28</f>
+        <f t="shared" si="17"/>
         <v>0.51333825570000002</v>
       </c>
       <c r="CL28" s="2">
-        <f>CI28-CG28</f>
+        <f t="shared" si="18"/>
         <v>-1.020817018</v>
       </c>
       <c r="CM28" s="2">
@@ -12014,15 +12014,15 @@
         <v>-5.6023479530000003E-2</v>
       </c>
       <c r="CT28" s="2">
-        <f>CR28-CS28</f>
+        <f t="shared" si="19"/>
         <v>2.7536872400000037E-3</v>
       </c>
       <c r="CU28" s="2">
-        <f>CR28-CQ28</f>
+        <f t="shared" si="20"/>
         <v>-0.17339081539000001</v>
       </c>
       <c r="CV28" s="2">
-        <f>CS28-CQ28</f>
+        <f t="shared" si="21"/>
         <v>-0.17614450263</v>
       </c>
       <c r="CW28" s="2">
@@ -12086,11 +12086,11 @@
         <v>-2.38887080340646E-2</v>
       </c>
       <c r="DQ28">
-        <f>CY28-DC28</f>
+        <f t="shared" si="22"/>
         <v>-2.665731867818899E-2</v>
       </c>
       <c r="DR28">
-        <f>((DA28-CY28)/CY28)*100</f>
+        <f t="shared" si="23"/>
         <v>5.0976932009146187</v>
       </c>
     </row>
@@ -12249,15 +12249,15 @@
         <v>-0.70094061539999997</v>
       </c>
       <c r="AZ29" s="2">
-        <f>AX29-AW29</f>
+        <f t="shared" si="0"/>
         <v>4.7054768330000005</v>
       </c>
       <c r="BA29" s="2">
-        <f>AY29-AW29</f>
+        <f t="shared" si="1"/>
         <v>2.8504609556</v>
       </c>
       <c r="BB29" s="2">
-        <f>AX29-AY29</f>
+        <f t="shared" si="2"/>
         <v>1.8550158774000001</v>
       </c>
       <c r="BC29" s="2">
@@ -12273,15 +12273,15 @@
         <v>4.703188204E-2</v>
       </c>
       <c r="BG29" s="2">
-        <f>BE29-BD29</f>
+        <f t="shared" si="3"/>
         <v>5.0050056249999995E-3</v>
       </c>
       <c r="BH29" s="2">
-        <f>BF29-BD29</f>
+        <f t="shared" si="4"/>
         <v>4.4945400151999999E-2</v>
       </c>
       <c r="BI29" s="2">
-        <f>BE29-BF29</f>
+        <f t="shared" si="5"/>
         <v>-3.9940394527000003E-2</v>
       </c>
       <c r="BJ29" s="2">
@@ -12294,26 +12294,26 @@
         <v>26.531307529999999</v>
       </c>
       <c r="BM29" s="2">
-        <f>BL29-AE29</f>
+        <f t="shared" si="6"/>
         <v>7.0137525299999979</v>
       </c>
       <c r="BN29" s="2">
         <v>19.005160549999999</v>
       </c>
       <c r="BO29" s="2">
-        <f>BN29-AF29</f>
+        <f t="shared" si="7"/>
         <v>25.46123905</v>
       </c>
       <c r="BP29" s="2">
-        <f>BL29-BK29</f>
+        <f t="shared" si="8"/>
         <v>44.484979769999995</v>
       </c>
       <c r="BQ29" s="2">
-        <f>BN29-BK29</f>
+        <f t="shared" si="9"/>
         <v>36.958832790000002</v>
       </c>
       <c r="BR29">
-        <f>BL29-BN29</f>
+        <f t="shared" si="10"/>
         <v>7.52614698</v>
       </c>
       <c r="BS29" s="6">
@@ -12332,23 +12332,23 @@
         <v>0.85150117120000002</v>
       </c>
       <c r="BX29" s="2">
-        <f>BV29-CC29</f>
+        <f t="shared" si="11"/>
         <v>1.2988679863999999</v>
       </c>
       <c r="BY29" s="2">
-        <f>BW29-CD29</f>
+        <f t="shared" si="12"/>
         <v>3.3940314700000029E-2</v>
       </c>
       <c r="BZ29" s="2">
-        <f>BV29-BW29</f>
+        <f t="shared" si="13"/>
         <v>-0.49267999090000003</v>
       </c>
       <c r="CA29" s="2">
-        <f>BV29-BU29</f>
+        <f t="shared" si="14"/>
         <v>0.51468152779999998</v>
       </c>
       <c r="CB29" s="2">
-        <f>BW29-BU29</f>
+        <f t="shared" si="15"/>
         <v>1.0073615187</v>
       </c>
       <c r="CC29" s="2">
@@ -12373,15 +12373,15 @@
         <v>-0.416742108</v>
       </c>
       <c r="CJ29" s="2">
-        <f>CH29-CI29</f>
+        <f t="shared" si="16"/>
         <v>-1.484605604</v>
       </c>
       <c r="CK29" s="2">
-        <f>CH29-CG29</f>
+        <f t="shared" si="17"/>
         <v>0.38113115399999997</v>
       </c>
       <c r="CL29" s="2">
-        <f>CI29-CG29</f>
+        <f t="shared" si="18"/>
         <v>1.8657367579999999</v>
       </c>
       <c r="CM29" s="2">
@@ -12406,15 +12406,15 @@
         <v>0.2089749092</v>
       </c>
       <c r="CT29" s="2">
-        <f>CR29-CS29</f>
+        <f t="shared" si="19"/>
         <v>-0.408984815</v>
       </c>
       <c r="CU29" s="2">
-        <f>CR29-CQ29</f>
+        <f t="shared" si="20"/>
         <v>-0.69529057890000001</v>
       </c>
       <c r="CV29" s="2">
-        <f>CS29-CQ29</f>
+        <f t="shared" si="21"/>
         <v>-0.28630576390000001</v>
       </c>
       <c r="CW29" s="2">
@@ -12478,11 +12478,11 @@
         <v>5.3202022099867402E-3</v>
       </c>
       <c r="DQ29">
-        <f>CY29-DC29</f>
+        <f t="shared" si="22"/>
         <v>-2.2397127133444994E-2</v>
       </c>
       <c r="DR29">
-        <f>((DA29-CY29)/CY29)*100</f>
+        <f t="shared" si="23"/>
         <v>24.836485561660268</v>
       </c>
     </row>
@@ -12641,15 +12641,15 @@
         <v>1.954119929</v>
       </c>
       <c r="AZ30" s="2">
-        <f>AX30-AW30</f>
+        <f t="shared" si="0"/>
         <v>4.2147786620000005</v>
       </c>
       <c r="BA30" s="2">
-        <f>AY30-AW30</f>
+        <f t="shared" si="1"/>
         <v>3.209173222</v>
       </c>
       <c r="BB30" s="2">
-        <f>AX30-AY30</f>
+        <f t="shared" si="2"/>
         <v>1.0056054400000001</v>
       </c>
       <c r="BC30" s="2">
@@ -12665,15 +12665,15 @@
         <v>-0.17700099120000001</v>
       </c>
       <c r="BG30" s="2">
-        <f>BE30-BD30</f>
+        <f t="shared" si="3"/>
         <v>0.1201112751</v>
       </c>
       <c r="BH30" s="2">
-        <f>BF30-BD30</f>
+        <f t="shared" si="4"/>
         <v>-0.32565852299999998</v>
       </c>
       <c r="BI30" s="2">
-        <f>BE30-BF30</f>
+        <f t="shared" si="5"/>
         <v>0.4457697981</v>
       </c>
       <c r="BJ30" s="2">
@@ -12686,26 +12686,26 @@
         <v>-8.1937429829999999</v>
       </c>
       <c r="BM30" s="2">
-        <f>BL30-AE30</f>
+        <f t="shared" si="6"/>
         <v>-8.3193242929999993</v>
       </c>
       <c r="BN30" s="2">
         <v>-31.486663530000001</v>
       </c>
       <c r="BO30" s="2">
-        <f>BN30-AF30</f>
+        <f t="shared" si="7"/>
         <v>-8.5941065300000012</v>
       </c>
       <c r="BP30" s="2">
-        <f>BL30-BK30</f>
+        <f t="shared" si="8"/>
         <v>14.366258327000001</v>
       </c>
       <c r="BQ30" s="2">
-        <f>BN30-BK30</f>
+        <f t="shared" si="9"/>
         <v>-8.9266622200000008</v>
       </c>
       <c r="BR30">
-        <f>BL30-BN30</f>
+        <f t="shared" si="10"/>
         <v>23.292920547000001</v>
       </c>
       <c r="BS30" s="6">
@@ -12724,23 +12724,23 @@
         <v>0.95879636290000003</v>
       </c>
       <c r="BX30" s="2">
-        <f>BV30-CC30</f>
+        <f t="shared" si="11"/>
         <v>0.33474899069999997</v>
       </c>
       <c r="BY30" s="2">
-        <f>BW30-CD30</f>
+        <f t="shared" si="12"/>
         <v>1.03741483925</v>
       </c>
       <c r="BZ30" s="2">
-        <f>BV30-BW30</f>
+        <f t="shared" si="13"/>
         <v>0.20609929409999994</v>
       </c>
       <c r="CA30" s="2">
-        <f>BV30-BU30</f>
+        <f t="shared" si="14"/>
         <v>1.6908813622999999</v>
       </c>
       <c r="CB30" s="2">
-        <f>BW30-BU30</f>
+        <f t="shared" si="15"/>
         <v>1.4847820681999999</v>
       </c>
       <c r="CC30" s="2">
@@ -12765,15 +12765,15 @@
         <v>8.3396565559999997E-2</v>
       </c>
       <c r="CJ30" s="2">
-        <f>CH30-CI30</f>
+        <f t="shared" si="16"/>
         <v>-0.18138375818999999</v>
       </c>
       <c r="CK30" s="2">
-        <f>CH30-CG30</f>
+        <f t="shared" si="17"/>
         <v>5.7211995570000007E-2</v>
       </c>
       <c r="CL30" s="2">
-        <f>CI30-CG30</f>
+        <f t="shared" si="18"/>
         <v>0.23859575376</v>
       </c>
       <c r="CM30" s="2">
@@ -12798,15 +12798,15 @@
         <v>-0.1223806727</v>
       </c>
       <c r="CT30" s="2">
-        <f>CR30-CS30</f>
+        <f t="shared" si="19"/>
         <v>0.21588406421</v>
       </c>
       <c r="CU30" s="2">
-        <f>CR30-CQ30</f>
+        <f t="shared" si="20"/>
         <v>0.48390251040999999</v>
       </c>
       <c r="CV30" s="2">
-        <f>CS30-CQ30</f>
+        <f t="shared" si="21"/>
         <v>0.26801844620000004</v>
       </c>
       <c r="CW30" s="2">
@@ -12870,11 +12870,11 @@
         <v>-9.2224475170951295E-2</v>
       </c>
       <c r="DQ30">
-        <f>CY30-DC30</f>
+        <f t="shared" si="22"/>
         <v>-7.6408453987829861E-3</v>
       </c>
       <c r="DR30">
-        <f>((DA30-CY30)/CY30)*100</f>
+        <f t="shared" si="23"/>
         <v>11.501849454453767</v>
       </c>
     </row>
@@ -13033,15 +13033,15 @@
         <v>-1.709587202</v>
       </c>
       <c r="AZ31" s="2">
-        <f>AX31-AW31</f>
+        <f t="shared" si="0"/>
         <v>0.71443758800000001</v>
       </c>
       <c r="BA31" s="2">
-        <f>AY31-AW31</f>
+        <f t="shared" si="1"/>
         <v>3.4831128339999999</v>
       </c>
       <c r="BB31" s="2">
-        <f>AX31-AY31</f>
+        <f t="shared" si="2"/>
         <v>-2.7686752459999999</v>
       </c>
       <c r="BC31" s="2">
@@ -13057,15 +13057,15 @@
         <v>-0.89169039640000003</v>
       </c>
       <c r="BG31" s="2">
-        <f>BE31-BD31</f>
+        <f t="shared" si="3"/>
         <v>0.41446750043000002</v>
       </c>
       <c r="BH31" s="2">
-        <f>BF31-BD31</f>
+        <f t="shared" si="4"/>
         <v>-0.39061114460000002</v>
       </c>
       <c r="BI31" s="2">
-        <f>BE31-BF31</f>
+        <f t="shared" si="5"/>
         <v>0.80507864503000004</v>
       </c>
       <c r="BJ31" s="2">
@@ -13078,26 +13078,26 @@
         <v>16.133796440000001</v>
       </c>
       <c r="BM31" s="2">
-        <f>BL31-AE31</f>
+        <f t="shared" si="6"/>
         <v>40.573533440000006</v>
       </c>
       <c r="BN31" s="2">
         <v>-9.8364578340000008</v>
       </c>
       <c r="BO31" s="2">
-        <f>BN31-AF31</f>
+        <f t="shared" si="7"/>
         <v>30.108562165999999</v>
       </c>
       <c r="BP31" s="2">
-        <f>BL31-BK31</f>
+        <f t="shared" si="8"/>
         <v>23.099312877000003</v>
       </c>
       <c r="BQ31" s="2">
-        <f>BN31-BK31</f>
+        <f t="shared" si="9"/>
         <v>-2.8709413970000011</v>
       </c>
       <c r="BR31">
-        <f>BL31-BN31</f>
+        <f t="shared" si="10"/>
         <v>25.970254274000002</v>
       </c>
       <c r="BS31" s="6">
@@ -13116,23 +13116,23 @@
         <v>-0.52960955050000003</v>
       </c>
       <c r="BX31" s="2">
-        <f>BV31-CC31</f>
+        <f t="shared" si="11"/>
         <v>-0.98304496019999998</v>
       </c>
       <c r="BY31" s="2">
-        <f>BW31-CD31</f>
+        <f t="shared" si="12"/>
         <v>-1.1130672186999999</v>
       </c>
       <c r="BZ31" s="2">
-        <f>BV31-BW31</f>
+        <f t="shared" si="13"/>
         <v>-3.4469602000000155E-3</v>
       </c>
       <c r="CA31" s="2">
-        <f>BV31-BU31</f>
+        <f t="shared" si="14"/>
         <v>5.4865068499999947E-2</v>
       </c>
       <c r="CB31" s="2">
-        <f>BW31-BU31</f>
+        <f t="shared" si="15"/>
         <v>5.8312028699999963E-2</v>
       </c>
       <c r="CC31" s="2">
@@ -13157,15 +13157,15 @@
         <v>-0.66074080769999999</v>
       </c>
       <c r="CJ31" s="2">
-        <f>CH31-CI31</f>
+        <f t="shared" si="16"/>
         <v>0.81887119770000005</v>
       </c>
       <c r="CK31" s="2">
-        <f>CH31-CG31</f>
+        <f t="shared" si="17"/>
         <v>0.76408640560000007</v>
       </c>
       <c r="CL31" s="2">
-        <f>CI31-CG31</f>
+        <f t="shared" si="18"/>
         <v>-5.4784792099999979E-2</v>
       </c>
       <c r="CM31" s="2">
@@ -13190,15 +13190,15 @@
         <v>-0.26495234169999998</v>
       </c>
       <c r="CT31" s="2">
-        <f>CR31-CS31</f>
+        <f t="shared" si="19"/>
         <v>-0.18866596769999999</v>
       </c>
       <c r="CU31" s="2">
-        <f>CR31-CQ31</f>
+        <f t="shared" si="20"/>
         <v>-0.97066132469999999</v>
       </c>
       <c r="CV31" s="2">
-        <f>CS31-CQ31</f>
+        <f t="shared" si="21"/>
         <v>-0.781995357</v>
       </c>
       <c r="CW31" s="2">
@@ -13262,11 +13262,11 @@
         <v>1.3767045606982701E-2</v>
       </c>
       <c r="DQ31">
-        <f>CY31-DC31</f>
+        <f t="shared" si="22"/>
         <v>-2.9366146191029951E-3</v>
       </c>
       <c r="DR31">
-        <f>((DA31-CY31)/CY31)*100</f>
+        <f t="shared" si="23"/>
         <v>8.7587918713223321</v>
       </c>
     </row>
@@ -13425,15 +13425,15 @@
         <v>-4.7596901540000003</v>
       </c>
       <c r="AZ32" s="2">
-        <f>AX32-AW32</f>
+        <f t="shared" si="0"/>
         <v>1.6062833175</v>
       </c>
       <c r="BA32" s="2">
-        <f>AY32-AW32</f>
+        <f t="shared" si="1"/>
         <v>-2.4330881140000002</v>
       </c>
       <c r="BB32" s="2">
-        <f>AX32-AY32</f>
+        <f t="shared" si="2"/>
         <v>4.0393714315000002</v>
       </c>
       <c r="BC32" s="2">
@@ -13449,15 +13449,15 @@
         <v>0.1186165819</v>
       </c>
       <c r="BG32" s="2">
-        <f>BE32-BD32</f>
+        <f t="shared" si="3"/>
         <v>-0.53097229209999997</v>
       </c>
       <c r="BH32" s="2">
-        <f>BF32-BD32</f>
+        <f t="shared" si="4"/>
         <v>0.14589187410000001</v>
       </c>
       <c r="BI32" s="2">
-        <f>BE32-BF32</f>
+        <f t="shared" si="5"/>
         <v>-0.67686416620000001</v>
       </c>
       <c r="BJ32" s="2">
@@ -13470,26 +13470,26 @@
         <v>-33.024607000000003</v>
       </c>
       <c r="BM32" s="2">
-        <f>BL32-AE32</f>
+        <f t="shared" si="6"/>
         <v>-47.014862000000001</v>
       </c>
       <c r="BN32" s="2">
         <v>-25.829873079999999</v>
       </c>
       <c r="BO32" s="2">
-        <f>BN32-AF32</f>
+        <f t="shared" si="7"/>
         <v>-11.163422579999999</v>
       </c>
       <c r="BP32" s="2">
-        <f>BL32-BK32</f>
+        <f t="shared" si="8"/>
         <v>-4.7732161800000021</v>
       </c>
       <c r="BQ32" s="2">
-        <f>BN32-BK32</f>
+        <f t="shared" si="9"/>
         <v>2.4215177400000023</v>
       </c>
       <c r="BR32">
-        <f>BL32-BN32</f>
+        <f t="shared" si="10"/>
         <v>-7.1947339200000044</v>
       </c>
       <c r="BS32" s="6">
@@ -13508,23 +13508,23 @@
         <v>1.502532419</v>
       </c>
       <c r="BX32" s="2">
-        <f>BV32-CC32</f>
+        <f t="shared" si="11"/>
         <v>2.1035125619999997</v>
       </c>
       <c r="BY32" s="2">
-        <f>BW32-CD32</f>
+        <f t="shared" si="12"/>
         <v>2.0175874966</v>
       </c>
       <c r="BZ32" s="2">
-        <f>BV32-BW32</f>
+        <f t="shared" si="13"/>
         <v>-1.4649718000000034E-2</v>
       </c>
       <c r="CA32" s="2">
-        <f>BV32-BU32</f>
+        <f t="shared" si="14"/>
         <v>1.7539119698999999</v>
       </c>
       <c r="CB32" s="2">
-        <f>BW32-BU32</f>
+        <f t="shared" si="15"/>
         <v>1.7685616879000001</v>
       </c>
       <c r="CC32" s="2">
@@ -13549,15 +13549,15 @@
         <v>-0.54692591140000002</v>
       </c>
       <c r="CJ32" s="2">
-        <f>CH32-CI32</f>
+        <f t="shared" si="16"/>
         <v>-0.55647315060000002</v>
       </c>
       <c r="CK32" s="2">
-        <f>CH32-CG32</f>
+        <f t="shared" si="17"/>
         <v>-0.56095377350000009</v>
       </c>
       <c r="CL32" s="2">
-        <f>CI32-CG32</f>
+        <f t="shared" si="18"/>
         <v>-4.4806229000000641E-3</v>
       </c>
       <c r="CM32" s="2">
@@ -13582,15 +13582,15 @@
         <v>0.2120849139</v>
       </c>
       <c r="CT32" s="2">
-        <f>CR32-CS32</f>
+        <f t="shared" si="19"/>
         <v>-0.96796585089999998</v>
       </c>
       <c r="CU32" s="2">
-        <f>CR32-CQ32</f>
+        <f t="shared" si="20"/>
         <v>-0.81494623934999999</v>
       </c>
       <c r="CV32" s="2">
-        <f>CS32-CQ32</f>
+        <f t="shared" si="21"/>
         <v>0.15301961154999999</v>
       </c>
       <c r="CW32" s="2">
@@ -13654,11 +13654,11 @@
         <v>1.5386138577014199E-2</v>
       </c>
       <c r="DQ32">
-        <f>CY32-DC32</f>
+        <f t="shared" si="22"/>
         <v>-4.0404099272560168E-3</v>
       </c>
       <c r="DR32">
-        <f>((DA32-CY32)/CY32)*100</f>
+        <f t="shared" si="23"/>
         <v>3.4904434853992772</v>
       </c>
     </row>
@@ -13817,15 +13817,15 @@
         <v>-1.9842711900000001</v>
       </c>
       <c r="AZ33" s="2">
-        <f>AX33-AW33</f>
+        <f t="shared" si="0"/>
         <v>5.496819414</v>
       </c>
       <c r="BA33" s="2">
-        <f>AY33-AW33</f>
+        <f t="shared" si="1"/>
         <v>-0.79837756999999998</v>
       </c>
       <c r="BB33" s="2">
-        <f>AX33-AY33</f>
+        <f t="shared" si="2"/>
         <v>6.2951969840000004</v>
       </c>
       <c r="BC33" s="2">
@@ -13841,15 +13841,15 @@
         <v>-0.1478412147</v>
       </c>
       <c r="BG33" s="2">
-        <f>BE33-BD33</f>
+        <f t="shared" si="3"/>
         <v>-0.31718586609999999</v>
       </c>
       <c r="BH33" s="2">
-        <f>BF33-BD33</f>
+        <f t="shared" si="4"/>
         <v>-0.64310153179999996</v>
       </c>
       <c r="BI33" s="2">
-        <f>BE33-BF33</f>
+        <f t="shared" si="5"/>
         <v>0.32591566569999997</v>
       </c>
       <c r="BJ33" s="2">
@@ -13862,26 +13862,26 @@
         <v>22.350473279999999</v>
       </c>
       <c r="BM33" s="2">
-        <f>BL33-AE33</f>
+        <f t="shared" si="6"/>
         <v>10.726235279999999</v>
       </c>
       <c r="BN33" s="2">
         <v>-5.355886989</v>
       </c>
       <c r="BO33" s="2">
-        <f>BN33-AF33</f>
+        <f t="shared" si="7"/>
         <v>8.6112450109999994</v>
       </c>
       <c r="BP33" s="2">
-        <f>BL33-BK33</f>
+        <f t="shared" si="8"/>
         <v>14.816805594999998</v>
       </c>
       <c r="BQ33" s="2">
-        <f>BN33-BK33</f>
+        <f t="shared" si="9"/>
         <v>-12.889554673999999</v>
       </c>
       <c r="BR33">
-        <f>BL33-BN33</f>
+        <f t="shared" si="10"/>
         <v>27.706360269000001</v>
       </c>
       <c r="BS33" s="6">
@@ -13900,23 +13900,23 @@
         <v>-0.71031769249999999</v>
       </c>
       <c r="BX33" s="2">
-        <f>BV33-CC33</f>
+        <f t="shared" si="11"/>
         <v>1.0799325799999981E-2</v>
       </c>
       <c r="BY33" s="2">
-        <f>BW33-CD33</f>
+        <f t="shared" si="12"/>
         <v>-1.2014437824999999</v>
       </c>
       <c r="BZ33" s="2">
-        <f>BV33-BW33</f>
+        <f t="shared" si="13"/>
         <v>6.5654117000000012E-2</v>
       </c>
       <c r="CA33" s="2">
-        <f>BV33-BU33</f>
+        <f t="shared" si="14"/>
         <v>1.2676604345000002</v>
       </c>
       <c r="CB33" s="2">
-        <f>BW33-BU33</f>
+        <f t="shared" si="15"/>
         <v>1.2020063175</v>
       </c>
       <c r="CC33" s="2">
@@ -13941,15 +13941,15 @@
         <v>-1.799932665</v>
       </c>
       <c r="CJ33" s="2">
-        <f>CH33-CI33</f>
+        <f t="shared" si="16"/>
         <v>1.0629219615000001</v>
       </c>
       <c r="CK33" s="2">
-        <f>CH33-CG33</f>
+        <f t="shared" si="17"/>
         <v>0.68967134550000009</v>
       </c>
       <c r="CL33" s="2">
-        <f>CI33-CG33</f>
+        <f t="shared" si="18"/>
         <v>-0.37325061599999998</v>
       </c>
       <c r="CM33" s="2">
@@ -13974,15 +13974,15 @@
         <v>0.1949069383</v>
       </c>
       <c r="CT33" s="2">
-        <f>CR33-CS33</f>
+        <f t="shared" si="19"/>
         <v>3.1612399999991769E-5</v>
       </c>
       <c r="CU33" s="2">
-        <f>CR33-CQ33</f>
+        <f t="shared" si="20"/>
         <v>0.56195445789999998</v>
       </c>
       <c r="CV33" s="2">
-        <f>CS33-CQ33</f>
+        <f t="shared" si="21"/>
         <v>0.56192284550000005</v>
       </c>
       <c r="CW33" s="2">
@@ -14046,11 +14046,11 @@
         <v>-5.4749071132391596E-3</v>
       </c>
       <c r="DQ33">
-        <f>CY33-DC33</f>
+        <f t="shared" si="22"/>
         <v>-4.6165993087925017E-2</v>
       </c>
       <c r="DR33">
-        <f>((DA33-CY33)/CY33)*100</f>
+        <f t="shared" si="23"/>
         <v>12.015469211177084</v>
       </c>
     </row>
@@ -14209,15 +14209,15 @@
         <v>0.83989369970000005</v>
       </c>
       <c r="AZ34" s="2">
-        <f>AX34-AW34</f>
+        <f t="shared" si="0"/>
         <v>-1.0588544757</v>
       </c>
       <c r="BA34" s="2">
-        <f>AY34-AW34</f>
+        <f t="shared" si="1"/>
         <v>1.6670423670000001</v>
       </c>
       <c r="BB34" s="2">
-        <f>AX34-AY34</f>
+        <f t="shared" si="2"/>
         <v>-2.7258968427000001</v>
       </c>
       <c r="BC34" s="2">
@@ -14233,15 +14233,15 @@
         <v>-0.1104638951</v>
       </c>
       <c r="BG34" s="2">
-        <f>BE34-BD34</f>
+        <f t="shared" si="3"/>
         <v>0.2272468369</v>
       </c>
       <c r="BH34" s="2">
-        <f>BF34-BD34</f>
+        <f t="shared" si="4"/>
         <v>-3.1884878000000005E-3</v>
       </c>
       <c r="BI34" s="2">
-        <f>BE34-BF34</f>
+        <f t="shared" si="5"/>
         <v>0.2304353247</v>
       </c>
       <c r="BJ34" s="2">
@@ -14254,26 +14254,26 @@
         <v>21.0479056</v>
       </c>
       <c r="BM34" s="2">
-        <f>BL34-AE34</f>
+        <f t="shared" si="6"/>
         <v>45.851164600000004</v>
       </c>
       <c r="BN34" s="2">
         <v>22.117372670000002</v>
       </c>
       <c r="BO34" s="2">
-        <f>BN34-AF34</f>
+        <f t="shared" si="7"/>
         <v>37.143414669999999</v>
       </c>
       <c r="BP34" s="2">
-        <f>BL34-BK34</f>
+        <f t="shared" si="8"/>
         <v>0.44218000000000046</v>
       </c>
       <c r="BQ34" s="2">
-        <f>BN34-BK34</f>
+        <f t="shared" si="9"/>
         <v>1.5116470700000022</v>
       </c>
       <c r="BR34">
-        <f>BL34-BN34</f>
+        <f t="shared" si="10"/>
         <v>-1.0694670700000017</v>
       </c>
       <c r="BS34" s="6">
@@ -14292,23 +14292,23 @@
         <v>0.88980550349999998</v>
       </c>
       <c r="BX34" s="2">
-        <f>BV34-CC34</f>
+        <f t="shared" si="11"/>
         <v>1.2557177473500001</v>
       </c>
       <c r="BY34" s="2">
-        <f>BW34-CD34</f>
+        <f t="shared" si="12"/>
         <v>0.86536891228000001</v>
       </c>
       <c r="BZ34" s="2">
-        <f>BV34-BW34</f>
+        <f t="shared" si="13"/>
         <v>0.33115267349999999</v>
       </c>
       <c r="CA34" s="2">
-        <f>BV34-BU34</f>
+        <f t="shared" si="14"/>
         <v>0.8921310053</v>
       </c>
       <c r="CB34" s="2">
-        <f>BW34-BU34</f>
+        <f t="shared" si="15"/>
         <v>0.56097833180000001</v>
       </c>
       <c r="CC34" s="2">
@@ -14333,15 +14333,15 @@
         <v>-0.38291566310000003</v>
       </c>
       <c r="CJ34" s="2">
-        <f>CH34-CI34</f>
+        <f t="shared" si="16"/>
         <v>-0.46219041199999999</v>
       </c>
       <c r="CK34" s="2">
-        <f>CH34-CG34</f>
+        <f t="shared" si="17"/>
         <v>-1.3569733831000002</v>
       </c>
       <c r="CL34" s="2">
-        <f>CI34-CG34</f>
+        <f t="shared" si="18"/>
         <v>-0.89478297110000005</v>
       </c>
       <c r="CM34" s="2">
@@ -14366,15 +14366,15 @@
         <v>0.13481476489999999</v>
       </c>
       <c r="CT34" s="2">
-        <f>CR34-CS34</f>
+        <f t="shared" si="19"/>
         <v>-0.67677954819999997</v>
       </c>
       <c r="CU34" s="2">
-        <f>CR34-CQ34</f>
+        <f t="shared" si="20"/>
         <v>-0.71425068339999997</v>
       </c>
       <c r="CV34" s="2">
-        <f>CS34-CQ34</f>
+        <f t="shared" si="21"/>
         <v>-3.7471135200000005E-2</v>
       </c>
       <c r="CW34" s="2">
@@ -14438,11 +14438,11 @@
         <v>-2.32713498990051E-2</v>
       </c>
       <c r="DQ34">
-        <f>CY34-DC34</f>
+        <f t="shared" si="22"/>
         <v>2.2527536057169006E-2</v>
       </c>
       <c r="DR34">
-        <f>((DA34-CY34)/CY34)*100</f>
+        <f t="shared" si="23"/>
         <v>-1.9346235549349606</v>
       </c>
     </row>
@@ -14601,15 +14601,15 @@
         <v>-1.6432565610000001</v>
       </c>
       <c r="AZ35" s="2">
-        <f>AX35-AW35</f>
+        <f t="shared" si="0"/>
         <v>0.95109102714000004</v>
       </c>
       <c r="BA35" s="2">
-        <f>AY35-AW35</f>
+        <f t="shared" si="1"/>
         <v>-0.76789432310000005</v>
       </c>
       <c r="BB35" s="2">
-        <f>AX35-AY35</f>
+        <f t="shared" si="2"/>
         <v>1.7189853502400001</v>
       </c>
       <c r="BC35" s="2">
@@ -14625,15 +14625,15 @@
         <v>0.37230328899999998</v>
       </c>
       <c r="BG35" s="2">
-        <f>BE35-BD35</f>
+        <f t="shared" si="3"/>
         <v>8.9044881500000006E-2</v>
       </c>
       <c r="BH35" s="2">
-        <f>BF35-BD35</f>
+        <f t="shared" si="4"/>
         <v>-0.27404392750000006</v>
       </c>
       <c r="BI35" s="2">
-        <f>BE35-BF35</f>
+        <f t="shared" si="5"/>
         <v>0.36308880900000007</v>
       </c>
       <c r="BJ35" s="2">
@@ -14646,26 +14646,26 @@
         <v>27.618541329999999</v>
       </c>
       <c r="BM35" s="2">
-        <f>BL35-AE35</f>
+        <f t="shared" si="6"/>
         <v>-16.053272669999998</v>
       </c>
       <c r="BN35" s="2">
         <v>-0.7499109692</v>
       </c>
       <c r="BO35" s="2">
-        <f>BN35-AF35</f>
+        <f t="shared" si="7"/>
         <v>0.16997687080000001</v>
       </c>
       <c r="BP35" s="2">
-        <f>BL35-BK35</f>
+        <f t="shared" si="8"/>
         <v>97.746632770000005</v>
       </c>
       <c r="BQ35" s="2">
-        <f>BN35-BK35</f>
+        <f t="shared" si="9"/>
         <v>69.378180470800004</v>
       </c>
       <c r="BR35">
-        <f>BL35-BN35</f>
+        <f t="shared" si="10"/>
         <v>28.368452299199998</v>
       </c>
       <c r="BS35" s="6">
@@ -14684,23 +14684,23 @@
         <v>0.19633343880000001</v>
       </c>
       <c r="BX35" s="2">
-        <f>BV35-CC35</f>
+        <f t="shared" si="11"/>
         <v>1.3521963394999998</v>
       </c>
       <c r="BY35" s="2">
-        <f>BW35-CD35</f>
+        <f t="shared" si="12"/>
         <v>0.46912476189999996</v>
       </c>
       <c r="BZ35" s="2">
-        <f>BV35-BW35</f>
+        <f t="shared" si="13"/>
         <v>1.4897649561999999</v>
       </c>
       <c r="CA35" s="2">
-        <f>BV35-BU35</f>
+        <f t="shared" si="14"/>
         <v>2.3609097597000002</v>
       </c>
       <c r="CB35" s="2">
-        <f>BW35-BU35</f>
+        <f t="shared" si="15"/>
         <v>0.87114480350000001</v>
       </c>
       <c r="CC35" s="2">
@@ -14725,15 +14725,15 @@
         <v>0.17772710520000001</v>
       </c>
       <c r="CJ35" s="2">
-        <f>CH35-CI35</f>
+        <f t="shared" si="16"/>
         <v>-0.14805707336000001</v>
       </c>
       <c r="CK35" s="2">
-        <f>CH35-CG35</f>
+        <f t="shared" si="17"/>
         <v>4.8216475169999995E-2</v>
       </c>
       <c r="CL35" s="2">
-        <f>CI35-CG35</f>
+        <f t="shared" si="18"/>
         <v>0.19627354853000001</v>
       </c>
       <c r="CM35" s="2">
@@ -14758,15 +14758,15 @@
         <v>0.14787197499999999</v>
       </c>
       <c r="CT35" s="2">
-        <f>CR35-CS35</f>
+        <f t="shared" si="19"/>
         <v>-0.34468094069999999</v>
       </c>
       <c r="CU35" s="2">
-        <f>CR35-CQ35</f>
+        <f t="shared" si="20"/>
         <v>-0.32002204249999999</v>
       </c>
       <c r="CV35" s="2">
-        <f>CS35-CQ35</f>
+        <f t="shared" si="21"/>
         <v>2.4658898199999987E-2</v>
       </c>
       <c r="CW35" s="2">
@@ -14830,11 +14830,11 @@
         <v>5.4335498483851503E-2</v>
       </c>
       <c r="DQ35">
-        <f>CY35-DC35</f>
+        <f t="shared" si="22"/>
         <v>-2.8225127607600653E-4</v>
       </c>
       <c r="DR35">
-        <f>((DA35-CY35)/CY35)*100</f>
+        <f t="shared" si="23"/>
         <v>4.1814779245239455</v>
       </c>
     </row>
@@ -14993,15 +14993,15 @@
         <v>-5.5580926159999997</v>
       </c>
       <c r="AZ36" s="2">
-        <f>AX36-AW36</f>
+        <f t="shared" si="0"/>
         <v>-3.3196436686999999</v>
       </c>
       <c r="BA36" s="2">
-        <f>AY36-AW36</f>
+        <f t="shared" si="1"/>
         <v>-6.4545612176999994</v>
       </c>
       <c r="BB36" s="2">
-        <f>AX36-AY36</f>
+        <f t="shared" si="2"/>
         <v>3.1349175489999999</v>
       </c>
       <c r="BC36" s="2">
@@ -15017,15 +15017,15 @@
         <v>3.478876895E-2</v>
       </c>
       <c r="BG36" s="2">
-        <f>BE36-BD36</f>
+        <f t="shared" si="3"/>
         <v>-0.4137831461</v>
       </c>
       <c r="BH36" s="2">
-        <f>BF36-BD36</f>
+        <f t="shared" si="4"/>
         <v>0.20335061914999999</v>
       </c>
       <c r="BI36" s="2">
-        <f>BE36-BF36</f>
+        <f t="shared" si="5"/>
         <v>-0.61713376525000008</v>
       </c>
       <c r="BJ36" s="2">
@@ -15038,26 +15038,26 @@
         <v>41.796417810000001</v>
       </c>
       <c r="BM36" s="2">
-        <f>BL36-AE36</f>
+        <f t="shared" si="6"/>
         <v>88.871383809999998</v>
       </c>
       <c r="BN36" s="2">
         <v>55.433537790000003</v>
       </c>
       <c r="BO36" s="2">
-        <f>BN36-AF36</f>
+        <f t="shared" si="7"/>
         <v>44.12283979</v>
       </c>
       <c r="BP36" s="2">
-        <f>BL36-BK36</f>
+        <f t="shared" si="8"/>
         <v>-14.185237190000002</v>
       </c>
       <c r="BQ36" s="2">
-        <f>BN36-BK36</f>
+        <f t="shared" si="9"/>
         <v>-0.54811721000000091</v>
       </c>
       <c r="BR36">
-        <f>BL36-BN36</f>
+        <f t="shared" si="10"/>
         <v>-13.637119980000001</v>
       </c>
       <c r="BS36" s="6">
@@ -15076,23 +15076,23 @@
         <v>0.2169716424</v>
       </c>
       <c r="BX36" s="2">
-        <f>BV36-CC36</f>
+        <f t="shared" si="11"/>
         <v>0.40041831040000009</v>
       </c>
       <c r="BY36" s="2">
-        <f>BW36-CD36</f>
+        <f t="shared" si="12"/>
         <v>0.52657763179999995</v>
       </c>
       <c r="BZ36" s="2">
-        <f>BV36-BW36</f>
+        <f t="shared" si="13"/>
         <v>0.38132830660000006</v>
       </c>
       <c r="CA36" s="2">
-        <f>BV36-BU36</f>
+        <f t="shared" si="14"/>
         <v>1.3960271884000002</v>
       </c>
       <c r="CB36" s="2">
-        <f>BW36-BU36</f>
+        <f t="shared" si="15"/>
         <v>1.0146988818</v>
       </c>
       <c r="CC36" s="2">
@@ -15117,15 +15117,15 @@
         <v>-1.280293356</v>
       </c>
       <c r="CJ36" s="2">
-        <f>CH36-CI36</f>
+        <f t="shared" si="16"/>
         <v>-0.71942922799999987</v>
       </c>
       <c r="CK36" s="2">
-        <f>CH36-CG36</f>
+        <f t="shared" si="17"/>
         <v>-7.21855039999999E-2</v>
       </c>
       <c r="CL36" s="2">
-        <f>CI36-CG36</f>
+        <f t="shared" si="18"/>
         <v>0.64724372399999996</v>
       </c>
       <c r="CM36" s="2">
@@ -15150,15 +15150,15 @@
         <v>0.57684457150000001</v>
       </c>
       <c r="CT36" s="2">
-        <f>CR36-CS36</f>
+        <f t="shared" si="19"/>
         <v>-0.55922848863999997</v>
       </c>
       <c r="CU36" s="2">
-        <f>CR36-CQ36</f>
+        <f t="shared" si="20"/>
         <v>0.26103731916</v>
       </c>
       <c r="CV36" s="2">
-        <f>CS36-CQ36</f>
+        <f t="shared" si="21"/>
         <v>0.82026580780000002</v>
       </c>
       <c r="CW36" s="2">
@@ -15222,11 +15222,11 @@
         <v>-1.8720957916229901E-2</v>
       </c>
       <c r="DQ36">
-        <f>CY36-DC36</f>
+        <f t="shared" si="22"/>
         <v>1.0023120528786011E-2</v>
       </c>
       <c r="DR36">
-        <f>((DA36-CY36)/CY36)*100</f>
+        <f t="shared" si="23"/>
         <v>18.763594733807405</v>
       </c>
     </row>
@@ -15385,15 +15385,15 @@
         <v>4.0826700809999998</v>
       </c>
       <c r="AZ37" s="2">
-        <f>AX37-AW37</f>
+        <f t="shared" si="0"/>
         <v>4.7360489609999998</v>
       </c>
       <c r="BA37" s="2">
-        <f>AY37-AW37</f>
+        <f t="shared" si="1"/>
         <v>1.8675006449999998</v>
       </c>
       <c r="BB37" s="2">
-        <f>AX37-AY37</f>
+        <f t="shared" si="2"/>
         <v>2.868548316</v>
       </c>
       <c r="BC37" s="2">
@@ -15409,15 +15409,15 @@
         <v>6.1523079090000004E-3</v>
       </c>
       <c r="BG37" s="2">
-        <f>BE37-BD37</f>
+        <f t="shared" si="3"/>
         <v>-9.1343688499999992E-2</v>
       </c>
       <c r="BH37" s="2">
-        <f>BF37-BD37</f>
+        <f t="shared" si="4"/>
         <v>0.22401031830900001</v>
       </c>
       <c r="BI37" s="2">
-        <f>BE37-BF37</f>
+        <f t="shared" si="5"/>
         <v>-0.315354006809</v>
       </c>
       <c r="BJ37" s="2">
@@ -15430,26 +15430,26 @@
         <v>24.42484726</v>
       </c>
       <c r="BM37" s="2">
-        <f>BL37-AE37</f>
+        <f t="shared" si="6"/>
         <v>68.269347259999989</v>
       </c>
       <c r="BN37" s="2">
         <v>36.202542010000002</v>
       </c>
       <c r="BO37" s="2">
-        <f>BN37-AF37</f>
+        <f t="shared" si="7"/>
         <v>23.303751010000003</v>
       </c>
       <c r="BP37" s="2">
-        <f>BL37-BK37</f>
+        <f t="shared" si="8"/>
         <v>9.0419244400000007</v>
       </c>
       <c r="BQ37" s="2">
-        <f>BN37-BK37</f>
+        <f t="shared" si="9"/>
         <v>20.819619190000004</v>
       </c>
       <c r="BR37">
-        <f>BL37-BN37</f>
+        <f t="shared" si="10"/>
         <v>-11.777694750000002</v>
       </c>
       <c r="BS37" s="6">
@@ -15468,23 +15468,23 @@
         <v>0.85994355440000003</v>
       </c>
       <c r="BX37" s="2">
-        <f>BV37-CC37</f>
+        <f t="shared" si="11"/>
         <v>1.5591576890000001</v>
       </c>
       <c r="BY37" s="2">
-        <f>BW37-CD37</f>
+        <f t="shared" si="12"/>
         <v>1.3215153359</v>
       </c>
       <c r="BZ37" s="2">
-        <f>BV37-BW37</f>
+        <f t="shared" si="13"/>
         <v>-8.4232149700000036E-2</v>
       </c>
       <c r="CA37" s="2">
-        <f>BV37-BU37</f>
+        <f t="shared" si="14"/>
         <v>0.19647915719999998</v>
       </c>
       <c r="CB37" s="2">
-        <f>BW37-BU37</f>
+        <f t="shared" si="15"/>
         <v>0.28071130690000001</v>
       </c>
       <c r="CC37" s="2">
@@ -15509,15 +15509,15 @@
         <v>-0.1845857591</v>
       </c>
       <c r="CJ37" s="2">
-        <f>CH37-CI37</f>
+        <f t="shared" si="16"/>
         <v>0.61767783340000004</v>
       </c>
       <c r="CK37" s="2">
-        <f>CH37-CG37</f>
+        <f t="shared" si="17"/>
         <v>0.67708067059999999</v>
       </c>
       <c r="CL37" s="2">
-        <f>CI37-CG37</f>
+        <f t="shared" si="18"/>
         <v>5.9402837200000003E-2</v>
       </c>
       <c r="CM37" s="2">
@@ -15542,15 +15542,15 @@
         <v>7.0396513820000006E-2</v>
       </c>
       <c r="CT37" s="2">
-        <f>CR37-CS37</f>
+        <f t="shared" si="19"/>
         <v>-0.53840447742000008</v>
       </c>
       <c r="CU37" s="2">
-        <f>CR37-CQ37</f>
+        <f t="shared" si="20"/>
         <v>-0.3648848469</v>
       </c>
       <c r="CV37" s="2">
-        <f>CS37-CQ37</f>
+        <f t="shared" si="21"/>
         <v>0.17351963052000002</v>
       </c>
       <c r="CW37" s="2">
@@ -15614,11 +15614,11 @@
         <v>3.2511823810636902E-3</v>
       </c>
       <c r="DQ37">
-        <f>CY37-DC37</f>
+        <f t="shared" si="22"/>
         <v>6.3898500520739865E-3</v>
       </c>
       <c r="DR37">
-        <f>((DA37-CY37)/CY37)*100</f>
+        <f t="shared" si="23"/>
         <v>5.6269919779363349</v>
       </c>
     </row>
@@ -15777,15 +15777,15 @@
         <v>-1.4321550540000001</v>
       </c>
       <c r="AZ38" s="2">
-        <f>AX38-AW38</f>
+        <f t="shared" si="0"/>
         <v>-4.4047814810000006</v>
       </c>
       <c r="BA38" s="2">
-        <f>AY38-AW38</f>
+        <f t="shared" si="1"/>
         <v>-3.8572678460000001</v>
       </c>
       <c r="BB38" s="2">
-        <f>AX38-AY38</f>
+        <f t="shared" si="2"/>
         <v>-0.54751363499999983</v>
       </c>
       <c r="BC38" s="2">
@@ -15801,15 +15801,15 @@
         <v>-0.16547917300000001</v>
       </c>
       <c r="BG38" s="2">
-        <f>BE38-BD38</f>
+        <f t="shared" si="3"/>
         <v>0.28740032520000003</v>
       </c>
       <c r="BH38" s="2">
-        <f>BF38-BD38</f>
+        <f t="shared" si="4"/>
         <v>5.5725931000000006E-2</v>
       </c>
       <c r="BI38" s="2">
-        <f>BE38-BF38</f>
+        <f t="shared" si="5"/>
         <v>0.23167439420000002</v>
       </c>
       <c r="BJ38" s="2">
@@ -15822,26 +15822,26 @@
         <v>-17.78200567</v>
       </c>
       <c r="BM38" s="2">
-        <f>BL38-AE38</f>
+        <f t="shared" si="6"/>
         <v>-34.848707669999996</v>
       </c>
       <c r="BN38" s="2">
         <v>-16.148161340000001</v>
       </c>
       <c r="BO38" s="2">
-        <f>BN38-AF38</f>
+        <f t="shared" si="7"/>
         <v>-38.357367339999996</v>
       </c>
       <c r="BP38" s="2">
-        <f>BL38-BK38</f>
+        <f t="shared" si="8"/>
         <v>3.2308133000000012</v>
       </c>
       <c r="BQ38" s="2">
-        <f>BN38-BK38</f>
+        <f t="shared" si="9"/>
         <v>4.86465763</v>
       </c>
       <c r="BR38">
-        <f>BL38-BN38</f>
+        <f t="shared" si="10"/>
         <v>-1.6338443299999987</v>
       </c>
       <c r="BS38" s="6">
@@ -15860,23 +15860,23 @@
         <v>1.32224988</v>
       </c>
       <c r="BX38" s="2">
-        <f>BV38-CC38</f>
+        <f t="shared" si="11"/>
         <v>0.14611868140000001</v>
       </c>
       <c r="BY38" s="2">
-        <f>BW38-CD38</f>
+        <f t="shared" si="12"/>
         <v>1.2985732510700001</v>
       </c>
       <c r="BZ38" s="2">
-        <f>BV38-BW38</f>
+        <f t="shared" si="13"/>
         <v>-0.72380959219999996</v>
       </c>
       <c r="CA38" s="2">
-        <f>BV38-BU38</f>
+        <f t="shared" si="14"/>
         <v>1.0957526993</v>
       </c>
       <c r="CB38" s="2">
-        <f>BW38-BU38</f>
+        <f t="shared" si="15"/>
         <v>1.8195622915</v>
       </c>
       <c r="CC38" s="2">
@@ -15901,15 +15901,15 @@
         <v>-0.59415152900000001</v>
       </c>
       <c r="CJ38" s="2">
-        <f>CH38-CI38</f>
+        <f t="shared" si="16"/>
         <v>-0.18033511349999998</v>
       </c>
       <c r="CK38" s="2">
-        <f>CH38-CG38</f>
+        <f t="shared" si="17"/>
         <v>-0.95078485109999999</v>
       </c>
       <c r="CL38" s="2">
-        <f>CI38-CG38</f>
+        <f t="shared" si="18"/>
         <v>-0.77044973760000002</v>
       </c>
       <c r="CM38" s="2">
@@ -15934,15 +15934,15 @@
         <v>-0.359586709</v>
       </c>
       <c r="CT38" s="2">
-        <f>CR38-CS38</f>
+        <f t="shared" si="19"/>
         <v>3.690753699999999E-2</v>
       </c>
       <c r="CU38" s="2">
-        <f>CR38-CQ38</f>
+        <f t="shared" si="20"/>
         <v>-0.55739496519999998</v>
       </c>
       <c r="CV38" s="2">
-        <f>CS38-CQ38</f>
+        <f t="shared" si="21"/>
         <v>-0.59430250220000003</v>
       </c>
       <c r="CW38" s="2">
@@ -16006,11 +16006,11 @@
         <v>1.11310950669576E-2</v>
       </c>
       <c r="DQ38">
-        <f>CY38-DC38</f>
+        <f t="shared" si="22"/>
         <v>-3.2554207427893E-2</v>
       </c>
       <c r="DR38">
-        <f>((DA38-CY38)/CY38)*100</f>
+        <f t="shared" si="23"/>
         <v>5.0216637954362504</v>
       </c>
     </row>
@@ -16169,15 +16169,15 @@
         <v>-6.0590467520000004</v>
       </c>
       <c r="AZ39" s="2">
-        <f>AX39-AW39</f>
+        <f t="shared" si="0"/>
         <v>0.67323046450000013</v>
       </c>
       <c r="BA39" s="2">
-        <f>AY39-AW39</f>
+        <f t="shared" si="1"/>
         <v>-6.9680101585000003</v>
       </c>
       <c r="BB39" s="2">
-        <f>AX39-AY39</f>
+        <f t="shared" si="2"/>
         <v>7.6412406230000007</v>
       </c>
       <c r="BC39" s="2">
@@ -16193,15 +16193,15 @@
         <v>0.26105454189999999</v>
       </c>
       <c r="BG39" s="2">
-        <f>BE39-BD39</f>
+        <f t="shared" si="3"/>
         <v>0.11976255099999999</v>
       </c>
       <c r="BH39" s="2">
-        <f>BF39-BD39</f>
+        <f t="shared" si="4"/>
         <v>-0.33327376060000002</v>
       </c>
       <c r="BI39" s="2">
-        <f>BE39-BF39</f>
+        <f t="shared" si="5"/>
         <v>0.45303631160000002</v>
       </c>
       <c r="BJ39" s="2">
@@ -16214,26 +16214,26 @@
         <v>29.367504830000001</v>
       </c>
       <c r="BM39" s="2">
-        <f>BL39-AE39</f>
+        <f t="shared" si="6"/>
         <v>-16.301879169999999</v>
       </c>
       <c r="BN39" s="2">
         <v>-14.684679149999999</v>
       </c>
       <c r="BO39" s="2">
-        <f>BN39-AF39</f>
+        <f t="shared" si="7"/>
         <v>-9.4664331500000003</v>
       </c>
       <c r="BP39" s="2">
-        <f>BL39-BK39</f>
+        <f t="shared" si="8"/>
         <v>72.900166210000009</v>
       </c>
       <c r="BQ39" s="2">
-        <f>BN39-BK39</f>
+        <f t="shared" si="9"/>
         <v>28.84798223</v>
       </c>
       <c r="BR39">
-        <f>BL39-BN39</f>
+        <f t="shared" si="10"/>
         <v>44.052183980000002</v>
       </c>
       <c r="BS39" s="6">
@@ -16252,23 +16252,23 @@
         <v>-0.75083361429999995</v>
       </c>
       <c r="BX39" s="2">
-        <f>BV39-CC39</f>
+        <f t="shared" si="11"/>
         <v>0.53695829015300001</v>
       </c>
       <c r="BY39" s="2">
-        <f>BW39-CD39</f>
+        <f t="shared" si="12"/>
         <v>-0.30499388329999993</v>
       </c>
       <c r="BZ39" s="2">
-        <f>BV39-BW39</f>
+        <f t="shared" si="13"/>
         <v>1.2976987965</v>
       </c>
       <c r="CA39" s="2">
-        <f>BV39-BU39</f>
+        <f t="shared" si="14"/>
         <v>0.87145663259999995</v>
       </c>
       <c r="CB39" s="2">
-        <f>BW39-BU39</f>
+        <f t="shared" si="15"/>
         <v>-0.42624216389999997</v>
       </c>
       <c r="CC39" s="2">
@@ -16293,15 +16293,15 @@
         <v>-0.26221292089999998</v>
       </c>
       <c r="CJ39" s="2">
-        <f>CH39-CI39</f>
+        <f t="shared" si="16"/>
         <v>9.6409451999999729E-3</v>
       </c>
       <c r="CK39" s="2">
-        <f>CH39-CG39</f>
+        <f t="shared" si="17"/>
         <v>0.16831907159999998</v>
       </c>
       <c r="CL39" s="2">
-        <f>CI39-CG39</f>
+        <f t="shared" si="18"/>
         <v>0.15867812640000001</v>
       </c>
       <c r="CM39" s="2">
@@ -16326,15 +16326,15 @@
         <v>0.21976034659999999</v>
       </c>
       <c r="CT39" s="2">
-        <f>CR39-CS39</f>
+        <f t="shared" si="19"/>
         <v>0.1474534113</v>
       </c>
       <c r="CU39" s="2">
-        <f>CR39-CQ39</f>
+        <f t="shared" si="20"/>
         <v>0.19698739530000001</v>
       </c>
       <c r="CV39" s="2">
-        <f>CS39-CQ39</f>
+        <f t="shared" si="21"/>
         <v>4.9533984000000003E-2</v>
       </c>
       <c r="CW39" s="2">
@@ -16398,11 +16398,11 @@
         <v>-1.10023999877739E-2</v>
       </c>
       <c r="DQ39">
-        <f>CY39-DC39</f>
+        <f t="shared" si="22"/>
         <v>-2.0272345282139614E-3</v>
       </c>
       <c r="DR39">
-        <f>((DA39-CY39)/CY39)*100</f>
+        <f t="shared" si="23"/>
         <v>-1.1719300994856181</v>
       </c>
     </row>
@@ -16561,15 +16561,15 @@
         <v>1.800215498</v>
       </c>
       <c r="AZ40" s="2">
-        <f>AX40-AW40</f>
+        <f t="shared" si="0"/>
         <v>4.2449438659999998</v>
       </c>
       <c r="BA40" s="2">
-        <f>AY40-AW40</f>
+        <f t="shared" si="1"/>
         <v>9.5844386180000001</v>
       </c>
       <c r="BB40" s="2">
-        <f>AX40-AY40</f>
+        <f t="shared" si="2"/>
         <v>-5.3394947520000002</v>
       </c>
       <c r="BC40" s="2">
@@ -16585,15 +16585,15 @@
         <v>-0.38576548370000002</v>
       </c>
       <c r="BG40" s="2">
-        <f>BE40-BD40</f>
+        <f t="shared" si="3"/>
         <v>-2.2517297700000022E-3</v>
       </c>
       <c r="BH40" s="2">
-        <f>BF40-BD40</f>
+        <f t="shared" si="4"/>
         <v>-0.30251820327000001</v>
       </c>
       <c r="BI40" s="2">
-        <f>BE40-BF40</f>
+        <f t="shared" si="5"/>
         <v>0.30026647350000002</v>
       </c>
       <c r="BJ40" s="2">
@@ -16606,26 +16606,26 @@
         <v>20.70180852</v>
       </c>
       <c r="BM40" s="2">
-        <f>BL40-AE40</f>
+        <f t="shared" si="6"/>
         <v>18.044322319999999</v>
       </c>
       <c r="BN40" s="2">
         <v>0.75669239219999995</v>
       </c>
       <c r="BO40" s="2">
-        <f>BN40-AF40</f>
+        <f t="shared" si="7"/>
         <v>0.30972085219999995</v>
       </c>
       <c r="BP40" s="2">
-        <f>BL40-BK40</f>
+        <f t="shared" si="8"/>
         <v>24.822084313000001</v>
       </c>
       <c r="BQ40" s="2">
-        <f>BN40-BK40</f>
+        <f t="shared" si="9"/>
         <v>4.8769681852</v>
       </c>
       <c r="BR40">
-        <f>BL40-BN40</f>
+        <f t="shared" si="10"/>
         <v>19.945116127799999</v>
       </c>
       <c r="BS40" s="6">
@@ -16644,23 +16644,23 @@
         <v>1.012887088</v>
       </c>
       <c r="BX40" s="2">
-        <f>BV40-CC40</f>
+        <f t="shared" si="11"/>
         <v>-0.14716833149999997</v>
       </c>
       <c r="BY40" s="2">
-        <f>BW40-CD40</f>
+        <f t="shared" si="12"/>
         <v>-0.64839850499999985</v>
       </c>
       <c r="BZ40" s="2">
-        <f>BV40-BW40</f>
+        <f t="shared" si="13"/>
         <v>-0.17333112470000001</v>
       </c>
       <c r="CA40" s="2">
-        <f>BV40-BU40</f>
+        <f t="shared" si="14"/>
         <v>0.29111133220000007</v>
       </c>
       <c r="CB40" s="2">
-        <f>BW40-BU40</f>
+        <f t="shared" si="15"/>
         <v>0.46444245690000008</v>
       </c>
       <c r="CC40" s="2">
@@ -16685,15 +16685,15 @@
         <v>-0.54019358900000003</v>
       </c>
       <c r="CJ40" s="2">
-        <f>CH40-CI40</f>
+        <f t="shared" si="16"/>
         <v>1.4614759306</v>
       </c>
       <c r="CK40" s="2">
-        <f>CH40-CG40</f>
+        <f t="shared" si="17"/>
         <v>0.68435883639999995</v>
       </c>
       <c r="CL40" s="2">
-        <f>CI40-CG40</f>
+        <f t="shared" si="18"/>
         <v>-0.77711709420000008</v>
       </c>
       <c r="CM40" s="2">
@@ -16718,15 +16718,15 @@
         <v>-0.32996995140000002</v>
       </c>
       <c r="CT40" s="2">
-        <f>CR40-CS40</f>
+        <f t="shared" si="19"/>
         <v>0.57096813140000002</v>
       </c>
       <c r="CU40" s="2">
-        <f>CR40-CQ40</f>
+        <f t="shared" si="20"/>
         <v>-0.31893838970000005</v>
       </c>
       <c r="CV40" s="2">
-        <f>CS40-CQ40</f>
+        <f t="shared" si="21"/>
         <v>-0.88990652110000013</v>
       </c>
       <c r="CW40" s="2">
@@ -16790,11 +16790,11 @@
         <v>1.59071705711539E-2</v>
       </c>
       <c r="DQ40">
-        <f>CY40-DC40</f>
+        <f t="shared" si="22"/>
         <v>-1.9277576793690354E-3</v>
       </c>
       <c r="DR40">
-        <f>((DA40-CY40)/CY40)*100</f>
+        <f t="shared" si="23"/>
         <v>-1.2355858382006983</v>
       </c>
     </row>
@@ -16953,15 +16953,15 @@
         <v>1.5115879759999999</v>
       </c>
       <c r="AZ41" s="2">
-        <f>AX41-AW41</f>
+        <f t="shared" si="0"/>
         <v>-2.0124612550000003</v>
       </c>
       <c r="BA41" s="2">
-        <f>AY41-AW41</f>
+        <f t="shared" si="1"/>
         <v>-2.5088798530000003</v>
       </c>
       <c r="BB41" s="2">
-        <f>AX41-AY41</f>
+        <f t="shared" si="2"/>
         <v>0.49641859799999999</v>
       </c>
       <c r="BC41" s="2">
@@ -16977,15 +16977,15 @@
         <v>0.19285409710000001</v>
       </c>
       <c r="BG41" s="2">
-        <f>BE41-BD41</f>
+        <f t="shared" si="3"/>
         <v>-0.12595097330000002</v>
       </c>
       <c r="BH41" s="2">
-        <f>BF41-BD41</f>
+        <f t="shared" si="4"/>
         <v>-6.1357867700000013E-2</v>
       </c>
       <c r="BI41" s="2">
-        <f>BE41-BF41</f>
+        <f t="shared" si="5"/>
         <v>-6.4593105600000006E-2</v>
       </c>
       <c r="BJ41" s="2">
@@ -16998,26 +16998,26 @@
         <v>17.665625559999999</v>
       </c>
       <c r="BM41" s="2">
-        <f>BL41-AE41</f>
+        <f t="shared" si="6"/>
         <v>-5.8642324400000021</v>
       </c>
       <c r="BN41" s="2">
         <v>-4.1286491300000003</v>
       </c>
       <c r="BO41" s="2">
-        <f>BN41-AF41</f>
+        <f t="shared" si="7"/>
         <v>3.4987145699999997</v>
       </c>
       <c r="BP41" s="2">
-        <f>BL41-BK41</f>
+        <f t="shared" si="8"/>
         <v>42.870214699999998</v>
       </c>
       <c r="BQ41" s="2">
-        <f>BN41-BK41</f>
+        <f t="shared" si="9"/>
         <v>21.07594001</v>
       </c>
       <c r="BR41">
-        <f>BL41-BN41</f>
+        <f t="shared" si="10"/>
         <v>21.794274689999998</v>
       </c>
       <c r="BS41" s="6">
@@ -17036,23 +17036,23 @@
         <v>-5.5588192809999999E-2</v>
       </c>
       <c r="BX41" s="2">
-        <f>BV41-CC41</f>
+        <f t="shared" si="11"/>
         <v>0.51967736380000007</v>
       </c>
       <c r="BY41" s="2">
-        <f>BW41-CD41</f>
+        <f t="shared" si="12"/>
         <v>3.2579809760000002E-2</v>
       </c>
       <c r="BZ41" s="2">
-        <f>BV41-BW41</f>
+        <f t="shared" si="13"/>
         <v>0.85257047091000004</v>
       </c>
       <c r="CA41" s="2">
-        <f>BV41-BU41</f>
+        <f t="shared" si="14"/>
         <v>0.9933569511</v>
       </c>
       <c r="CB41" s="2">
-        <f>BW41-BU41</f>
+        <f t="shared" si="15"/>
         <v>0.14078648019000001</v>
       </c>
       <c r="CC41" s="2">
@@ -17077,15 +17077,15 @@
         <v>-0.72827608769999996</v>
       </c>
       <c r="CJ41" s="2">
-        <f>CH41-CI41</f>
+        <f t="shared" si="16"/>
         <v>0.65959329867999994</v>
       </c>
       <c r="CK41" s="2">
-        <f>CH41-CG41</f>
+        <f t="shared" si="17"/>
         <v>7.2034976979999998E-2</v>
       </c>
       <c r="CL41" s="2">
-        <f>CI41-CG41</f>
+        <f t="shared" si="18"/>
         <v>-0.5875583217</v>
       </c>
       <c r="CM41" s="2">
@@ -17110,15 +17110,15 @@
         <v>0.1340190949</v>
       </c>
       <c r="CT41" s="2">
-        <f>CR41-CS41</f>
+        <f t="shared" si="19"/>
         <v>-0.41940624699999995</v>
       </c>
       <c r="CU41" s="2">
-        <f>CR41-CQ41</f>
+        <f t="shared" si="20"/>
         <v>0.33685196780000004</v>
       </c>
       <c r="CV41" s="2">
-        <f>CS41-CQ41</f>
+        <f t="shared" si="21"/>
         <v>0.75625821479999999</v>
       </c>
       <c r="CW41" s="2">
@@ -17182,11 +17182,11 @@
         <v>4.2077567050000597E-2</v>
       </c>
       <c r="DQ41">
-        <f>CY41-DC41</f>
+        <f t="shared" si="22"/>
         <v>-4.0481117321200522E-4</v>
       </c>
       <c r="DR41">
-        <f>((DA41-CY41)/CY41)*100</f>
+        <f t="shared" si="23"/>
         <v>8.6200598342233405</v>
       </c>
     </row>
@@ -17345,15 +17345,15 @@
         <v>0.54551385559999999</v>
       </c>
       <c r="AZ42" s="2">
-        <f>AX42-AW42</f>
+        <f t="shared" si="0"/>
         <v>-3.7439326596</v>
       </c>
       <c r="BA42" s="2">
-        <f>AY42-AW42</f>
+        <f t="shared" si="1"/>
         <v>-0.325077744</v>
       </c>
       <c r="BB42" s="2">
-        <f>AX42-AY42</f>
+        <f t="shared" si="2"/>
         <v>-3.4188549155999999</v>
       </c>
       <c r="BC42" s="2">
@@ -17369,15 +17369,15 @@
         <v>-0.23021168989999999</v>
       </c>
       <c r="BG42" s="2">
-        <f>BE42-BD42</f>
+        <f t="shared" si="3"/>
         <v>-0.95644106140000007</v>
       </c>
       <c r="BH42" s="2">
-        <f>BF42-BD42</f>
+        <f t="shared" si="4"/>
         <v>-0.63587019020000002</v>
       </c>
       <c r="BI42" s="2">
-        <f>BE42-BF42</f>
+        <f t="shared" si="5"/>
         <v>-0.32057087120000005</v>
       </c>
       <c r="BJ42" s="2">
@@ -17390,26 +17390,26 @@
         <v>22.60895038</v>
       </c>
       <c r="BM42" s="2">
-        <f>BL42-AE42</f>
+        <f t="shared" si="6"/>
         <v>24.093775479999998</v>
       </c>
       <c r="BN42" s="2">
         <v>16.115664240000001</v>
       </c>
       <c r="BO42" s="2">
-        <f>BN42-AF42</f>
+        <f t="shared" si="7"/>
         <v>16.696302940000002</v>
       </c>
       <c r="BP42" s="2">
-        <f>BL42-BK42</f>
+        <f t="shared" si="8"/>
         <v>15.174798021999999</v>
       </c>
       <c r="BQ42" s="2">
-        <f>BN42-BK42</f>
+        <f t="shared" si="9"/>
         <v>8.6815118820000006</v>
       </c>
       <c r="BR42">
-        <f>BL42-BN42</f>
+        <f t="shared" si="10"/>
         <v>6.4932861399999986</v>
       </c>
       <c r="BS42" s="6">
@@ -17428,23 +17428,23 @@
         <v>1.6560802900000001E-2</v>
       </c>
       <c r="BX42" s="2">
-        <f>BV42-CC42</f>
+        <f t="shared" si="11"/>
         <v>0.36074308593400001</v>
       </c>
       <c r="BY42" s="2">
-        <f>BW42-CD42</f>
+        <f t="shared" si="12"/>
         <v>0.17829154329999999</v>
       </c>
       <c r="BZ42" s="2">
-        <f>BV42-BW42</f>
+        <f t="shared" si="13"/>
         <v>-9.7679374659999998E-3</v>
       </c>
       <c r="CA42" s="2">
-        <f>BV42-BU42</f>
+        <f t="shared" si="14"/>
         <v>0.77745393143399999</v>
       </c>
       <c r="CB42" s="2">
-        <f>BW42-BU42</f>
+        <f t="shared" si="15"/>
         <v>0.7872218688999999</v>
       </c>
       <c r="CC42" s="2">
@@ -17469,15 +17469,15 @@
         <v>-0.89778001289999998</v>
       </c>
       <c r="CJ42" s="2">
-        <f>CH42-CI42</f>
+        <f t="shared" si="16"/>
         <v>0.54289400649999997</v>
       </c>
       <c r="CK42" s="2">
-        <f>CH42-CG42</f>
+        <f t="shared" si="17"/>
         <v>-1.5409149433999998</v>
       </c>
       <c r="CL42" s="2">
-        <f>CI42-CG42</f>
+        <f t="shared" si="18"/>
         <v>-2.0838089498999999</v>
       </c>
       <c r="CM42" s="2">
@@ -17502,15 +17502,15 @@
         <v>-4.3338734320000002E-2</v>
       </c>
       <c r="CT42" s="2">
-        <f>CR42-CS42</f>
+        <f t="shared" si="19"/>
         <v>0.22894590531999998</v>
       </c>
       <c r="CU42" s="2">
-        <f>CR42-CQ42</f>
+        <f t="shared" si="20"/>
         <v>0.18904477146999998</v>
       </c>
       <c r="CV42" s="2">
-        <f>CS42-CQ42</f>
+        <f t="shared" si="21"/>
         <v>-3.9901133849999999E-2</v>
       </c>
       <c r="CW42" s="2">
@@ -17574,11 +17574,11 @@
         <v>-4.31315666719456E-2</v>
       </c>
       <c r="DQ42">
-        <f>CY42-DC42</f>
+        <f t="shared" si="22"/>
         <v>8.494502911344104E-2</v>
       </c>
       <c r="DR42">
-        <f>((DA42-CY42)/CY42)*100</f>
+        <f t="shared" si="23"/>
         <v>6.5666344357256756</v>
       </c>
     </row>
@@ -17737,15 +17737,15 @@
         <v>-6.4998280829999997</v>
       </c>
       <c r="AZ43" s="2">
-        <f>AX43-AW43</f>
+        <f t="shared" si="0"/>
         <v>-2.4972008922</v>
       </c>
       <c r="BA43" s="2">
-        <f>AY43-AW43</f>
+        <f t="shared" si="1"/>
         <v>-6.2670333071999993</v>
       </c>
       <c r="BB43" s="2">
-        <f>AX43-AY43</f>
+        <f t="shared" si="2"/>
         <v>3.7698324149999998</v>
       </c>
       <c r="BC43" s="2">
@@ -17761,15 +17761,15 @@
         <v>-0.13156543809999999</v>
       </c>
       <c r="BG43" s="2">
-        <f>BE43-BD43</f>
+        <f t="shared" si="3"/>
         <v>3.5881615400000011E-2</v>
       </c>
       <c r="BH43" s="2">
-        <f>BF43-BD43</f>
+        <f t="shared" si="4"/>
         <v>1.9362003700000019E-2</v>
       </c>
       <c r="BI43" s="2">
-        <f>BE43-BF43</f>
+        <f t="shared" si="5"/>
         <v>1.6519611699999992E-2</v>
       </c>
       <c r="BJ43" s="2">
@@ -17782,26 +17782,26 @@
         <v>14.700740440000001</v>
       </c>
       <c r="BM43" s="2">
-        <f>BL43-AE43</f>
+        <f t="shared" si="6"/>
         <v>24.467787440000002</v>
       </c>
       <c r="BN43" s="2">
         <v>9.4523797480000002</v>
       </c>
       <c r="BO43" s="2">
-        <f>BN43-AF43</f>
+        <f t="shared" si="7"/>
         <v>-1.8394972519999992</v>
       </c>
       <c r="BP43" s="2">
-        <f>BL43-BK43</f>
+        <f t="shared" si="8"/>
         <v>29.037156100000001</v>
       </c>
       <c r="BQ43" s="2">
-        <f>BN43-BK43</f>
+        <f t="shared" si="9"/>
         <v>23.788795407999999</v>
       </c>
       <c r="BR43">
-        <f>BL43-BN43</f>
+        <f t="shared" si="10"/>
         <v>5.2483606920000003</v>
       </c>
       <c r="BS43" s="6">
@@ -17820,23 +17820,23 @@
         <v>0.87425727760000005</v>
       </c>
       <c r="BX43" s="2">
-        <f>BV43-CC43</f>
+        <f t="shared" si="11"/>
         <v>1.9830400742999998</v>
       </c>
       <c r="BY43" s="2">
-        <f>BW43-CD43</f>
+        <f t="shared" si="12"/>
         <v>2.2354710176000001</v>
       </c>
       <c r="BZ43" s="2">
-        <f>BV43-BW43</f>
+        <f t="shared" si="13"/>
         <v>1.9694886154</v>
       </c>
       <c r="CA43" s="2">
-        <f>BV43-BU43</f>
+        <f t="shared" si="14"/>
         <v>3.3162748204999999</v>
       </c>
       <c r="CB43" s="2">
-        <f>BW43-BU43</f>
+        <f t="shared" si="15"/>
         <v>1.3467862050999999</v>
       </c>
       <c r="CC43" s="2">
@@ -17861,15 +17861,15 @@
         <v>-1.188550939</v>
       </c>
       <c r="CJ43" s="2">
-        <f>CH43-CI43</f>
+        <f t="shared" si="16"/>
         <v>1.5524863E-2</v>
       </c>
       <c r="CK43" s="2">
-        <f>CH43-CG43</f>
+        <f t="shared" si="17"/>
         <v>-1.8549947006999998</v>
       </c>
       <c r="CL43" s="2">
-        <f>CI43-CG43</f>
+        <f t="shared" si="18"/>
         <v>-1.8705195636999998</v>
       </c>
       <c r="CM43" s="2">
@@ -17894,15 +17894,15 @@
         <v>-0.44216166470000001</v>
       </c>
       <c r="CT43" s="2">
-        <f>CR43-CS43</f>
+        <f t="shared" si="19"/>
         <v>6.0275468000000054E-3</v>
       </c>
       <c r="CU43" s="2">
-        <f>CR43-CQ43</f>
+        <f t="shared" si="20"/>
         <v>-0.36369215223000001</v>
       </c>
       <c r="CV43" s="2">
-        <f>CS43-CQ43</f>
+        <f t="shared" si="21"/>
         <v>-0.36971969903000002</v>
       </c>
       <c r="CW43" s="2">
@@ -17966,11 +17966,11 @@
         <v>-3.9077547262422697E-3</v>
       </c>
       <c r="DQ43">
-        <f>CY43-DC43</f>
+        <f t="shared" si="22"/>
         <v>-7.1765678003429811E-3</v>
       </c>
       <c r="DR43">
-        <f>((DA43-CY43)/CY43)*100</f>
+        <f t="shared" si="23"/>
         <v>5.4116512599106885</v>
       </c>
     </row>
@@ -18129,15 +18129,15 @@
         <v>-3.1180891470000001</v>
       </c>
       <c r="AZ44" s="2">
-        <f>AX44-AW44</f>
+        <f t="shared" si="0"/>
         <v>5.3421160030000001</v>
       </c>
       <c r="BA44" s="2">
-        <f>AY44-AW44</f>
+        <f t="shared" si="1"/>
         <v>3.6654725360000002</v>
       </c>
       <c r="BB44" s="2">
-        <f>AX44-AY44</f>
+        <f t="shared" si="2"/>
         <v>1.6766434670000001</v>
       </c>
       <c r="BC44" s="2">
@@ -18153,15 +18153,15 @@
         <v>0.2587817986</v>
       </c>
       <c r="BG44" s="2">
-        <f>BE44-BD44</f>
+        <f t="shared" si="3"/>
         <v>-3.9418025078999996E-2</v>
       </c>
       <c r="BH44" s="2">
-        <f>BF44-BD44</f>
+        <f t="shared" si="4"/>
         <v>0.22459105391</v>
       </c>
       <c r="BI44" s="2">
-        <f>BE44-BF44</f>
+        <f t="shared" si="5"/>
         <v>-0.264009078989</v>
       </c>
       <c r="BJ44" s="2">
@@ -18174,26 +18174,26 @@
         <v>8.0845455009999991</v>
       </c>
       <c r="BM44" s="2">
-        <f>BL44-AE44</f>
+        <f t="shared" si="6"/>
         <v>12.841084800999999</v>
       </c>
       <c r="BN44" s="2">
         <v>9.2847615680000004</v>
       </c>
       <c r="BO44" s="2">
-        <f>BN44-AF44</f>
+        <f t="shared" si="7"/>
         <v>-6.7906604319999992</v>
       </c>
       <c r="BP44" s="2">
-        <f>BL44-BK44</f>
+        <f t="shared" si="8"/>
         <v>44.393460091000001</v>
       </c>
       <c r="BQ44" s="2">
-        <f>BN44-BK44</f>
+        <f t="shared" si="9"/>
         <v>45.593676158000001</v>
       </c>
       <c r="BR44">
-        <f>BL44-BN44</f>
+        <f t="shared" si="10"/>
         <v>-1.2002160670000013</v>
       </c>
       <c r="BS44" s="6">
@@ -18212,23 +18212,23 @@
         <v>0.94401658109999997</v>
       </c>
       <c r="BX44" s="2">
-        <f>BV44-CC44</f>
+        <f t="shared" si="11"/>
         <v>-0.26070162599999991</v>
       </c>
       <c r="BY44" s="2">
-        <f>BW44-CD44</f>
+        <f t="shared" si="12"/>
         <v>0.81362523769999995</v>
       </c>
       <c r="BZ44" s="2">
-        <f>BV44-BW44</f>
+        <f t="shared" si="13"/>
         <v>0.2879482429000001</v>
       </c>
       <c r="CA44" s="2">
-        <f>BV44-BU44</f>
+        <f t="shared" si="14"/>
         <v>1.0011356401</v>
       </c>
       <c r="CB44" s="2">
-        <f>BW44-BU44</f>
+        <f t="shared" si="15"/>
         <v>0.71318739720000002</v>
       </c>
       <c r="CC44" s="2">
@@ -18253,15 +18253,15 @@
         <v>0.31420384359999998</v>
       </c>
       <c r="CJ44" s="2">
-        <f>CH44-CI44</f>
+        <f t="shared" si="16"/>
         <v>-0.37516869518999996</v>
       </c>
       <c r="CK44" s="2">
-        <f>CH44-CG44</f>
+        <f t="shared" si="17"/>
         <v>-1.35003293259</v>
       </c>
       <c r="CL44" s="2">
-        <f>CI44-CG44</f>
+        <f t="shared" si="18"/>
         <v>-0.97486423739999994</v>
       </c>
       <c r="CM44" s="2">
@@ -18286,15 +18286,15 @@
         <v>-0.49191364599999998</v>
       </c>
       <c r="CT44" s="2">
-        <f>CR44-CS44</f>
+        <f t="shared" si="19"/>
         <v>0.71159346769999998</v>
       </c>
       <c r="CU44" s="2">
-        <f>CR44-CQ44</f>
+        <f t="shared" si="20"/>
         <v>0.96029602930000002</v>
       </c>
       <c r="CV44" s="2">
-        <f>CS44-CQ44</f>
+        <f t="shared" si="21"/>
         <v>0.24870256160000004</v>
       </c>
       <c r="CW44" s="2">
@@ -18358,11 +18358,11 @@
         <v>1.41403108718805E-2</v>
       </c>
       <c r="DQ44">
-        <f>CY44-DC44</f>
+        <f t="shared" si="22"/>
         <v>-6.4615916926402672E-4</v>
       </c>
       <c r="DR44">
-        <f>((DA44-CY44)/CY44)*100</f>
+        <f t="shared" si="23"/>
         <v>5.8697255634242431</v>
       </c>
     </row>
@@ -18521,15 +18521,15 @@
         <v>-0.61956106509999997</v>
       </c>
       <c r="AZ45" s="2">
-        <f>AX45-AW45</f>
+        <f t="shared" si="0"/>
         <v>-0.77551498388000006</v>
       </c>
       <c r="BA45" s="2">
-        <f>AY45-AW45</f>
+        <f t="shared" si="1"/>
         <v>-0.67514329987999999</v>
       </c>
       <c r="BB45" s="2">
-        <f>AX45-AY45</f>
+        <f t="shared" si="2"/>
         <v>-0.10037168400000007</v>
       </c>
       <c r="BC45" s="2">
@@ -18545,15 +18545,15 @@
         <v>8.57022811E-2</v>
       </c>
       <c r="BG45" s="2">
-        <f>BE45-BD45</f>
+        <f t="shared" si="3"/>
         <v>-0.63047756357000007</v>
       </c>
       <c r="BH45" s="2">
-        <f>BF45-BD45</f>
+        <f t="shared" si="4"/>
         <v>5.0986289630000001E-2</v>
       </c>
       <c r="BI45" s="2">
-        <f>BE45-BF45</f>
+        <f t="shared" si="5"/>
         <v>-0.68146385320000002</v>
       </c>
       <c r="BJ45" s="2">
@@ -18566,26 +18566,26 @@
         <v>25.349366190000001</v>
       </c>
       <c r="BM45" s="2">
-        <f>BL45-AE45</f>
+        <f t="shared" si="6"/>
         <v>29.192874190000001</v>
       </c>
       <c r="BN45" s="2">
         <v>1.521780168</v>
       </c>
       <c r="BO45" s="2">
-        <f>BN45-AF45</f>
+        <f t="shared" si="7"/>
         <v>31.277193168</v>
       </c>
       <c r="BP45" s="2">
-        <f>BL45-BK45</f>
+        <f t="shared" si="8"/>
         <v>40.08541993</v>
       </c>
       <c r="BQ45" s="2">
-        <f>BN45-BK45</f>
+        <f t="shared" si="9"/>
         <v>16.257833907999999</v>
       </c>
       <c r="BR45">
-        <f>BL45-BN45</f>
+        <f t="shared" si="10"/>
         <v>23.827586022000002</v>
       </c>
       <c r="BS45" s="6">
@@ -18604,23 +18604,23 @@
         <v>-0.29731618240000002</v>
       </c>
       <c r="BX45" s="2">
-        <f>BV45-CC45</f>
+        <f t="shared" si="11"/>
         <v>7.2545459899999998E-2</v>
       </c>
       <c r="BY45" s="2">
-        <f>BW45-CD45</f>
+        <f t="shared" si="12"/>
         <v>-0.71884615939999996</v>
       </c>
       <c r="BZ45" s="2">
-        <f>BV45-BW45</f>
+        <f t="shared" si="13"/>
         <v>0.19175905910000002</v>
       </c>
       <c r="CA45" s="2">
-        <f>BV45-BU45</f>
+        <f t="shared" si="14"/>
         <v>1.2960783786999999</v>
       </c>
       <c r="CB45" s="2">
-        <f>BW45-BU45</f>
+        <f t="shared" si="15"/>
         <v>1.1043193196000001</v>
       </c>
       <c r="CC45" s="2">
@@ -18645,15 +18645,15 @@
         <v>1.3436138909999999</v>
       </c>
       <c r="CJ45" s="2">
-        <f>CH45-CI45</f>
+        <f t="shared" si="16"/>
         <v>-0.79463934559999994</v>
       </c>
       <c r="CK45" s="2">
-        <f>CH45-CG45</f>
+        <f t="shared" si="17"/>
         <v>0.95831036570000006</v>
       </c>
       <c r="CL45" s="2">
-        <f>CI45-CG45</f>
+        <f t="shared" si="18"/>
         <v>1.7529497112999999</v>
       </c>
       <c r="CM45" s="2">
@@ -18678,15 +18678,15 @@
         <v>0.23594212310000001</v>
       </c>
       <c r="CT45" s="2">
-        <f>CR45-CS45</f>
+        <f t="shared" si="19"/>
         <v>-0.53351031669999993</v>
       </c>
       <c r="CU45" s="2">
-        <f>CR45-CQ45</f>
+        <f t="shared" si="20"/>
         <v>-0.19226304139999997</v>
       </c>
       <c r="CV45" s="2">
-        <f>CS45-CQ45</f>
+        <f t="shared" si="21"/>
         <v>0.34124727529999999</v>
       </c>
       <c r="CW45" s="2">
@@ -18750,11 +18750,11 @@
         <v>-3.3435396408094602E-3</v>
       </c>
       <c r="DQ45">
-        <f>CY45-DC45</f>
+        <f t="shared" si="22"/>
         <v>1.7301852794839867E-3</v>
       </c>
       <c r="DR45">
-        <f>((DA45-CY45)/CY45)*100</f>
+        <f t="shared" si="23"/>
         <v>6.3084606325579706</v>
       </c>
     </row>
@@ -18913,15 +18913,15 @@
         <v>1.094174695</v>
       </c>
       <c r="AZ46" s="2">
-        <f>AX46-AW46</f>
+        <f t="shared" si="0"/>
         <v>-2.2430822400000001</v>
       </c>
       <c r="BA46" s="2">
-        <f>AY46-AW46</f>
+        <f t="shared" si="1"/>
         <v>-5.5603685000000125E-2</v>
       </c>
       <c r="BB46" s="2">
-        <f>AX46-AY46</f>
+        <f t="shared" si="2"/>
         <v>-2.1874785550000002</v>
       </c>
       <c r="BC46" s="2">
@@ -18937,15 +18937,15 @@
         <v>0.1229219954</v>
       </c>
       <c r="BG46" s="2">
-        <f>BE46-BD46</f>
+        <f t="shared" si="3"/>
         <v>4.486215105E-2</v>
       </c>
       <c r="BH46" s="2">
-        <f>BF46-BD46</f>
+        <f t="shared" si="4"/>
         <v>0.14212878453</v>
       </c>
       <c r="BI46" s="2">
-        <f>BE46-BF46</f>
+        <f t="shared" si="5"/>
         <v>-9.7266633480000003E-2</v>
       </c>
       <c r="BJ46" s="2">
@@ -18958,26 +18958,26 @@
         <v>36.084543760000003</v>
       </c>
       <c r="BM46" s="2">
-        <f>BL46-AE46</f>
+        <f t="shared" si="6"/>
         <v>28.609813760000002</v>
       </c>
       <c r="BN46" s="2">
         <v>2.7879750890000001</v>
       </c>
       <c r="BO46" s="2">
-        <f>BN46-AF46</f>
+        <f t="shared" si="7"/>
         <v>10.555566589</v>
       </c>
       <c r="BP46" s="2">
-        <f>BL46-BK46</f>
+        <f t="shared" si="8"/>
         <v>54.582095640000006</v>
       </c>
       <c r="BQ46" s="2">
-        <f>BN46-BK46</f>
+        <f t="shared" si="9"/>
         <v>21.285526968999999</v>
       </c>
       <c r="BR46">
-        <f>BL46-BN46</f>
+        <f t="shared" si="10"/>
         <v>33.296568671000003</v>
       </c>
       <c r="BS46" s="6">
@@ -18996,23 +18996,23 @@
         <v>-0.70600710840000003</v>
       </c>
       <c r="BX46" s="2">
-        <f>BV46-CC46</f>
+        <f t="shared" si="11"/>
         <v>-0.56036226900000008</v>
       </c>
       <c r="BY46" s="2">
-        <f>BW46-CD46</f>
+        <f t="shared" si="12"/>
         <v>-0.47617290070000007</v>
       </c>
       <c r="BZ46" s="2">
-        <f>BV46-BW46</f>
+        <f t="shared" si="13"/>
         <v>2.0716006943999998</v>
       </c>
       <c r="CA46" s="2">
-        <f>BV46-BU46</f>
+        <f t="shared" si="14"/>
         <v>2.9255467189999997</v>
       </c>
       <c r="CB46" s="2">
-        <f>BW46-BU46</f>
+        <f t="shared" si="15"/>
         <v>0.85394602460000002</v>
       </c>
       <c r="CC46" s="2">
@@ -19037,15 +19037,15 @@
         <v>0.64716006749999999</v>
       </c>
       <c r="CJ46" s="2">
-        <f>CH46-CI46</f>
+        <f t="shared" si="16"/>
         <v>1.2140628185</v>
       </c>
       <c r="CK46" s="2">
-        <f>CH46-CG46</f>
+        <f t="shared" si="17"/>
         <v>0.58213490199999995</v>
       </c>
       <c r="CL46" s="2">
-        <f>CI46-CG46</f>
+        <f t="shared" si="18"/>
         <v>-0.63192791650000002</v>
       </c>
       <c r="CM46" s="2">
@@ -19070,15 +19070,15 @@
         <v>-0.96063730810000003</v>
       </c>
       <c r="CT46" s="2">
-        <f>CR46-CS46</f>
+        <f t="shared" si="19"/>
         <v>1.1536922621000001</v>
       </c>
       <c r="CU46" s="2">
-        <f>CR46-CQ46</f>
+        <f t="shared" si="20"/>
         <v>9.4047939720000001E-2</v>
       </c>
       <c r="CV46" s="2">
-        <f>CS46-CQ46</f>
+        <f t="shared" si="21"/>
         <v>-1.0596443223800001</v>
       </c>
       <c r="CW46" s="2">
@@ -19142,11 +19142,11 @@
         <v>2.48155249864794E-2</v>
       </c>
       <c r="DQ46">
-        <f>CY46-DC46</f>
+        <f t="shared" si="22"/>
         <v>-1.8970003176945971E-2</v>
       </c>
       <c r="DR46">
-        <f>((DA46-CY46)/CY46)*100</f>
+        <f t="shared" si="23"/>
         <v>5.3386625062221613</v>
       </c>
     </row>
@@ -19305,15 +19305,15 @@
         <v>1.462185807</v>
       </c>
       <c r="AZ47" s="2">
-        <f>AX47-AW47</f>
+        <f t="shared" si="0"/>
         <v>-1.0814099438</v>
       </c>
       <c r="BA47" s="2">
-        <f>AY47-AW47</f>
+        <f t="shared" si="1"/>
         <v>1.8665423152</v>
       </c>
       <c r="BB47" s="2">
-        <f>AX47-AY47</f>
+        <f t="shared" si="2"/>
         <v>-2.947952259</v>
       </c>
       <c r="BC47" s="2">
@@ -19329,15 +19329,15 @@
         <v>0.49556301380000001</v>
       </c>
       <c r="BG47" s="2">
-        <f>BE47-BD47</f>
+        <f t="shared" si="3"/>
         <v>0.44194403230000001</v>
       </c>
       <c r="BH47" s="2">
-        <f>BF47-BD47</f>
+        <f t="shared" si="4"/>
         <v>0.73315159699999999</v>
       </c>
       <c r="BI47" s="2">
-        <f>BE47-BF47</f>
+        <f t="shared" si="5"/>
         <v>-0.29120756469999998</v>
       </c>
       <c r="BJ47" s="2">
@@ -19350,26 +19350,26 @@
         <v>-5.1045627539999998</v>
       </c>
       <c r="BM47" s="2">
-        <f>BL47-AE47</f>
+        <f t="shared" si="6"/>
         <v>2.883776246</v>
       </c>
       <c r="BN47" s="2">
         <v>-7.5274290309999996</v>
       </c>
       <c r="BO47" s="2">
-        <f>BN47-AF47</f>
+        <f t="shared" si="7"/>
         <v>-20.265272531000001</v>
       </c>
       <c r="BP47" s="2">
-        <f>BL47-BK47</f>
+        <f t="shared" si="8"/>
         <v>38.113988966000001</v>
       </c>
       <c r="BQ47" s="2">
-        <f>BN47-BK47</f>
+        <f t="shared" si="9"/>
         <v>35.691122689000004</v>
       </c>
       <c r="BR47">
-        <f>BL47-BN47</f>
+        <f t="shared" si="10"/>
         <v>2.4228662769999998</v>
       </c>
       <c r="BS47" s="6">
@@ -19388,23 +19388,23 @@
         <v>0.1073861727</v>
       </c>
       <c r="BX47" s="2">
-        <f>BV47-CC47</f>
+        <f t="shared" si="11"/>
         <v>1.09093044831</v>
       </c>
       <c r="BY47" s="2">
-        <f>BW47-CD47</f>
+        <f t="shared" si="12"/>
         <v>0.97230098850000002</v>
       </c>
       <c r="BZ47" s="2">
-        <f>BV47-BW47</f>
+        <f t="shared" si="13"/>
         <v>0.93625152829999991</v>
       </c>
       <c r="CA47" s="2">
-        <f>BV47-BU47</f>
+        <f t="shared" si="14"/>
         <v>1.4616354092999999</v>
       </c>
       <c r="CB47" s="2">
-        <f>BW47-BU47</f>
+        <f t="shared" si="15"/>
         <v>0.525383881</v>
       </c>
       <c r="CC47" s="2">
@@ -19429,15 +19429,15 @@
         <v>5.7805616800000001E-2</v>
       </c>
       <c r="CJ47" s="2">
-        <f>CH47-CI47</f>
+        <f t="shared" si="16"/>
         <v>-1.3186368418000001</v>
       </c>
       <c r="CK47" s="2">
-        <f>CH47-CG47</f>
+        <f t="shared" si="17"/>
         <v>-1.3155639566899999</v>
       </c>
       <c r="CL47" s="2">
-        <f>CI47-CG47</f>
+        <f t="shared" si="18"/>
         <v>3.0728851099999996E-3</v>
       </c>
       <c r="CM47" s="2">
@@ -19462,15 +19462,15 @@
         <v>-6.7090480669999994E-2</v>
       </c>
       <c r="CT47" s="2">
-        <f>CR47-CS47</f>
+        <f t="shared" si="19"/>
         <v>-1.7649638660000008E-2</v>
       </c>
       <c r="CU47" s="2">
-        <f>CR47-CQ47</f>
+        <f t="shared" si="20"/>
         <v>-0.15859894685000001</v>
       </c>
       <c r="CV47" s="2">
-        <f>CS47-CQ47</f>
+        <f t="shared" si="21"/>
         <v>-0.14094930819000001</v>
       </c>
       <c r="CW47" s="2">
@@ -19534,11 +19534,11 @@
         <v>1.0777441784739401E-2</v>
       </c>
       <c r="DQ47">
-        <f>CY47-DC47</f>
+        <f t="shared" si="22"/>
         <v>1.0874099971260986E-2</v>
       </c>
       <c r="DR47">
-        <f>((DA47-CY47)/CY47)*100</f>
+        <f t="shared" si="23"/>
         <v>5.8825609588021823</v>
       </c>
     </row>
